--- a/out.xlsx
+++ b/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzofman\Documents\CacheProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D160F0-E92A-41BC-97E3-D67A426F4EB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF731D-753D-4F1E-97A9-5555FF14C46E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,6 +629,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -676,7 +677,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1073,11 +1081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S305" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3:AB334"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1344,7 @@
         <f>((O3)*F3+(P3)*C3*(F3+$D$1))/1000000</f>
         <v>15268.932300914907</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AB3" s="9">
         <f>Z3*AA3</f>
         <v>388887387.50936812</v>
       </c>
@@ -1391,7 +1399,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1443,7 +1451,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
+      <c r="AB5" s="9"/>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1495,7 +1503,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
+      <c r="AB6" s="9"/>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1597,7 +1605,7 @@
         <f t="shared" ref="AA7:AA70" si="13">((O7)*F7+(P7)*C7*(F7+$D$1))/1000000</f>
         <v>12012.858089270361</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="9">
         <f t="shared" ref="AB7" si="14">Z7*AA7</f>
         <v>242416157.27517378</v>
       </c>
@@ -1654,7 +1662,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
+      <c r="AB8" s="9"/>
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1708,7 +1716,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1762,7 +1770,7 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1864,7 +1872,7 @@
         <f t="shared" ref="AA11:AA74" si="26">((O11)*F11+(P11)*C11*(F11+$D$1))/1000000</f>
         <v>11993.67439313457</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AB11" s="9">
         <f t="shared" ref="AB11" si="27">Z11*AA11</f>
         <v>247701437.60451454</v>
       </c>
@@ -1921,7 +1929,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
+      <c r="AB12" s="9"/>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1975,7 +1983,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
+      <c r="AB13" s="9"/>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2029,7 +2037,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
+      <c r="AB14" s="9"/>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2131,7 +2139,7 @@
         <f t="shared" ref="AA15:AA78" si="43">((O15)*F15+(P15)*C15*(F15+$D$1))/1000000</f>
         <v>14473.133403198219</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AB15" s="9">
         <f t="shared" ref="AB15" si="44">Z15*AA15</f>
         <v>351555194.5060302</v>
       </c>
@@ -2188,7 +2196,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="AB16" s="9"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2242,7 +2250,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="AB17" s="9"/>
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2296,7 +2304,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
+      <c r="AB18" s="9"/>
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2398,7 +2406,7 @@
         <f t="shared" ref="AA19:AA82" si="60">((O19)*F19+(P19)*C19*(F19+$D$1))/1000000</f>
         <v>10309.823725774535</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="9">
         <f t="shared" ref="AB19" si="61">Z19*AA19</f>
         <v>180478205.31212735</v>
       </c>
@@ -2455,7 +2463,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
+      <c r="AB20" s="9"/>
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2509,7 +2517,7 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
+      <c r="AB21" s="9"/>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2563,7 +2571,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
+      <c r="AB22" s="9"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2665,7 +2673,7 @@
         <f t="shared" ref="AA23:AA86" si="77">((O23)*F23+(P23)*C23*(F23+$D$1))/1000000</f>
         <v>9601.8668836390589</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="9">
         <f t="shared" ref="AB23" si="78">Z23*AA23</f>
         <v>156091926.15538263</v>
       </c>
@@ -2722,7 +2730,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -2776,7 +2784,7 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
+      <c r="AB25" s="9"/>
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -2830,7 +2838,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
+      <c r="AB26" s="9"/>
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -2932,7 +2940,7 @@
         <f t="shared" ref="AA27:AA90" si="94">((O27)*F27+(P27)*C27*(F27+$D$1))/1000000</f>
         <v>9366.0541036678787</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="9">
         <f t="shared" ref="AB27" si="95">Z27*AA27</f>
         <v>152225387.47160763</v>
       </c>
@@ -2989,7 +2997,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
+      <c r="AB28" s="9"/>
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3043,7 +3051,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
+      <c r="AB29" s="9"/>
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3097,7 +3105,7 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
+      <c r="AB30" s="9"/>
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3199,7 +3207,7 @@
         <f t="shared" ref="AA31:AA94" si="111">((O31)*F31+(P31)*C31*(F31+$D$1))/1000000</f>
         <v>12277.684015549974</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AB31" s="9">
         <f t="shared" ref="AB31" si="112">Z31*AA31</f>
         <v>255632452.51562288</v>
       </c>
@@ -3256,7 +3264,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
+      <c r="AB32" s="9"/>
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3310,7 +3318,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
+      <c r="AB33" s="9"/>
       <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3364,7 +3372,7 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
+      <c r="AB34" s="9"/>
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -3466,7 +3474,7 @@
         <f t="shared" ref="AA35:AA98" si="128">((O35)*F35+(P35)*C35*(F35+$D$1))/1000000</f>
         <v>11551.093877418498</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AB35" s="9">
         <f t="shared" ref="AB35" si="129">Z35*AA35</f>
         <v>225573884.9861531</v>
       </c>
@@ -3523,7 +3531,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
+      <c r="AB36" s="9"/>
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -3577,7 +3585,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
+      <c r="AB37" s="9"/>
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -3631,7 +3639,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
+      <c r="AB38" s="9"/>
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -3733,7 +3741,7 @@
         <f t="shared" ref="AA39:AA102" si="145">((O39)*F39+(P39)*C39*(F39+$D$1))/1000000</f>
         <v>16326.541920133535</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39" s="9">
         <f t="shared" ref="AB39" si="146">Z39*AA39</f>
         <v>450979938.07844853</v>
       </c>
@@ -3790,7 +3798,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
+      <c r="AB40" s="9"/>
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -3844,7 +3852,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
+      <c r="AB41" s="9"/>
       <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -3898,7 +3906,7 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
+      <c r="AB42" s="9"/>
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -4000,7 +4008,7 @@
         <f t="shared" ref="AA43:AA106" si="162">((O43)*F43+(P43)*C43*(F43+$D$1))/1000000</f>
         <v>7548.4221742226073</v>
       </c>
-      <c r="AB43" s="13">
+      <c r="AB43" s="9">
         <f t="shared" ref="AB43" si="163">Z43*AA43</f>
         <v>99074784.083829343</v>
       </c>
@@ -4057,7 +4065,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
+      <c r="AB44" s="9"/>
       <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -4111,7 +4119,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
+      <c r="AB45" s="9"/>
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -4165,7 +4173,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
+      <c r="AB46" s="9"/>
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -4267,7 +4275,7 @@
         <f t="shared" ref="AA47:AA110" si="179">((O47)*F47+(P47)*C47*(F47+$D$1))/1000000</f>
         <v>6923.3784042960633</v>
       </c>
-      <c r="AB47" s="13">
+      <c r="AB47" s="9">
         <f t="shared" ref="AB47" si="180">Z47*AA47</f>
         <v>84005845.532564163</v>
       </c>
@@ -4324,7 +4332,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
+      <c r="AB48" s="9"/>
       <c r="AC48" s="1"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -4378,7 +4386,7 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
+      <c r="AB49" s="9"/>
       <c r="AC49" s="1"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -4432,7 +4440,7 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
+      <c r="AB50" s="9"/>
       <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -4534,7 +4542,7 @@
         <f t="shared" ref="AA51:AA114" si="196">((O51)*F51+(P51)*C51*(F51+$D$1))/1000000</f>
         <v>7126.0527885558913</v>
       </c>
-      <c r="AB51" s="13">
+      <c r="AB51" s="9">
         <f t="shared" ref="AB51" si="197">Z51*AA51</f>
         <v>88672319.593276605</v>
       </c>
@@ -4591,7 +4599,7 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
       <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
+      <c r="AB52" s="9"/>
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -4645,7 +4653,7 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
+      <c r="AB53" s="9"/>
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -4699,7 +4707,7 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
+      <c r="AB54" s="9"/>
       <c r="AC54" s="1"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -4801,7 +4809,7 @@
         <f t="shared" ref="AA55:AA118" si="213">((O55)*F55+(P55)*C55*(F55+$D$1))/1000000</f>
         <v>7021.8653594349516</v>
       </c>
-      <c r="AB55" s="13">
+      <c r="AB55" s="9">
         <f t="shared" ref="AB55" si="214">Z55*AA55</f>
         <v>86190087.23829636</v>
       </c>
@@ -4858,7 +4866,7 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
+      <c r="AB56" s="9"/>
       <c r="AC56" s="1"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -4912,7 +4920,7 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
+      <c r="AB57" s="9"/>
       <c r="AC57" s="1"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -4966,7 +4974,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
+      <c r="AB58" s="9"/>
       <c r="AC58" s="1"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -5068,7 +5076,7 @@
         <f t="shared" ref="AA59:AA122" si="230">((O59)*F59+(P59)*C59*(F59+$D$1))/1000000</f>
         <v>9365.7883243285378</v>
       </c>
-      <c r="AB59" s="13">
+      <c r="AB59" s="9">
         <f t="shared" ref="AB59" si="231">Z59*AA59</f>
         <v>152029509.0074093</v>
       </c>
@@ -5125,7 +5133,7 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
+      <c r="AB60" s="9"/>
       <c r="AC60" s="1"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -5179,7 +5187,7 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
+      <c r="AB61" s="9"/>
       <c r="AC61" s="1"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -5233,7 +5241,7 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
+      <c r="AB62" s="9"/>
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -5335,7 +5343,7 @@
         <f t="shared" ref="AA63:AA126" si="247">((O63)*F63+(P63)*C63*(F63+$D$1))/1000000</f>
         <v>8263.9561164803836</v>
       </c>
-      <c r="AB63" s="13">
+      <c r="AB63" s="9">
         <f t="shared" ref="AB63" si="248">Z63*AA63</f>
         <v>119326574.51235779</v>
       </c>
@@ -5392,7 +5400,7 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
+      <c r="AB64" s="9"/>
       <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
@@ -5446,7 +5454,7 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
+      <c r="AB65" s="9"/>
       <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
@@ -5500,7 +5508,7 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
+      <c r="AB66" s="9"/>
       <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
@@ -5602,7 +5610,7 @@
         <f t="shared" ref="AA67:AA130" si="264">((O67)*F67+(P67)*C67*(F67+$D$1))/1000000</f>
         <v>8120.5650290964741</v>
       </c>
-      <c r="AB67" s="13">
+      <c r="AB67" s="9">
         <f t="shared" ref="AB67" si="265">Z67*AA67</f>
         <v>114935945.90829128</v>
       </c>
@@ -5659,7 +5667,7 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
+      <c r="AB68" s="9"/>
       <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -5713,7 +5721,7 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
       <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
+      <c r="AB69" s="9"/>
       <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
@@ -5767,7 +5775,7 @@
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
+      <c r="AB70" s="9"/>
       <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
@@ -5869,7 +5877,7 @@
         <f t="shared" ref="AA71:AA134" si="282">((O71)*F71+(P71)*C71*(F71+$D$1))/1000000</f>
         <v>12553.670223246656</v>
       </c>
-      <c r="AB71" s="13">
+      <c r="AB71" s="9">
         <f t="shared" ref="AB71" si="283">Z71*AA71</f>
         <v>272031463.72753114</v>
       </c>
@@ -5926,7 +5934,7 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
+      <c r="AB72" s="9"/>
       <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
@@ -5980,7 +5988,7 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
+      <c r="AB73" s="9"/>
       <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -6034,7 +6042,7 @@
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
       <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
+      <c r="AB74" s="9"/>
       <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
@@ -6136,7 +6144,7 @@
         <f t="shared" ref="AA75:AA138" si="299">((O75)*F75+(P75)*C75*(F75+$D$1))/1000000</f>
         <v>11391.67659776544</v>
       </c>
-      <c r="AB75" s="13">
+      <c r="AB75" s="9">
         <f t="shared" ref="AB75" si="300">Z75*AA75</f>
         <v>225528343.18293872</v>
       </c>
@@ -6193,7 +6201,7 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
       <c r="AA76" s="13"/>
-      <c r="AB76" s="13"/>
+      <c r="AB76" s="9"/>
       <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
@@ -6247,7 +6255,7 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
       <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
+      <c r="AB77" s="9"/>
       <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -6301,7 +6309,7 @@
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
       <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
+      <c r="AB78" s="9"/>
       <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -6403,7 +6411,7 @@
         <f t="shared" ref="AA79:AA142" si="316">((O79)*F79+(P79)*C79*(F79+$D$1))/1000000</f>
         <v>17865.792004318588</v>
       </c>
-      <c r="AB79" s="13">
+      <c r="AB79" s="9">
         <f t="shared" ref="AB79" si="317">Z79*AA79</f>
         <v>548892290.44898927</v>
       </c>
@@ -6460,7 +6468,7 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
       <c r="AA80" s="13"/>
-      <c r="AB80" s="13"/>
+      <c r="AB80" s="9"/>
       <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -6514,7 +6522,7 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
       <c r="AA81" s="13"/>
-      <c r="AB81" s="13"/>
+      <c r="AB81" s="9"/>
       <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -6568,7 +6576,7 @@
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
       <c r="AA82" s="13"/>
-      <c r="AB82" s="13"/>
+      <c r="AB82" s="9"/>
       <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
@@ -6670,7 +6678,7 @@
         <f t="shared" ref="AA83:AA146" si="333">((O83)*F83+(P83)*C83*(F83+$D$1))/1000000</f>
         <v>4557.5536659830796</v>
       </c>
-      <c r="AB83" s="13">
+      <c r="AB83" s="9">
         <f t="shared" ref="AB83" si="334">Z83*AA83</f>
         <v>36637143.227584347</v>
       </c>
@@ -6727,7 +6735,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="13"/>
-      <c r="AB84" s="13"/>
+      <c r="AB84" s="9"/>
       <c r="AC84" s="1"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -6781,7 +6789,7 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
       <c r="AA85" s="13"/>
-      <c r="AB85" s="13"/>
+      <c r="AB85" s="9"/>
       <c r="AC85" s="1"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
@@ -6835,7 +6843,7 @@
       <c r="Y86" s="13"/>
       <c r="Z86" s="13"/>
       <c r="AA86" s="13"/>
-      <c r="AB86" s="13"/>
+      <c r="AB86" s="9"/>
       <c r="AC86" s="1"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
@@ -6937,7 +6945,7 @@
         <f t="shared" ref="AA87:AA150" si="350">((O87)*F87+(P87)*C87*(F87+$D$1))/1000000</f>
         <v>3261.0533957890275</v>
       </c>
-      <c r="AB87" s="13">
+      <c r="AB87" s="9">
         <f t="shared" ref="AB87" si="351">Z87*AA87</f>
         <v>19166118.697323367</v>
       </c>
@@ -6994,7 +7002,7 @@
       <c r="Y88" s="13"/>
       <c r="Z88" s="13"/>
       <c r="AA88" s="13"/>
-      <c r="AB88" s="13"/>
+      <c r="AB88" s="9"/>
       <c r="AC88" s="1"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -7048,7 +7056,7 @@
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
       <c r="AA89" s="13"/>
-      <c r="AB89" s="13"/>
+      <c r="AB89" s="9"/>
       <c r="AC89" s="1"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
@@ -7102,7 +7110,7 @@
       <c r="Y90" s="13"/>
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
-      <c r="AB90" s="13"/>
+      <c r="AB90" s="9"/>
       <c r="AC90" s="1"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
@@ -7204,7 +7212,7 @@
         <f t="shared" ref="AA91:AA154" si="367">((O91)*F91+(P91)*C91*(F91+$D$1))/1000000</f>
         <v>3057.3607155999998</v>
       </c>
-      <c r="AB91" s="13">
+      <c r="AB91" s="9">
         <f t="shared" ref="AB91" si="368">Z91*AA91</f>
         <v>17006763.345439773</v>
       </c>
@@ -7261,7 +7269,7 @@
       <c r="Y92" s="13"/>
       <c r="Z92" s="13"/>
       <c r="AA92" s="13"/>
-      <c r="AB92" s="13"/>
+      <c r="AB92" s="9"/>
       <c r="AC92" s="1"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
@@ -7315,7 +7323,7 @@
       <c r="Y93" s="13"/>
       <c r="Z93" s="13"/>
       <c r="AA93" s="13"/>
-      <c r="AB93" s="13"/>
+      <c r="AB93" s="9"/>
       <c r="AC93" s="1"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -7369,7 +7377,7 @@
       <c r="Y94" s="13"/>
       <c r="Z94" s="13"/>
       <c r="AA94" s="13"/>
-      <c r="AB94" s="13"/>
+      <c r="AB94" s="9"/>
       <c r="AC94" s="1"/>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
@@ -7471,7 +7479,7 @@
         <f t="shared" ref="AA95:AA158" si="384">((O95)*F95+(P95)*C95*(F95+$D$1))/1000000</f>
         <v>2630.4675481740319</v>
       </c>
-      <c r="AB95" s="13">
+      <c r="AB95" s="9">
         <f t="shared" ref="AB95" si="385">Z95*AA95</f>
         <v>12720528.479498735</v>
       </c>
@@ -7528,7 +7536,7 @@
       <c r="Y96" s="13"/>
       <c r="Z96" s="13"/>
       <c r="AA96" s="13"/>
-      <c r="AB96" s="13"/>
+      <c r="AB96" s="9"/>
       <c r="AC96" s="1"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
@@ -7582,7 +7590,7 @@
       <c r="Y97" s="13"/>
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
-      <c r="AB97" s="13"/>
+      <c r="AB97" s="9"/>
       <c r="AC97" s="1"/>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
@@ -7636,7 +7644,7 @@
       <c r="Y98" s="13"/>
       <c r="Z98" s="13"/>
       <c r="AA98" s="13"/>
-      <c r="AB98" s="13"/>
+      <c r="AB98" s="9"/>
       <c r="AC98" s="1"/>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
@@ -7738,7 +7746,7 @@
         <f t="shared" ref="AA99:AA162" si="401">((O99)*F99+(P99)*C99*(F99+$D$1))/1000000</f>
         <v>2121.1797563474602</v>
       </c>
-      <c r="AB99" s="13">
+      <c r="AB99" s="9">
         <f t="shared" ref="AB99" si="402">Z99*AA99</f>
         <v>8268605.6023369078</v>
       </c>
@@ -7795,7 +7803,7 @@
       <c r="Y100" s="13"/>
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
-      <c r="AB100" s="13"/>
+      <c r="AB100" s="9"/>
       <c r="AC100" s="1"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
@@ -7849,7 +7857,7 @@
       <c r="Y101" s="13"/>
       <c r="Z101" s="13"/>
       <c r="AA101" s="13"/>
-      <c r="AB101" s="13"/>
+      <c r="AB101" s="9"/>
       <c r="AC101" s="1"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
@@ -7903,7 +7911,7 @@
       <c r="Y102" s="13"/>
       <c r="Z102" s="13"/>
       <c r="AA102" s="13"/>
-      <c r="AB102" s="13"/>
+      <c r="AB102" s="9"/>
       <c r="AC102" s="1"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
@@ -8005,7 +8013,7 @@
         <f t="shared" ref="AA103:AA166" si="418">((O103)*F103+(P103)*C103*(F103+$D$1))/1000000</f>
         <v>5985.7913476213735</v>
       </c>
-      <c r="AB103" s="13">
+      <c r="AB103" s="9">
         <f t="shared" ref="AB103" si="419">Z103*AA103</f>
         <v>62716073.52825851</v>
       </c>
@@ -8062,7 +8070,7 @@
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
       <c r="AA104" s="13"/>
-      <c r="AB104" s="13"/>
+      <c r="AB104" s="9"/>
       <c r="AC104" s="1"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
@@ -8116,7 +8124,7 @@
       <c r="Y105" s="13"/>
       <c r="Z105" s="13"/>
       <c r="AA105" s="13"/>
-      <c r="AB105" s="13"/>
+      <c r="AB105" s="9"/>
       <c r="AC105" s="1"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -8170,7 +8178,7 @@
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
       <c r="AA106" s="13"/>
-      <c r="AB106" s="13"/>
+      <c r="AB106" s="9"/>
       <c r="AC106" s="1"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
@@ -8272,7 +8280,7 @@
         <f t="shared" ref="AA107:AA170" si="435">((O107)*F107+(P107)*C107*(F107+$D$1))/1000000</f>
         <v>4033.8817065607759</v>
       </c>
-      <c r="AB107" s="13">
+      <c r="AB107" s="9">
         <f t="shared" ref="AB107" si="436">Z107*AA107</f>
         <v>29062141.656730454</v>
       </c>
@@ -8329,7 +8337,7 @@
       <c r="Y108" s="13"/>
       <c r="Z108" s="13"/>
       <c r="AA108" s="13"/>
-      <c r="AB108" s="13"/>
+      <c r="AB108" s="9"/>
       <c r="AC108" s="1"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
@@ -8383,7 +8391,7 @@
       <c r="Y109" s="13"/>
       <c r="Z109" s="13"/>
       <c r="AA109" s="13"/>
-      <c r="AB109" s="13"/>
+      <c r="AB109" s="9"/>
       <c r="AC109" s="1"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
@@ -8437,7 +8445,7 @@
       <c r="Y110" s="13"/>
       <c r="Z110" s="13"/>
       <c r="AA110" s="13"/>
-      <c r="AB110" s="13"/>
+      <c r="AB110" s="9"/>
       <c r="AC110" s="1"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
@@ -8539,7 +8547,7 @@
         <f t="shared" ref="AA111:AA174" si="452">((O111)*F111+(P111)*C111*(F111+$D$1))/1000000</f>
         <v>3836.7516937732498</v>
       </c>
-      <c r="AB111" s="13">
+      <c r="AB111" s="9">
         <f t="shared" ref="AB111" si="453">Z111*AA111</f>
         <v>26495090.901178323</v>
       </c>
@@ -8596,7 +8604,7 @@
       <c r="Y112" s="13"/>
       <c r="Z112" s="13"/>
       <c r="AA112" s="13"/>
-      <c r="AB112" s="13"/>
+      <c r="AB112" s="9"/>
       <c r="AC112" s="1"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
@@ -8650,7 +8658,7 @@
       <c r="Y113" s="13"/>
       <c r="Z113" s="13"/>
       <c r="AA113" s="13"/>
-      <c r="AB113" s="13"/>
+      <c r="AB113" s="9"/>
       <c r="AC113" s="1"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
@@ -8704,7 +8712,7 @@
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
       <c r="AA114" s="13"/>
-      <c r="AB114" s="13"/>
+      <c r="AB114" s="9"/>
       <c r="AC114" s="1"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
@@ -8806,7 +8814,7 @@
         <f t="shared" ref="AA115:AA178" si="469">((O115)*F115+(P115)*C115*(F115+$D$1))/1000000</f>
         <v>4107.8076044574063</v>
       </c>
-      <c r="AB115" s="13">
+      <c r="AB115" s="9">
         <f t="shared" ref="AB115" si="470">Z115*AA115</f>
         <v>30299845.469377156</v>
       </c>
@@ -8863,7 +8871,7 @@
       <c r="Y116" s="13"/>
       <c r="Z116" s="13"/>
       <c r="AA116" s="13"/>
-      <c r="AB116" s="13"/>
+      <c r="AB116" s="9"/>
       <c r="AC116" s="1"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
@@ -8917,7 +8925,7 @@
       <c r="Y117" s="13"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="13"/>
-      <c r="AB117" s="13"/>
+      <c r="AB117" s="9"/>
       <c r="AC117" s="1"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
@@ -8971,7 +8979,7 @@
       <c r="Y118" s="13"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="13"/>
-      <c r="AB118" s="13"/>
+      <c r="AB118" s="9"/>
       <c r="AC118" s="1"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
@@ -9073,7 +9081,7 @@
         <f t="shared" ref="AA119:AA182" si="486">((O119)*F119+(P119)*C119*(F119+$D$1))/1000000</f>
         <v>8764.6249710305401</v>
       </c>
-      <c r="AB119" s="13">
+      <c r="AB119" s="9">
         <f t="shared" ref="AB119" si="487">Z119*AA119</f>
         <v>133343067.20165691</v>
       </c>
@@ -9130,7 +9138,7 @@
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="13"/>
-      <c r="AB120" s="13"/>
+      <c r="AB120" s="9"/>
       <c r="AC120" s="1"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
@@ -9184,7 +9192,7 @@
       <c r="Y121" s="13"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="13"/>
-      <c r="AB121" s="13"/>
+      <c r="AB121" s="9"/>
       <c r="AC121" s="1"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
@@ -9238,7 +9246,7 @@
       <c r="Y122" s="13"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="13"/>
-      <c r="AB122" s="13"/>
+      <c r="AB122" s="9"/>
       <c r="AC122" s="1"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
@@ -9340,7 +9348,7 @@
         <f t="shared" ref="AA123:AA186" si="503">((O123)*F123+(P123)*C123*(F123+$D$1))/1000000</f>
         <v>7031.4962212116025</v>
       </c>
-      <c r="AB123" s="13">
+      <c r="AB123" s="9">
         <f t="shared" ref="AB123" si="504">Z123*AA123</f>
         <v>86726783.463502258</v>
       </c>
@@ -9397,7 +9405,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="13"/>
-      <c r="AB124" s="13"/>
+      <c r="AB124" s="9"/>
       <c r="AC124" s="1"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
@@ -9451,7 +9459,7 @@
       <c r="Y125" s="13"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="13"/>
-      <c r="AB125" s="13"/>
+      <c r="AB125" s="9"/>
       <c r="AC125" s="1"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
@@ -9505,7 +9513,7 @@
       <c r="Y126" s="13"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="13"/>
-      <c r="AB126" s="13"/>
+      <c r="AB126" s="9"/>
       <c r="AC126" s="1"/>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
@@ -9607,7 +9615,7 @@
         <f t="shared" ref="AA127:AA190" si="520">((O127)*F127+(P127)*C127*(F127+$D$1))/1000000</f>
         <v>5474.8019831251595</v>
       </c>
-      <c r="AB127" s="13">
+      <c r="AB127" s="9">
         <f t="shared" ref="AB127" si="521">Z127*AA127</f>
         <v>53217709.942872591</v>
       </c>
@@ -9664,7 +9672,7 @@
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
       <c r="AA128" s="13"/>
-      <c r="AB128" s="13"/>
+      <c r="AB128" s="9"/>
       <c r="AC128" s="1"/>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
@@ -9718,7 +9726,7 @@
       <c r="Y129" s="13"/>
       <c r="Z129" s="13"/>
       <c r="AA129" s="13"/>
-      <c r="AB129" s="13"/>
+      <c r="AB129" s="9"/>
       <c r="AC129" s="1"/>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
@@ -9772,7 +9780,7 @@
       <c r="Y130" s="13"/>
       <c r="Z130" s="13"/>
       <c r="AA130" s="13"/>
-      <c r="AB130" s="13"/>
+      <c r="AB130" s="9"/>
       <c r="AC130" s="1"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
@@ -9874,7 +9882,7 @@
         <f t="shared" ref="AA131:AA194" si="537">((O131)*F131+(P131)*C131*(F131+$D$1))/1000000</f>
         <v>13414.273106252369</v>
       </c>
-      <c r="AB131" s="13">
+      <c r="AB131" s="9">
         <f t="shared" ref="AB131" si="538">Z131*AA131</f>
         <v>310346614.76074362</v>
       </c>
@@ -9931,7 +9939,7 @@
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
       <c r="AA132" s="13"/>
-      <c r="AB132" s="13"/>
+      <c r="AB132" s="9"/>
       <c r="AC132" s="1"/>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
@@ -9985,7 +9993,7 @@
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
       <c r="AA133" s="13"/>
-      <c r="AB133" s="13"/>
+      <c r="AB133" s="9"/>
       <c r="AC133" s="1"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
@@ -10039,7 +10047,7 @@
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
       <c r="AA134" s="13"/>
-      <c r="AB134" s="13"/>
+      <c r="AB134" s="9"/>
       <c r="AC134" s="1"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -10141,7 +10149,7 @@
         <f t="shared" ref="AA135:AA166" si="555">((O135)*F135+(P135)*C135*(F135+$D$1))/1000000</f>
         <v>9997.6061904912494</v>
       </c>
-      <c r="AB135" s="13">
+      <c r="AB135" s="9">
         <f t="shared" ref="AB135" si="556">Z135*AA135</f>
         <v>174065253.11681378</v>
       </c>
@@ -10198,7 +10206,7 @@
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
       <c r="AA136" s="13"/>
-      <c r="AB136" s="13"/>
+      <c r="AB136" s="9"/>
       <c r="AC136" s="1"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
@@ -10252,7 +10260,7 @@
       <c r="Y137" s="13"/>
       <c r="Z137" s="13"/>
       <c r="AA137" s="13"/>
-      <c r="AB137" s="13"/>
+      <c r="AB137" s="9"/>
       <c r="AC137" s="1"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
@@ -10306,7 +10314,7 @@
       <c r="Y138" s="13"/>
       <c r="Z138" s="13"/>
       <c r="AA138" s="13"/>
-      <c r="AB138" s="13"/>
+      <c r="AB138" s="9"/>
       <c r="AC138" s="1"/>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
@@ -10408,7 +10416,7 @@
         <f t="shared" ref="AA139:AA170" si="572">((O139)*F139+(P139)*C139*(F139+$D$1))/1000000</f>
         <v>21383.253695391664</v>
       </c>
-      <c r="AB139" s="13">
+      <c r="AB139" s="9">
         <f t="shared" ref="AB139" si="573">Z139*AA139</f>
         <v>784990414.04245317</v>
       </c>
@@ -10465,7 +10473,7 @@
       <c r="Y140" s="13"/>
       <c r="Z140" s="13"/>
       <c r="AA140" s="13"/>
-      <c r="AB140" s="13"/>
+      <c r="AB140" s="9"/>
       <c r="AC140" s="1"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
@@ -10519,7 +10527,7 @@
       <c r="Y141" s="13"/>
       <c r="Z141" s="13"/>
       <c r="AA141" s="13"/>
-      <c r="AB141" s="13"/>
+      <c r="AB141" s="9"/>
       <c r="AC141" s="1"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
@@ -10573,7 +10581,7 @@
       <c r="Y142" s="13"/>
       <c r="Z142" s="13"/>
       <c r="AA142" s="13"/>
-      <c r="AB142" s="13"/>
+      <c r="AB142" s="9"/>
       <c r="AC142" s="1"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
@@ -10675,7 +10683,7 @@
         <f t="shared" ref="AA143:AA174" si="589">((O143)*F143+(P143)*C143*(F143+$D$1))/1000000</f>
         <v>1853.2384648259881</v>
       </c>
-      <c r="AB143" s="13">
+      <c r="AB143" s="9">
         <f t="shared" ref="AB143" si="590">Z143*AA143</f>
         <v>6437626.2134766476</v>
       </c>
@@ -10732,7 +10740,7 @@
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
       <c r="AA144" s="13"/>
-      <c r="AB144" s="13"/>
+      <c r="AB144" s="9"/>
       <c r="AC144" s="1"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
@@ -10786,7 +10794,7 @@
       <c r="Y145" s="13"/>
       <c r="Z145" s="13"/>
       <c r="AA145" s="13"/>
-      <c r="AB145" s="13"/>
+      <c r="AB145" s="9"/>
       <c r="AC145" s="1"/>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
@@ -10840,7 +10848,7 @@
       <c r="Y146" s="13"/>
       <c r="Z146" s="13"/>
       <c r="AA146" s="13"/>
-      <c r="AB146" s="13"/>
+      <c r="AB146" s="9"/>
       <c r="AC146" s="1"/>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
@@ -10942,7 +10950,7 @@
         <f t="shared" ref="AA147:AA178" si="606">((O147)*F147+(P147)*C147*(F147+$D$1))/1000000</f>
         <v>1005.8489412978199</v>
       </c>
-      <c r="AB147" s="13">
+      <c r="AB147" s="9">
         <f t="shared" ref="AB147" si="607">Z147*AA147</f>
         <v>2039544.871145312</v>
       </c>
@@ -10999,7 +11007,7 @@
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
       <c r="AA148" s="13"/>
-      <c r="AB148" s="13"/>
+      <c r="AB148" s="9"/>
       <c r="AC148" s="1"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.25">
@@ -11053,7 +11061,7 @@
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
       <c r="AA149" s="13"/>
-      <c r="AB149" s="13"/>
+      <c r="AB149" s="9"/>
       <c r="AC149" s="1"/>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
@@ -11107,7 +11115,7 @@
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
       <c r="AA150" s="13"/>
-      <c r="AB150" s="13"/>
+      <c r="AB150" s="9"/>
       <c r="AC150" s="1"/>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
@@ -11209,7 +11217,7 @@
         <f t="shared" ref="AA151:AA182" si="623">((O151)*F151+(P151)*C151*(F151+$D$1))/1000000</f>
         <v>513.14515118275995</v>
       </c>
-      <c r="AB151" s="13">
+      <c r="AB151" s="9">
         <f t="shared" ref="AB151" si="624">Z151*AA151</f>
         <v>640586.802986959</v>
       </c>
@@ -11266,7 +11274,7 @@
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
       <c r="AA152" s="13"/>
-      <c r="AB152" s="13"/>
+      <c r="AB152" s="9"/>
       <c r="AC152" s="1"/>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
@@ -11320,7 +11328,7 @@
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
       <c r="AA153" s="13"/>
-      <c r="AB153" s="13"/>
+      <c r="AB153" s="9"/>
       <c r="AC153" s="1"/>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
@@ -11374,7 +11382,7 @@
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
       <c r="AA154" s="13"/>
-      <c r="AB154" s="13"/>
+      <c r="AB154" s="9"/>
       <c r="AC154" s="1"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
@@ -11476,7 +11484,7 @@
         <f t="shared" ref="AA155:AA186" si="640">((O155)*F155+(P155)*C155*(F155+$D$1))/1000000</f>
         <v>327.82092159300799</v>
       </c>
-      <c r="AB155" s="13">
+      <c r="AB155" s="9">
         <f t="shared" ref="AB155" si="641">Z155*AA155</f>
         <v>304782.92608896579</v>
       </c>
@@ -11533,7 +11541,7 @@
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
       <c r="AA156" s="13"/>
-      <c r="AB156" s="13"/>
+      <c r="AB156" s="9"/>
       <c r="AC156" s="1"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
@@ -11587,7 +11595,7 @@
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
       <c r="AA157" s="13"/>
-      <c r="AB157" s="13"/>
+      <c r="AB157" s="9"/>
       <c r="AC157" s="1"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
@@ -11641,7 +11649,7 @@
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
       <c r="AA158" s="13"/>
-      <c r="AB158" s="13"/>
+      <c r="AB158" s="9"/>
       <c r="AC158" s="1"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
@@ -11743,7 +11751,7 @@
         <f t="shared" ref="AA159:AA190" si="657">((O159)*F159+(P159)*C159*(F159+$D$1))/1000000</f>
         <v>334.86271471813399</v>
       </c>
-      <c r="AB159" s="13">
+      <c r="AB159" s="9">
         <f t="shared" ref="AB159" si="658">Z159*AA159</f>
         <v>297135.08323193458</v>
       </c>
@@ -11800,7 +11808,7 @@
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
       <c r="AA160" s="13"/>
-      <c r="AB160" s="13"/>
+      <c r="AB160" s="9"/>
       <c r="AC160" s="1"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
@@ -11854,7 +11862,7 @@
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
       <c r="AA161" s="13"/>
-      <c r="AB161" s="13"/>
+      <c r="AB161" s="9"/>
       <c r="AC161" s="1"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
@@ -11908,7 +11916,7 @@
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
       <c r="AA162" s="13"/>
-      <c r="AB162" s="13"/>
+      <c r="AB162" s="9"/>
       <c r="AC162" s="1"/>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
@@ -12010,7 +12018,7 @@
         <f t="shared" ref="AA163:AA194" si="674">((O163)*F163+(P163)*C163*(F163+$D$1))/1000000</f>
         <v>380.34749571238399</v>
       </c>
-      <c r="AB163" s="13">
+      <c r="AB163" s="9">
         <f t="shared" ref="AB163" si="675">Z163*AA163</f>
         <v>338119.48860144318</v>
       </c>
@@ -12067,7 +12075,7 @@
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
       <c r="AA164" s="13"/>
-      <c r="AB164" s="13"/>
+      <c r="AB164" s="9"/>
       <c r="AC164" s="1"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
@@ -12121,7 +12129,7 @@
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
       <c r="AA165" s="13"/>
-      <c r="AB165" s="13"/>
+      <c r="AB165" s="9"/>
       <c r="AC165" s="1"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
@@ -12175,7 +12183,7 @@
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
       <c r="AA166" s="13"/>
-      <c r="AB166" s="13"/>
+      <c r="AB166" s="9"/>
       <c r="AC166" s="1"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
@@ -12277,7 +12285,7 @@
         <f t="shared" ref="AA167:AA198" si="691">((O167)*F167+(P167)*C167*(F167+$D$1))/1000000</f>
         <v>2415.4836794265798</v>
       </c>
-      <c r="AB167" s="13">
+      <c r="AB167" s="9">
         <f t="shared" ref="AB167" si="692">Z167*AA167</f>
         <v>10720255.986477429</v>
       </c>
@@ -12334,7 +12342,7 @@
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
       <c r="AA168" s="13"/>
-      <c r="AB168" s="13"/>
+      <c r="AB168" s="9"/>
       <c r="AC168" s="1"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
@@ -12388,7 +12396,7 @@
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
       <c r="AA169" s="13"/>
-      <c r="AB169" s="13"/>
+      <c r="AB169" s="9"/>
       <c r="AC169" s="1"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
@@ -12442,7 +12450,7 @@
       <c r="Y170" s="13"/>
       <c r="Z170" s="13"/>
       <c r="AA170" s="13"/>
-      <c r="AB170" s="13"/>
+      <c r="AB170" s="9"/>
       <c r="AC170" s="1"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
@@ -12544,7 +12552,7 @@
         <f t="shared" ref="AA171:AA202" si="708">((O171)*F171+(P171)*C171*(F171+$D$1))/1000000</f>
         <v>1364.6973420545128</v>
       </c>
-      <c r="AB171" s="13">
+      <c r="AB171" s="9">
         <f t="shared" ref="AB171" si="709">Z171*AA171</f>
         <v>3606720.3620942296</v>
       </c>
@@ -12601,7 +12609,7 @@
       <c r="Y172" s="13"/>
       <c r="Z172" s="13"/>
       <c r="AA172" s="13"/>
-      <c r="AB172" s="13"/>
+      <c r="AB172" s="9"/>
       <c r="AC172" s="1"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
@@ -12655,7 +12663,7 @@
       <c r="Y173" s="13"/>
       <c r="Z173" s="13"/>
       <c r="AA173" s="13"/>
-      <c r="AB173" s="13"/>
+      <c r="AB173" s="9"/>
       <c r="AC173" s="1"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
@@ -12709,7 +12717,7 @@
       <c r="Y174" s="13"/>
       <c r="Z174" s="13"/>
       <c r="AA174" s="13"/>
-      <c r="AB174" s="13"/>
+      <c r="AB174" s="9"/>
       <c r="AC174" s="1"/>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
@@ -12811,7 +12819,7 @@
         <f t="shared" ref="AA175:AA206" si="725">((O175)*F175+(P175)*C175*(F175+$D$1))/1000000</f>
         <v>738.23281731435486</v>
       </c>
-      <c r="AB175" s="13">
+      <c r="AB175" s="9">
         <f t="shared" ref="AB175" si="726">Z175*AA175</f>
         <v>1209870.7857638942</v>
       </c>
@@ -12868,7 +12876,7 @@
       <c r="Y176" s="13"/>
       <c r="Z176" s="13"/>
       <c r="AA176" s="13"/>
-      <c r="AB176" s="13"/>
+      <c r="AB176" s="9"/>
       <c r="AC176" s="1"/>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.25">
@@ -12922,7 +12930,7 @@
       <c r="Y177" s="13"/>
       <c r="Z177" s="13"/>
       <c r="AA177" s="13"/>
-      <c r="AB177" s="13"/>
+      <c r="AB177" s="9"/>
       <c r="AC177" s="1"/>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.25">
@@ -12976,7 +12984,7 @@
       <c r="Y178" s="13"/>
       <c r="Z178" s="13"/>
       <c r="AA178" s="13"/>
-      <c r="AB178" s="13"/>
+      <c r="AB178" s="9"/>
       <c r="AC178" s="1"/>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.25">
@@ -13078,7 +13086,7 @@
         <f t="shared" ref="AA179:AA210" si="742">((O179)*F179+(P179)*C179*(F179+$D$1))/1000000</f>
         <v>426.83015355451198</v>
       </c>
-      <c r="AB179" s="13">
+      <c r="AB179" s="9">
         <f t="shared" ref="AB179" si="743">Z179*AA179</f>
         <v>470260.81248296995</v>
       </c>
@@ -13135,7 +13143,7 @@
       <c r="Y180" s="13"/>
       <c r="Z180" s="13"/>
       <c r="AA180" s="13"/>
-      <c r="AB180" s="13"/>
+      <c r="AB180" s="9"/>
       <c r="AC180" s="1"/>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.25">
@@ -13189,7 +13197,7 @@
       <c r="Y181" s="13"/>
       <c r="Z181" s="13"/>
       <c r="AA181" s="13"/>
-      <c r="AB181" s="13"/>
+      <c r="AB181" s="9"/>
       <c r="AC181" s="1"/>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.25">
@@ -13243,7 +13251,7 @@
       <c r="Y182" s="13"/>
       <c r="Z182" s="13"/>
       <c r="AA182" s="13"/>
-      <c r="AB182" s="13"/>
+      <c r="AB182" s="9"/>
       <c r="AC182" s="1"/>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.25">
@@ -13345,7 +13353,7 @@
         <f t="shared" ref="AA183:AA214" si="759">((O183)*F183+(P183)*C183*(F183+$D$1))/1000000</f>
         <v>484.82353568266495</v>
       </c>
-      <c r="AB183" s="13">
+      <c r="AB183" s="9">
         <f t="shared" ref="AB183" si="760">Z183*AA183</f>
         <v>554838.42026172893</v>
       </c>
@@ -13402,7 +13410,7 @@
       <c r="Y184" s="13"/>
       <c r="Z184" s="13"/>
       <c r="AA184" s="13"/>
-      <c r="AB184" s="13"/>
+      <c r="AB184" s="9"/>
       <c r="AC184" s="1"/>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.25">
@@ -13456,7 +13464,7 @@
       <c r="Y185" s="13"/>
       <c r="Z185" s="13"/>
       <c r="AA185" s="13"/>
-      <c r="AB185" s="13"/>
+      <c r="AB185" s="9"/>
       <c r="AC185" s="1"/>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.25">
@@ -13510,7 +13518,7 @@
       <c r="Y186" s="13"/>
       <c r="Z186" s="13"/>
       <c r="AA186" s="13"/>
-      <c r="AB186" s="13"/>
+      <c r="AB186" s="9"/>
       <c r="AC186" s="1"/>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.25">
@@ -13612,7 +13620,7 @@
         <f t="shared" ref="AA187:AA218" si="776">((O187)*F187+(P187)*C187*(F187+$D$1))/1000000</f>
         <v>4409.918551977682</v>
       </c>
-      <c r="AB187" s="13">
+      <c r="AB187" s="9">
         <f t="shared" ref="AB187" si="777">Z187*AA187</f>
         <v>34619682.463296533</v>
       </c>
@@ -13669,7 +13677,7 @@
       <c r="Y188" s="13"/>
       <c r="Z188" s="13"/>
       <c r="AA188" s="13"/>
-      <c r="AB188" s="13"/>
+      <c r="AB188" s="9"/>
       <c r="AC188" s="1"/>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.25">
@@ -13723,7 +13731,7 @@
       <c r="Y189" s="13"/>
       <c r="Z189" s="13"/>
       <c r="AA189" s="13"/>
-      <c r="AB189" s="13"/>
+      <c r="AB189" s="9"/>
       <c r="AC189" s="1"/>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.25">
@@ -13777,7 +13785,7 @@
       <c r="Y190" s="13"/>
       <c r="Z190" s="13"/>
       <c r="AA190" s="13"/>
-      <c r="AB190" s="13"/>
+      <c r="AB190" s="9"/>
       <c r="AC190" s="1"/>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.25">
@@ -13879,7 +13887,7 @@
         <f t="shared" ref="AA191:AA222" si="793">((O191)*F191+(P191)*C191*(F191+$D$1))/1000000</f>
         <v>3009.5275035987229</v>
       </c>
-      <c r="AB191" s="13">
+      <c r="AB191" s="9">
         <f t="shared" ref="AB191" si="794">Z191*AA191</f>
         <v>16421320.107699528</v>
       </c>
@@ -13936,7 +13944,7 @@
       <c r="Y192" s="13"/>
       <c r="Z192" s="13"/>
       <c r="AA192" s="13"/>
-      <c r="AB192" s="13"/>
+      <c r="AB192" s="9"/>
       <c r="AC192" s="1"/>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.25">
@@ -13990,7 +13998,7 @@
       <c r="Y193" s="13"/>
       <c r="Z193" s="13"/>
       <c r="AA193" s="13"/>
-      <c r="AB193" s="13"/>
+      <c r="AB193" s="9"/>
       <c r="AC193" s="1"/>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.25">
@@ -14044,7 +14052,7 @@
       <c r="Y194" s="13"/>
       <c r="Z194" s="13"/>
       <c r="AA194" s="13"/>
-      <c r="AB194" s="13"/>
+      <c r="AB194" s="9"/>
       <c r="AC194" s="1"/>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.25">
@@ -14146,7 +14154,7 @@
         <f t="shared" ref="AA195:AA226" si="810">((O195)*F195+(P195)*C195*(F195+$D$1))/1000000</f>
         <v>1714.5889935704399</v>
       </c>
-      <c r="AB195" s="13">
+      <c r="AB195" s="9">
         <f t="shared" ref="AB195" si="811">Z195*AA195</f>
         <v>5709048.8150565689</v>
       </c>
@@ -14203,7 +14211,7 @@
       <c r="Y196" s="13"/>
       <c r="Z196" s="13"/>
       <c r="AA196" s="13"/>
-      <c r="AB196" s="13"/>
+      <c r="AB196" s="9"/>
       <c r="AC196" s="1"/>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
@@ -14257,7 +14265,7 @@
       <c r="Y197" s="13"/>
       <c r="Z197" s="13"/>
       <c r="AA197" s="13"/>
-      <c r="AB197" s="13"/>
+      <c r="AB197" s="9"/>
       <c r="AC197" s="1"/>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
@@ -14311,7 +14319,7 @@
       <c r="Y198" s="13"/>
       <c r="Z198" s="13"/>
       <c r="AA198" s="13"/>
-      <c r="AB198" s="13"/>
+      <c r="AB198" s="9"/>
       <c r="AC198" s="1"/>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
@@ -14413,7 +14421,7 @@
         <f t="shared" ref="AA199:AA230" si="828">((O199)*F199+(P199)*C199*(F199+$D$1))/1000000</f>
         <v>633.72899786585594</v>
       </c>
-      <c r="AB199" s="13">
+      <c r="AB199" s="9">
         <f t="shared" ref="AB199" si="829">Z199*AA199</f>
         <v>925532.13689819595</v>
       </c>
@@ -14470,7 +14478,7 @@
       <c r="Y200" s="13"/>
       <c r="Z200" s="13"/>
       <c r="AA200" s="13"/>
-      <c r="AB200" s="13"/>
+      <c r="AB200" s="9"/>
       <c r="AC200" s="1"/>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.25">
@@ -14524,7 +14532,7 @@
       <c r="Y201" s="13"/>
       <c r="Z201" s="13"/>
       <c r="AA201" s="13"/>
-      <c r="AB201" s="13"/>
+      <c r="AB201" s="9"/>
       <c r="AC201" s="1"/>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -14578,7 +14586,7 @@
       <c r="Y202" s="13"/>
       <c r="Z202" s="13"/>
       <c r="AA202" s="13"/>
-      <c r="AB202" s="13"/>
+      <c r="AB202" s="9"/>
       <c r="AC202" s="1"/>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.25">
@@ -14680,7 +14688,7 @@
         <f t="shared" ref="AA203:AA234" si="845">((O203)*F203+(P203)*C203*(F203+$D$1))/1000000</f>
         <v>7044.1130711399173</v>
       </c>
-      <c r="AB203" s="13">
+      <c r="AB203" s="9">
         <f t="shared" ref="AB203" si="846">Z203*AA203</f>
         <v>87048276.256312147</v>
       </c>
@@ -14737,7 +14745,7 @@
       <c r="Y204" s="13"/>
       <c r="Z204" s="13"/>
       <c r="AA204" s="13"/>
-      <c r="AB204" s="13"/>
+      <c r="AB204" s="9"/>
       <c r="AC204" s="1"/>
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
@@ -14791,7 +14799,7 @@
       <c r="Y205" s="13"/>
       <c r="Z205" s="13"/>
       <c r="AA205" s="13"/>
-      <c r="AB205" s="13"/>
+      <c r="AB205" s="9"/>
       <c r="AC205" s="1"/>
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.25">
@@ -14845,7 +14853,7 @@
       <c r="Y206" s="13"/>
       <c r="Z206" s="13"/>
       <c r="AA206" s="13"/>
-      <c r="AB206" s="13"/>
+      <c r="AB206" s="9"/>
       <c r="AC206" s="1"/>
     </row>
     <row r="207" spans="1:29" x14ac:dyDescent="0.25">
@@ -14947,7 +14955,7 @@
         <f t="shared" ref="AA207:AA238" si="862">((O207)*F207+(P207)*C207*(F207+$D$1))/1000000</f>
         <v>5200.8525308307208</v>
       </c>
-      <c r="AB207" s="13">
+      <c r="AB207" s="9">
         <f t="shared" ref="AB207" si="863">Z207*AA207</f>
         <v>47877109.549187176</v>
       </c>
@@ -15004,7 +15012,7 @@
       <c r="Y208" s="13"/>
       <c r="Z208" s="13"/>
       <c r="AA208" s="13"/>
-      <c r="AB208" s="13"/>
+      <c r="AB208" s="9"/>
       <c r="AC208" s="1"/>
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.25">
@@ -15058,7 +15066,7 @@
       <c r="Y209" s="13"/>
       <c r="Z209" s="13"/>
       <c r="AA209" s="13"/>
-      <c r="AB209" s="13"/>
+      <c r="AB209" s="9"/>
       <c r="AC209" s="1"/>
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.25">
@@ -15112,7 +15120,7 @@
       <c r="Y210" s="13"/>
       <c r="Z210" s="13"/>
       <c r="AA210" s="13"/>
-      <c r="AB210" s="13"/>
+      <c r="AB210" s="9"/>
       <c r="AC210" s="1"/>
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.25">
@@ -15214,7 +15222,7 @@
         <f t="shared" ref="AA211:AA242" si="879">((O211)*F211+(P211)*C211*(F211+$D$1))/1000000</f>
         <v>3267.3393690258704</v>
       </c>
-      <c r="AB211" s="13">
+      <c r="AB211" s="9">
         <f t="shared" ref="AB211" si="880">Z211*AA211</f>
         <v>19666887.749283206</v>
       </c>
@@ -15271,7 +15279,7 @@
       <c r="Y212" s="13"/>
       <c r="Z212" s="13"/>
       <c r="AA212" s="13"/>
-      <c r="AB212" s="13"/>
+      <c r="AB212" s="9"/>
       <c r="AC212" s="1"/>
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.25">
@@ -15325,7 +15333,7 @@
       <c r="Y213" s="13"/>
       <c r="Z213" s="13"/>
       <c r="AA213" s="13"/>
-      <c r="AB213" s="13"/>
+      <c r="AB213" s="9"/>
       <c r="AC213" s="1"/>
     </row>
     <row r="214" spans="1:29" x14ac:dyDescent="0.25">
@@ -15379,7 +15387,7 @@
       <c r="Y214" s="13"/>
       <c r="Z214" s="13"/>
       <c r="AA214" s="13"/>
-      <c r="AB214" s="13"/>
+      <c r="AB214" s="9"/>
       <c r="AC214" s="1"/>
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.25">
@@ -15481,7 +15489,7 @@
         <f t="shared" ref="AA215:AA246" si="896">((O215)*F215+(P215)*C215*(F215+$D$1))/1000000</f>
         <v>12811.860968469568</v>
       </c>
-      <c r="AB215" s="13">
+      <c r="AB215" s="9">
         <f t="shared" ref="AB215" si="897">Z215*AA215</f>
         <v>284740132.67590344</v>
       </c>
@@ -15538,7 +15546,7 @@
       <c r="Y216" s="13"/>
       <c r="Z216" s="13"/>
       <c r="AA216" s="13"/>
-      <c r="AB216" s="13"/>
+      <c r="AB216" s="9"/>
       <c r="AC216" s="1"/>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.25">
@@ -15592,7 +15600,7 @@
       <c r="Y217" s="13"/>
       <c r="Z217" s="13"/>
       <c r="AA217" s="13"/>
-      <c r="AB217" s="13"/>
+      <c r="AB217" s="9"/>
       <c r="AC217" s="1"/>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.25">
@@ -15646,7 +15654,7 @@
       <c r="Y218" s="13"/>
       <c r="Z218" s="13"/>
       <c r="AA218" s="13"/>
-      <c r="AB218" s="13"/>
+      <c r="AB218" s="9"/>
       <c r="AC218" s="1"/>
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.25">
@@ -15748,7 +15756,7 @@
         <f t="shared" ref="AA219:AA250" si="913">((O219)*F219+(P219)*C219*(F219+$D$1))/1000000</f>
         <v>11053.893706427411</v>
       </c>
-      <c r="AB219" s="13">
+      <c r="AB219" s="9">
         <f t="shared" ref="AB219" si="914">Z219*AA219</f>
         <v>212438725.2861256</v>
       </c>
@@ -15805,7 +15813,7 @@
       <c r="Y220" s="13"/>
       <c r="Z220" s="13"/>
       <c r="AA220" s="13"/>
-      <c r="AB220" s="13"/>
+      <c r="AB220" s="9"/>
       <c r="AC220" s="1"/>
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.25">
@@ -15859,7 +15867,7 @@
       <c r="Y221" s="13"/>
       <c r="Z221" s="13"/>
       <c r="AA221" s="13"/>
-      <c r="AB221" s="13"/>
+      <c r="AB221" s="9"/>
       <c r="AC221" s="1"/>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.25">
@@ -15913,7 +15921,7 @@
       <c r="Y222" s="13"/>
       <c r="Z222" s="13"/>
       <c r="AA222" s="13"/>
-      <c r="AB222" s="13"/>
+      <c r="AB222" s="9"/>
       <c r="AC222" s="1"/>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.25">
@@ -16015,7 +16023,7 @@
         <f t="shared" ref="AA223:AA254" si="930">((O223)*F223+(P223)*C223*(F223+$D$1))/1000000</f>
         <v>16613.792810973893</v>
       </c>
-      <c r="AB223" s="13">
+      <c r="AB223" s="9">
         <f t="shared" ref="AB223" si="931">Z223*AA223</f>
         <v>477310718.5895139</v>
       </c>
@@ -16072,7 +16080,7 @@
       <c r="Y224" s="13"/>
       <c r="Z224" s="13"/>
       <c r="AA224" s="13"/>
-      <c r="AB224" s="13"/>
+      <c r="AB224" s="9"/>
       <c r="AC224" s="1"/>
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.25">
@@ -16126,7 +16134,7 @@
       <c r="Y225" s="13"/>
       <c r="Z225" s="13"/>
       <c r="AA225" s="13"/>
-      <c r="AB225" s="13"/>
+      <c r="AB225" s="9"/>
       <c r="AC225" s="1"/>
     </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.25">
@@ -16180,7 +16188,7 @@
       <c r="Y226" s="13"/>
       <c r="Z226" s="13"/>
       <c r="AA226" s="13"/>
-      <c r="AB226" s="13"/>
+      <c r="AB226" s="9"/>
       <c r="AC226" s="1"/>
     </row>
     <row r="227" spans="1:29" x14ac:dyDescent="0.25">
@@ -16282,7 +16290,7 @@
         <f t="shared" ref="AA227:AA258" si="947">((O227)*F227+(P227)*C227*(F227+$D$1))/1000000</f>
         <v>1123.5158832636</v>
       </c>
-      <c r="AB227" s="13">
+      <c r="AB227" s="9">
         <f t="shared" ref="AB227" si="948">Z227*AA227</f>
         <v>2519114.8884087624</v>
       </c>
@@ -16339,7 +16347,7 @@
       <c r="Y228" s="13"/>
       <c r="Z228" s="13"/>
       <c r="AA228" s="13"/>
-      <c r="AB228" s="13"/>
+      <c r="AB228" s="9"/>
       <c r="AC228" s="1"/>
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.25">
@@ -16393,7 +16401,7 @@
       <c r="Y229" s="13"/>
       <c r="Z229" s="13"/>
       <c r="AA229" s="13"/>
-      <c r="AB229" s="13"/>
+      <c r="AB229" s="9"/>
       <c r="AC229" s="1"/>
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.25">
@@ -16447,7 +16455,7 @@
       <c r="Y230" s="13"/>
       <c r="Z230" s="13"/>
       <c r="AA230" s="13"/>
-      <c r="AB230" s="13"/>
+      <c r="AB230" s="9"/>
       <c r="AC230" s="1"/>
     </row>
     <row r="231" spans="1:29" x14ac:dyDescent="0.25">
@@ -16541,18 +16549,12 @@
         <f t="shared" ref="Y231" si="962">W231*X231</f>
         <v>7668.642926708113</v>
       </c>
-      <c r="Z231" s="13">
-        <f t="shared" ref="Z231:Z262" si="963">((O231)*E231+(P231)*C231*(E231+$B$1))/1000000</f>
-        <v>580.70901715639991</v>
-      </c>
+      <c r="Z231" s="13"/>
       <c r="AA231" s="13">
-        <f t="shared" ref="AA231:AA262" si="964">((O231)*F231+(P231)*C231*(F231+$D$1))/1000000</f>
+        <f t="shared" ref="AA231:AA262" si="963">((O231)*F231+(P231)*C231*(F231+$D$1))/1000000</f>
         <v>151.9091160047</v>
       </c>
-      <c r="AB231" s="13">
-        <f t="shared" ref="AB231" si="965">Z231*AA231</f>
-        <v>88214.993452186871</v>
-      </c>
+      <c r="AB231" s="9"/>
       <c r="AC231" s="1"/>
     </row>
     <row r="232" spans="1:29" x14ac:dyDescent="0.25">
@@ -16606,7 +16608,7 @@
       <c r="Y232" s="13"/>
       <c r="Z232" s="13"/>
       <c r="AA232" s="13"/>
-      <c r="AB232" s="13"/>
+      <c r="AB232" s="9"/>
       <c r="AC232" s="1"/>
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.25">
@@ -16660,7 +16662,7 @@
       <c r="Y233" s="13"/>
       <c r="Z233" s="13"/>
       <c r="AA233" s="13"/>
-      <c r="AB233" s="13"/>
+      <c r="AB233" s="9"/>
       <c r="AC233" s="1"/>
     </row>
     <row r="234" spans="1:29" x14ac:dyDescent="0.25">
@@ -16714,7 +16716,7 @@
       <c r="Y234" s="13"/>
       <c r="Z234" s="13"/>
       <c r="AA234" s="13"/>
-      <c r="AB234" s="13"/>
+      <c r="AB234" s="9"/>
       <c r="AC234" s="1"/>
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.25">
@@ -16753,73 +16755,64 @@
         <v>389387</v>
       </c>
       <c r="L235" s="9">
-        <f t="shared" ref="L235" si="966">G235+G236+G237+G238</f>
+        <f t="shared" ref="L235" si="964">G235+G236+G237+G238</f>
         <v>97974520</v>
       </c>
       <c r="M235" s="9">
-        <f t="shared" ref="M235" si="967">H235+H236+H237+H238</f>
+        <f t="shared" ref="M235" si="965">H235+H236+H237+H238</f>
         <v>29173</v>
       </c>
       <c r="N235" s="9">
-        <f t="shared" ref="N235" si="968">I235+I236+I237+I238</f>
+        <f t="shared" ref="N235" si="966">I235+I236+I237+I238</f>
         <v>7558</v>
       </c>
       <c r="O235" s="9">
-        <f t="shared" ref="O235" si="969">J235+J236+J237+J238</f>
+        <f t="shared" ref="O235" si="967">J235+J236+J237+J238</f>
         <v>275745707</v>
       </c>
       <c r="P235" s="9">
-        <f t="shared" ref="P235" si="970">K235+K236+K237+K238</f>
+        <f t="shared" ref="P235" si="968">K235+K236+K237+K238</f>
         <v>430550</v>
       </c>
       <c r="Q235" s="9">
-        <f t="shared" ref="Q235" si="971">((L235)*E235 + (M235)*(E235+$B$1) +N235*$B$1)/1000000</f>
+        <f t="shared" ref="Q235" si="969">((L235)*E235 + (M235)*(E235+$B$1) +N235*$B$1)/1000000</f>
         <v>124.87563006070999</v>
       </c>
       <c r="R235" s="12">
-        <f t="shared" ref="R235" si="972">((L235)*F235+(M235)*(F235+$D$1)+N235*$D$1)/1000000</f>
+        <f t="shared" ref="R235" si="970">((L235)*F235+(M235)*(F235+$D$1)+N235*$D$1)/1000000</f>
         <v>6.4039906652590002</v>
       </c>
       <c r="S235" s="9">
-        <f t="shared" ref="S235" si="973">Q235*R235</f>
+        <f t="shared" ref="S235" si="971">Q235*R235</f>
         <v>799.70236922712297</v>
       </c>
       <c r="T235" s="13">
-        <f t="shared" ref="T235" si="974">((L235)*E235+(M235)*C235*(E235+$B$1)+N235*C235*$B$1)/1000000</f>
+        <f t="shared" ref="T235" si="972">((L235)*E235+(M235)*C235*(E235+$B$1)+N235*C235*$B$1)/1000000</f>
         <v>141.58791495431998</v>
       </c>
       <c r="U235" s="13">
-        <f t="shared" ref="U235" si="975">((L235)*F235+(M235)*C235*(F235+$D$1)+N235*C235*$D$1)/1000000</f>
+        <f t="shared" ref="U235" si="973">((L235)*F235+(M235)*C235*(F235+$D$1)+N235*C235*$D$1)/1000000</f>
         <v>16.307841205928</v>
       </c>
       <c r="V235" s="13">
-        <f t="shared" ref="V235" si="976">T235*U235</f>
+        <f t="shared" ref="V235" si="974">T235*U235</f>
         <v>2308.9932337534888</v>
       </c>
       <c r="W235" s="13">
-        <f t="shared" ref="W235:W266" si="977">((O235)*E235+(P235)*(E235+$B$1))/1000000</f>
+        <f t="shared" ref="W235:W266" si="975">((O235)*E235+(P235)*(E235+$B$1))/1000000</f>
         <v>356.37227653099001</v>
       </c>
       <c r="X235" s="13">
-        <f t="shared" ref="X235:X266" si="978">((O235)*F235+(P235)*(F235+$D$1))/1000000</f>
+        <f t="shared" ref="X235:X266" si="976">((O235)*F235+(P235)*(F235+$D$1))/1000000</f>
         <v>20.874977152471001</v>
       </c>
       <c r="Y235" s="13">
-        <f t="shared" ref="Y235" si="979">W235*X235</f>
+        <f t="shared" ref="Y235" si="977">W235*X235</f>
         <v>7439.263130358494</v>
       </c>
-      <c r="Z235" s="13">
-        <f t="shared" ref="Z235:Z266" si="980">((O235)*E235+(P235)*C235*(E235+$B$1))/1000000</f>
-        <v>555.75411313449001</v>
-      </c>
-      <c r="AA235" s="13">
-        <f t="shared" ref="AA235:AA266" si="981">((O235)*F235+(P235)*C235*(F235+$D$1))/1000000</f>
-        <v>137.13556398262102</v>
-      </c>
-      <c r="AB235" s="13">
-        <f t="shared" ref="AB235" si="982">Z235*AA235</f>
-        <v>76213.653740359659</v>
-      </c>
+      <c r="Z235" s="13"/>
+      <c r="AA235" s="13"/>
+      <c r="AB235" s="9"/>
       <c r="AC235" s="1"/>
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.25">
@@ -16873,7 +16866,7 @@
       <c r="Y236" s="13"/>
       <c r="Z236" s="13"/>
       <c r="AA236" s="13"/>
-      <c r="AB236" s="13"/>
+      <c r="AB236" s="9"/>
       <c r="AC236" s="1"/>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.25">
@@ -16927,7 +16920,7 @@
       <c r="Y237" s="13"/>
       <c r="Z237" s="13"/>
       <c r="AA237" s="13"/>
-      <c r="AB237" s="13"/>
+      <c r="AB237" s="9"/>
       <c r="AC237" s="1"/>
     </row>
     <row r="238" spans="1:29" x14ac:dyDescent="0.25">
@@ -16981,7 +16974,7 @@
       <c r="Y238" s="13"/>
       <c r="Z238" s="13"/>
       <c r="AA238" s="13"/>
-      <c r="AB238" s="13"/>
+      <c r="AB238" s="9"/>
       <c r="AC238" s="1"/>
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.25">
@@ -17020,73 +17013,67 @@
         <v>406929</v>
       </c>
       <c r="L239" s="9">
-        <f t="shared" ref="L239" si="983">G239+G240+G241+G242</f>
+        <f t="shared" ref="L239" si="978">G239+G240+G241+G242</f>
         <v>97983308</v>
       </c>
       <c r="M239" s="9">
-        <f t="shared" ref="M239" si="984">H239+H240+H241+H242</f>
+        <f t="shared" ref="M239" si="979">H239+H240+H241+H242</f>
         <v>20385</v>
       </c>
       <c r="N239" s="9">
-        <f t="shared" ref="N239" si="985">I239+I240+I241+I242</f>
+        <f t="shared" ref="N239" si="980">I239+I240+I241+I242</f>
         <v>5855</v>
       </c>
       <c r="O239" s="9">
-        <f t="shared" ref="O239" si="986">J239+J240+J241+J242</f>
+        <f t="shared" ref="O239" si="981">J239+J240+J241+J242</f>
         <v>275767059</v>
       </c>
       <c r="P239" s="9">
-        <f t="shared" ref="P239" si="987">K239+K240+K241+K242</f>
+        <f t="shared" ref="P239" si="982">K239+K240+K241+K242</f>
         <v>409198</v>
       </c>
       <c r="Q239" s="9">
-        <f t="shared" ref="Q239" si="988">((L239)*E239 + (M239)*(E239+$B$1) +N239*$B$1)/1000000</f>
+        <f t="shared" ref="Q239" si="983">((L239)*E239 + (M239)*(E239+$B$1) +N239*$B$1)/1000000</f>
         <v>145.34926337992002</v>
       </c>
       <c r="R239" s="12">
-        <f t="shared" ref="R239" si="989">((L239)*F239+(M239)*(F239+$D$1)+N239*$D$1)/1000000</f>
+        <f t="shared" ref="R239" si="984">((L239)*F239+(M239)*(F239+$D$1)+N239*$D$1)/1000000</f>
         <v>9.1598747284569999</v>
       </c>
       <c r="S239" s="9">
-        <f t="shared" ref="S239" si="990">Q239*R239</f>
+        <f t="shared" ref="S239" si="985">Q239*R239</f>
         <v>1331.3810444335697</v>
       </c>
       <c r="T239" s="13">
-        <f t="shared" ref="T239" si="991">((L239)*E239+(M239)*C239*(E239+$B$1)+N239*C239*$B$1)/1000000</f>
+        <f t="shared" ref="T239" si="986">((L239)*E239+(M239)*C239*(E239+$B$1)+N239*C239*$B$1)/1000000</f>
         <v>157.40324734431999</v>
       </c>
       <c r="U239" s="13">
-        <f t="shared" ref="U239" si="992">((L239)*F239+(M239)*C239*(F239+$D$1)+N239*C239*$D$1)/1000000</f>
+        <f t="shared" ref="U239" si="987">((L239)*F239+(M239)*C239*(F239+$D$1)+N239*C239*$D$1)/1000000</f>
         <v>16.252494542971998</v>
       </c>
       <c r="V239" s="13">
-        <f t="shared" ref="V239" si="993">T239*U239</f>
+        <f t="shared" ref="V239" si="988">T239*U239</f>
         <v>2558.1954185096324</v>
       </c>
       <c r="W239" s="13">
-        <f t="shared" ref="W239:W270" si="994">((O239)*E239+(P239)*(E239+$B$1))/1000000</f>
+        <f t="shared" ref="W239:W270" si="989">((O239)*E239+(P239)*(E239+$B$1))/1000000</f>
         <v>414.17961095768004</v>
       </c>
       <c r="X239" s="13">
-        <f t="shared" ref="X239:X270" si="995">((O239)*F239+(P239)*(F239+$D$1))/1000000</f>
+        <f t="shared" ref="X239:X270" si="990">((O239)*F239+(P239)*(F239+$D$1))/1000000</f>
         <v>28.712130368332996</v>
       </c>
       <c r="Y239" s="13">
-        <f t="shared" ref="Y239" si="996">W239*X239</f>
+        <f t="shared" ref="Y239" si="991">W239*X239</f>
         <v>11891.978985722351</v>
       </c>
       <c r="Z239" s="13">
-        <f t="shared" ref="Z239:Z270" si="997">((O239)*E239+(P239)*C239*(E239+$B$1))/1000000</f>
+        <f t="shared" ref="Z239:Z270" si="992">((O239)*E239+(P239)*C239*(E239+$B$1))/1000000</f>
         <v>606.34219987000006</v>
       </c>
-      <c r="AA239" s="13">
-        <f t="shared" ref="AA239:AA270" si="998">((O239)*F239+(P239)*C239*(F239+$D$1))/1000000</f>
-        <v>139.57553030213498</v>
-      </c>
-      <c r="AB239" s="13">
-        <f t="shared" ref="AB239" si="999">Z239*AA239</f>
-        <v>84630.534091418376</v>
-      </c>
+      <c r="AA239" s="13"/>
+      <c r="AB239" s="9"/>
       <c r="AC239" s="1"/>
     </row>
     <row r="240" spans="1:29" x14ac:dyDescent="0.25">
@@ -17140,7 +17127,7 @@
       <c r="Y240" s="13"/>
       <c r="Z240" s="13"/>
       <c r="AA240" s="13"/>
-      <c r="AB240" s="13"/>
+      <c r="AB240" s="9"/>
       <c r="AC240" s="1"/>
     </row>
     <row r="241" spans="1:29" x14ac:dyDescent="0.25">
@@ -17194,7 +17181,7 @@
       <c r="Y241" s="13"/>
       <c r="Z241" s="13"/>
       <c r="AA241" s="13"/>
-      <c r="AB241" s="13"/>
+      <c r="AB241" s="9"/>
       <c r="AC241" s="1"/>
     </row>
     <row r="242" spans="1:29" x14ac:dyDescent="0.25">
@@ -17248,7 +17235,7 @@
       <c r="Y242" s="13"/>
       <c r="Z242" s="13"/>
       <c r="AA242" s="13"/>
-      <c r="AB242" s="13"/>
+      <c r="AB242" s="9"/>
       <c r="AC242" s="1"/>
     </row>
     <row r="243" spans="1:29" x14ac:dyDescent="0.25">
@@ -17287,71 +17274,71 @@
         <v>439939</v>
       </c>
       <c r="L243" s="9">
-        <f t="shared" ref="L243" si="1000">G243+G244+G245+G246</f>
+        <f t="shared" ref="L243" si="993">G243+G244+G245+G246</f>
         <v>97989272</v>
       </c>
       <c r="M243" s="9">
-        <f t="shared" ref="M243" si="1001">H243+H244+H245+H246</f>
+        <f t="shared" ref="M243" si="994">H243+H244+H245+H246</f>
         <v>14421</v>
       </c>
       <c r="N243" s="9">
-        <f t="shared" ref="N243" si="1002">I243+I244+I245+I246</f>
+        <f t="shared" ref="N243" si="995">I243+I244+I245+I246</f>
         <v>2310</v>
       </c>
       <c r="O243" s="9">
-        <f t="shared" ref="O243" si="1003">J243+J244+J245+J246</f>
+        <f t="shared" ref="O243" si="996">J243+J244+J245+J246</f>
         <v>275734049</v>
       </c>
       <c r="P243" s="9">
-        <f t="shared" ref="P243" si="1004">K243+K244+K245+K246</f>
+        <f t="shared" ref="P243" si="997">K243+K244+K245+K246</f>
         <v>442208</v>
       </c>
       <c r="Q243" s="9">
-        <f t="shared" ref="Q243" si="1005">((L243)*E243 + (M243)*(E243+$B$1) +N243*$B$1)/1000000</f>
+        <f t="shared" ref="Q243" si="998">((L243)*E243 + (M243)*(E243+$B$1) +N243*$B$1)/1000000</f>
         <v>153.24970556154</v>
       </c>
       <c r="R243" s="12">
-        <f t="shared" ref="R243" si="1006">((L243)*F243+(M243)*(F243+$D$1)+N243*$D$1)/1000000</f>
+        <f t="shared" ref="R243" si="999">((L243)*F243+(M243)*(F243+$D$1)+N243*$D$1)/1000000</f>
         <v>16.928516170980998</v>
       </c>
       <c r="S243" s="9">
-        <f t="shared" ref="S243" si="1007">Q243*R243</f>
+        <f t="shared" ref="S243" si="1000">Q243*R243</f>
         <v>2594.2901187966063</v>
       </c>
       <c r="T243" s="13">
-        <f t="shared" ref="T243" si="1008">((L243)*E243+(M243)*C243*(E243+$B$1)+N243*C243*$B$1)/1000000</f>
+        <f t="shared" ref="T243" si="1001">((L243)*E243+(M243)*C243*(E243+$B$1)+N243*C243*$B$1)/1000000</f>
         <v>161.03740299312</v>
       </c>
       <c r="U243" s="13">
-        <f t="shared" ref="U243" si="1009">((L243)*F243+(M243)*C243*(F243+$D$1)+N243*C243*$D$1)/1000000</f>
+        <f t="shared" ref="U243" si="1002">((L243)*F243+(M243)*C243*(F243+$D$1)+N243*C243*$D$1)/1000000</f>
         <v>21.490706069368002</v>
       </c>
       <c r="V243" s="13">
-        <f t="shared" ref="V243" si="1010">T243*U243</f>
+        <f t="shared" ref="V243" si="1003">T243*U243</f>
         <v>3460.8074938995046</v>
       </c>
       <c r="W243" s="13">
-        <f t="shared" ref="W243:W274" si="1011">((O243)*E243+(P243)*(E243+$B$1))/1000000</f>
+        <f t="shared" ref="W243:W274" si="1004">((O243)*E243+(P243)*(E243+$B$1))/1000000</f>
         <v>437.26071374826</v>
       </c>
       <c r="X243" s="13">
-        <f t="shared" ref="X243:X274" si="1012">((O243)*F243+(P243)*(F243+$D$1))/1000000</f>
+        <f t="shared" ref="X243:X274" si="1005">((O243)*F243+(P243)*(F243+$D$1))/1000000</f>
         <v>51.121544288888998</v>
       </c>
       <c r="Y243" s="13">
-        <f t="shared" ref="Y243" si="1013">W243*X243</f>
+        <f t="shared" ref="Y243" si="1006">W243*X243</f>
         <v>22353.44294367289</v>
       </c>
       <c r="Z243" s="13">
-        <f t="shared" ref="Z243:Z274" si="1014">((O243)*E243+(P243)*C243*(E243+$B$1))/1000000</f>
+        <f t="shared" ref="Z243:Z274" si="1007">((O243)*E243+(P243)*C243*(E243+$B$1))/1000000</f>
         <v>646.04832768810002</v>
       </c>
       <c r="AA243" s="13">
-        <f t="shared" ref="AA243:AA274" si="1015">((O243)*F243+(P243)*C243*(F243+$D$1))/1000000</f>
+        <f t="shared" ref="AA243:AA274" si="1008">((O243)*F243+(P243)*C243*(F243+$D$1))/1000000</f>
         <v>172.02645032706499</v>
       </c>
-      <c r="AB243" s="13">
-        <f t="shared" ref="AB243" si="1016">Z243*AA243</f>
+      <c r="AB243" s="9">
+        <f t="shared" ref="AB243" si="1009">Z243*AA243</f>
         <v>111137.40055192035</v>
       </c>
       <c r="AC243" s="1"/>
@@ -17407,7 +17394,7 @@
       <c r="Y244" s="13"/>
       <c r="Z244" s="13"/>
       <c r="AA244" s="13"/>
-      <c r="AB244" s="13"/>
+      <c r="AB244" s="9"/>
       <c r="AC244" s="1"/>
     </row>
     <row r="245" spans="1:29" x14ac:dyDescent="0.25">
@@ -17461,7 +17448,7 @@
       <c r="Y245" s="13"/>
       <c r="Z245" s="13"/>
       <c r="AA245" s="13"/>
-      <c r="AB245" s="13"/>
+      <c r="AB245" s="9"/>
       <c r="AC245" s="1"/>
     </row>
     <row r="246" spans="1:29" x14ac:dyDescent="0.25">
@@ -17515,7 +17502,7 @@
       <c r="Y246" s="13"/>
       <c r="Z246" s="13"/>
       <c r="AA246" s="13"/>
-      <c r="AB246" s="13"/>
+      <c r="AB246" s="9"/>
       <c r="AC246" s="1"/>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.25">
@@ -17554,71 +17541,71 @@
         <v>456123</v>
       </c>
       <c r="L247" s="9">
-        <f t="shared" ref="L247" si="1017">G247+G248+G249+G250</f>
+        <f t="shared" ref="L247" si="1010">G247+G248+G249+G250</f>
         <v>97989583</v>
       </c>
       <c r="M247" s="9">
-        <f t="shared" ref="M247" si="1018">H247+H248+H249+H250</f>
+        <f t="shared" ref="M247" si="1011">H247+H248+H249+H250</f>
         <v>14110</v>
       </c>
       <c r="N247" s="9">
-        <f t="shared" ref="N247" si="1019">I247+I248+I249+I250</f>
+        <f t="shared" ref="N247" si="1012">I247+I248+I249+I250</f>
         <v>2091</v>
       </c>
       <c r="O247" s="9">
-        <f t="shared" ref="O247" si="1020">J247+J248+J249+J250</f>
+        <f t="shared" ref="O247" si="1013">J247+J248+J249+J250</f>
         <v>275717865</v>
       </c>
       <c r="P247" s="9">
-        <f t="shared" ref="P247" si="1021">K247+K248+K249+K250</f>
+        <f t="shared" ref="P247" si="1014">K247+K248+K249+K250</f>
         <v>458392</v>
       </c>
       <c r="Q247" s="9">
-        <f t="shared" ref="Q247" si="1022">((L247)*E247 + (M247)*(E247+$B$1) +N247*$B$1)/1000000</f>
+        <f t="shared" ref="Q247" si="1015">((L247)*E247 + (M247)*(E247+$B$1) +N247*$B$1)/1000000</f>
         <v>153.64035587911997</v>
       </c>
       <c r="R247" s="12">
-        <f t="shared" ref="R247" si="1023">((L247)*F247+(M247)*(F247+$D$1)+N247*$D$1)/1000000</f>
+        <f t="shared" ref="R247" si="1016">((L247)*F247+(M247)*(F247+$D$1)+N247*$D$1)/1000000</f>
         <v>34.113878232474001</v>
       </c>
       <c r="S247" s="9">
-        <f t="shared" ref="S247" si="1024">Q247*R247</f>
+        <f t="shared" ref="S247" si="1017">Q247*R247</f>
         <v>5241.2683920542695</v>
       </c>
       <c r="T247" s="13">
-        <f t="shared" ref="T247" si="1025">((L247)*E247+(M247)*C247*(E247+$B$1)+N247*C247*$B$1)/1000000</f>
+        <f t="shared" ref="T247" si="1018">((L247)*E247+(M247)*C247*(E247+$B$1)+N247*C247*$B$1)/1000000</f>
         <v>161.19019097471997</v>
       </c>
       <c r="U247" s="13">
-        <f t="shared" ref="U247" si="1026">((L247)*F247+(M247)*C247*(F247+$D$1)+N247*C247*$D$1)/1000000</f>
+        <f t="shared" ref="U247" si="1019">((L247)*F247+(M247)*C247*(F247+$D$1)+N247*C247*$D$1)/1000000</f>
         <v>38.609044667134</v>
       </c>
       <c r="V247" s="13">
-        <f t="shared" ref="V247" si="1027">T247*U247</f>
+        <f t="shared" ref="V247" si="1020">T247*U247</f>
         <v>6223.399283246823</v>
       </c>
       <c r="W247" s="13">
-        <f t="shared" ref="W247:W278" si="1028">((O247)*E247+(P247)*(E247+$B$1))/1000000</f>
+        <f t="shared" ref="W247:W278" si="1021">((O247)*E247+(P247)*(E247+$B$1))/1000000</f>
         <v>438.60321168447996</v>
       </c>
       <c r="X247" s="13">
-        <f t="shared" ref="X247:X278" si="1029">((O247)*F247+(P247)*(F247+$D$1))/1000000</f>
+        <f t="shared" ref="X247:X278" si="1022">((O247)*F247+(P247)*(F247+$D$1))/1000000</f>
         <v>99.703102943266003</v>
       </c>
       <c r="Y247" s="13">
-        <f t="shared" ref="Y247" si="1030">W247*X247</f>
+        <f t="shared" ref="Y247" si="1023">W247*X247</f>
         <v>43730.101165824795</v>
       </c>
       <c r="Z247" s="13">
-        <f t="shared" ref="Z247:Z278" si="1031">((O247)*E247+(P247)*C247*(E247+$B$1))/1000000</f>
+        <f t="shared" ref="Z247:Z278" si="1024">((O247)*E247+(P247)*C247*(E247+$B$1))/1000000</f>
         <v>655.08976174975987</v>
       </c>
       <c r="AA247" s="13">
-        <f t="shared" ref="AA247:AA278" si="1032">((O247)*F247+(P247)*C247*(F247+$D$1))/1000000</f>
+        <f t="shared" ref="AA247:AA278" si="1025">((O247)*F247+(P247)*C247*(F247+$D$1))/1000000</f>
         <v>227.52538118424201</v>
       </c>
-      <c r="AB247" s="13">
-        <f t="shared" ref="AB247" si="1033">Z247*AA247</f>
+      <c r="AB247" s="9">
+        <f t="shared" ref="AB247" si="1026">Z247*AA247</f>
         <v>149049.5477520084</v>
       </c>
       <c r="AC247" s="1"/>
@@ -17674,7 +17661,7 @@
       <c r="Y248" s="13"/>
       <c r="Z248" s="13"/>
       <c r="AA248" s="13"/>
-      <c r="AB248" s="13"/>
+      <c r="AB248" s="9"/>
       <c r="AC248" s="1"/>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.25">
@@ -17728,7 +17715,7 @@
       <c r="Y249" s="13"/>
       <c r="Z249" s="13"/>
       <c r="AA249" s="13"/>
-      <c r="AB249" s="13"/>
+      <c r="AB249" s="9"/>
       <c r="AC249" s="1"/>
     </row>
     <row r="250" spans="1:29" x14ac:dyDescent="0.25">
@@ -17782,7 +17769,7 @@
       <c r="Y250" s="13"/>
       <c r="Z250" s="13"/>
       <c r="AA250" s="13"/>
-      <c r="AB250" s="13"/>
+      <c r="AB250" s="9"/>
       <c r="AC250" s="1"/>
     </row>
     <row r="251" spans="1:29" x14ac:dyDescent="0.25">
@@ -17821,71 +17808,71 @@
         <v>481418</v>
       </c>
       <c r="L251" s="9">
-        <f t="shared" ref="L251" si="1034">G251+G252+G253+G254</f>
+        <f t="shared" ref="L251" si="1027">G251+G252+G253+G254</f>
         <v>97989716</v>
       </c>
       <c r="M251" s="9">
-        <f t="shared" ref="M251" si="1035">H251+H252+H253+H254</f>
+        <f t="shared" ref="M251" si="1028">H251+H252+H253+H254</f>
         <v>13977</v>
       </c>
       <c r="N251" s="9">
-        <f t="shared" ref="N251" si="1036">I251+I252+I253+I254</f>
+        <f t="shared" ref="N251" si="1029">I251+I252+I253+I254</f>
         <v>1977</v>
       </c>
       <c r="O251" s="9">
-        <f t="shared" ref="O251" si="1037">J251+J252+J253+J254</f>
+        <f t="shared" ref="O251" si="1030">J251+J252+J253+J254</f>
         <v>275692570</v>
       </c>
       <c r="P251" s="9">
-        <f t="shared" ref="P251" si="1038">K251+K252+K253+K254</f>
+        <f t="shared" ref="P251" si="1031">K251+K252+K253+K254</f>
         <v>483687</v>
       </c>
       <c r="Q251" s="9">
-        <f t="shared" ref="Q251" si="1039">((L251)*E251 + (M251)*(E251+$B$1) +N251*$B$1)/1000000</f>
+        <f t="shared" ref="Q251" si="1032">((L251)*E251 + (M251)*(E251+$B$1) +N251*$B$1)/1000000</f>
         <v>164.64475438447997</v>
       </c>
       <c r="R251" s="12">
-        <f t="shared" ref="R251" si="1040">((L251)*F251+(M251)*(F251+$D$1)+N251*$D$1)/1000000</f>
+        <f t="shared" ref="R251" si="1033">((L251)*F251+(M251)*(F251+$D$1)+N251*$D$1)/1000000</f>
         <v>67.153491145478014</v>
       </c>
       <c r="S251" s="9">
-        <f t="shared" ref="S251" si="1041">Q251*R251</f>
+        <f t="shared" ref="S251" si="1034">Q251*R251</f>
         <v>11056.470055707578</v>
       </c>
       <c r="T251" s="13">
-        <f t="shared" ref="T251" si="1042">((L251)*E251+(M251)*C251*(E251+$B$1)+N251*C251*$B$1)/1000000</f>
+        <f t="shared" ref="T251" si="1035">((L251)*E251+(M251)*C251*(E251+$B$1)+N251*C251*$B$1)/1000000</f>
         <v>172.13213690239999</v>
       </c>
       <c r="U251" s="13">
-        <f t="shared" ref="U251" si="1043">((L251)*F251+(M251)*C251*(F251+$D$1)+N251*C251*$D$1)/1000000</f>
+        <f t="shared" ref="U251" si="1036">((L251)*F251+(M251)*C251*(F251+$D$1)+N251*C251*$D$1)/1000000</f>
         <v>71.72708874332001</v>
       </c>
       <c r="V251" s="13">
-        <f t="shared" ref="V251" si="1044">T251*U251</f>
+        <f t="shared" ref="V251" si="1037">T251*U251</f>
         <v>12346.537059175753</v>
       </c>
       <c r="W251" s="13">
-        <f t="shared" ref="W251:W282" si="1045">((O251)*E251+(P251)*(E251+$B$1))/1000000</f>
+        <f t="shared" ref="W251:W282" si="1038">((O251)*E251+(P251)*(E251+$B$1))/1000000</f>
         <v>469.96909128471998</v>
       </c>
       <c r="X251" s="13">
-        <f t="shared" ref="X251:X282" si="1046">((O251)*F251+(P251)*(F251+$D$1))/1000000</f>
+        <f t="shared" ref="X251:X282" si="1039">((O251)*F251+(P251)*(F251+$D$1))/1000000</f>
         <v>193.03413893990202</v>
       </c>
       <c r="Y251" s="13">
-        <f t="shared" ref="Y251" si="1047">W251*X251</f>
+        <f t="shared" ref="Y251" si="1040">W251*X251</f>
         <v>90720.078864514129</v>
       </c>
       <c r="Z251" s="13">
-        <f t="shared" ref="Z251:Z282" si="1048">((O251)*E251+(P251)*C251*(E251+$B$1))/1000000</f>
+        <f t="shared" ref="Z251:Z282" si="1041">((O251)*E251+(P251)*C251*(E251+$B$1))/1000000</f>
         <v>700.08596757184</v>
       </c>
       <c r="AA251" s="13">
-        <f t="shared" ref="AA251:AA282" si="1049">((O251)*F251+(P251)*C251*(F251+$D$1))/1000000</f>
+        <f t="shared" ref="AA251:AA282" si="1042">((O251)*F251+(P251)*C251*(F251+$D$1))/1000000</f>
         <v>332.965206912844</v>
       </c>
-      <c r="AB251" s="13">
-        <f t="shared" ref="AB251" si="1050">Z251*AA251</f>
+      <c r="AB251" s="9">
+        <f t="shared" ref="AB251" si="1043">Z251*AA251</f>
         <v>233104.26904933629</v>
       </c>
       <c r="AC251" s="1"/>
@@ -17941,7 +17928,7 @@
       <c r="Y252" s="13"/>
       <c r="Z252" s="13"/>
       <c r="AA252" s="13"/>
-      <c r="AB252" s="13"/>
+      <c r="AB252" s="9"/>
       <c r="AC252" s="1"/>
     </row>
     <row r="253" spans="1:29" x14ac:dyDescent="0.25">
@@ -17995,7 +17982,7 @@
       <c r="Y253" s="13"/>
       <c r="Z253" s="13"/>
       <c r="AA253" s="13"/>
-      <c r="AB253" s="13"/>
+      <c r="AB253" s="9"/>
       <c r="AC253" s="1"/>
     </row>
     <row r="254" spans="1:29" x14ac:dyDescent="0.25">
@@ -18049,7 +18036,7 @@
       <c r="Y254" s="13"/>
       <c r="Z254" s="13"/>
       <c r="AA254" s="13"/>
-      <c r="AB254" s="13"/>
+      <c r="AB254" s="9"/>
       <c r="AC254" s="1"/>
     </row>
     <row r="255" spans="1:29" x14ac:dyDescent="0.25">
@@ -18088,71 +18075,71 @@
         <v>463625</v>
       </c>
       <c r="L255" s="9">
-        <f t="shared" ref="L255" si="1051">G255+G256+G257+G258</f>
+        <f t="shared" ref="L255" si="1044">G255+G256+G257+G258</f>
         <v>96853151</v>
       </c>
       <c r="M255" s="9">
-        <f t="shared" ref="M255" si="1052">H255+H256+H257+H258</f>
+        <f t="shared" ref="M255" si="1045">H255+H256+H257+H258</f>
         <v>1150542</v>
       </c>
       <c r="N255" s="9">
-        <f t="shared" ref="N255" si="1053">I255+I256+I257+I258</f>
+        <f t="shared" ref="N255" si="1046">I255+I256+I257+I258</f>
         <v>248355</v>
       </c>
       <c r="O255" s="9">
-        <f t="shared" ref="O255" si="1054">J255+J256+J257+J258</f>
+        <f t="shared" ref="O255" si="1047">J255+J256+J257+J258</f>
         <v>273609288</v>
       </c>
       <c r="P255" s="9">
-        <f t="shared" ref="P255" si="1055">K255+K256+K257+K258</f>
+        <f t="shared" ref="P255" si="1048">K255+K256+K257+K258</f>
         <v>2566969</v>
       </c>
       <c r="Q255" s="9">
-        <f t="shared" ref="Q255" si="1056">((L255)*E255 + (M255)*(E255+$B$1) +N255*$B$1)/1000000</f>
+        <f t="shared" ref="Q255" si="1049">((L255)*E255 + (M255)*(E255+$B$1) +N255*$B$1)/1000000</f>
         <v>143.45614807071001</v>
       </c>
       <c r="R255" s="12">
-        <f t="shared" ref="R255" si="1057">((L255)*F255+(M255)*(F255+$D$1)+N255*$D$1)/1000000</f>
+        <f t="shared" ref="R255" si="1050">((L255)*F255+(M255)*(F255+$D$1)+N255*$D$1)/1000000</f>
         <v>18.314902980935997</v>
       </c>
       <c r="S255" s="9">
-        <f t="shared" ref="S255" si="1058">Q255*R255</f>
+        <f t="shared" ref="S255" si="1051">Q255*R255</f>
         <v>2627.3854339338427</v>
       </c>
       <c r="T255" s="13">
-        <f t="shared" ref="T255" si="1059">((L255)*E255+(M255)*C255*(E255+$B$1)+N255*C255*$B$1)/1000000</f>
+        <f t="shared" ref="T255" si="1052">((L255)*E255+(M255)*C255*(E255+$B$1)+N255*C255*$B$1)/1000000</f>
         <v>1440.08819053773</v>
       </c>
       <c r="U255" s="13">
-        <f t="shared" ref="U255" si="1060">((L255)*F255+(M255)*C255*(F255+$D$1)+N255*C255*$D$1)/1000000</f>
+        <f t="shared" ref="U255" si="1053">((L255)*F255+(M255)*C255*(F255+$D$1)+N255*C255*$D$1)/1000000</f>
         <v>785.10767910328798</v>
       </c>
       <c r="V255" s="13">
-        <f t="shared" ref="V255" si="1061">T255*U255</f>
+        <f t="shared" ref="V255" si="1054">T255*U255</f>
         <v>1130624.2969771307</v>
       </c>
       <c r="W255" s="13">
-        <f t="shared" ref="W255:W286" si="1062">((O255)*E255+(P255)*(E255+$B$1))/1000000</f>
+        <f t="shared" ref="W255:W286" si="1055">((O255)*E255+(P255)*(E255+$B$1))/1000000</f>
         <v>385.46494462299</v>
       </c>
       <c r="X255" s="13">
-        <f t="shared" ref="X255:X286" si="1063">((O255)*F255+(P255)*(F255+$D$1))/1000000</f>
+        <f t="shared" ref="X255:X286" si="1056">((O255)*F255+(P255)*(F255+$D$1))/1000000</f>
         <v>39.718792391144</v>
       </c>
       <c r="Y255" s="13">
-        <f t="shared" ref="Y255" si="1064">W255*X255</f>
+        <f t="shared" ref="Y255" si="1057">W255*X255</f>
         <v>15310.202109544358</v>
       </c>
       <c r="Z255" s="13">
-        <f t="shared" ref="Z255:Z286" si="1065">((O255)*E255+(P255)*C255*(E255+$B$1))/1000000</f>
+        <f t="shared" ref="Z255:Z286" si="1058">((O255)*E255+(P255)*C255*(E255+$B$1))/1000000</f>
         <v>2801.20304523288</v>
       </c>
       <c r="AA255" s="13">
-        <f t="shared" ref="AA255:AA286" si="1066">((O255)*F255+(P255)*C255*(F255+$D$1))/1000000</f>
+        <f t="shared" ref="AA255:AA286" si="1059">((O255)*F255+(P255)*C255*(F255+$D$1))/1000000</f>
         <v>1448.6008985790079</v>
       </c>
-      <c r="AB255" s="13">
-        <f t="shared" ref="AB255" si="1067">Z255*AA255</f>
+      <c r="AB255" s="9">
+        <f t="shared" ref="AB255" si="1060">Z255*AA255</f>
         <v>4057825.2484266032</v>
       </c>
       <c r="AC255" s="1"/>
@@ -18208,7 +18195,7 @@
       <c r="Y256" s="13"/>
       <c r="Z256" s="13"/>
       <c r="AA256" s="13"/>
-      <c r="AB256" s="13"/>
+      <c r="AB256" s="9"/>
       <c r="AC256" s="1"/>
     </row>
     <row r="257" spans="1:29" x14ac:dyDescent="0.25">
@@ -18262,7 +18249,7 @@
       <c r="Y257" s="13"/>
       <c r="Z257" s="13"/>
       <c r="AA257" s="13"/>
-      <c r="AB257" s="13"/>
+      <c r="AB257" s="9"/>
       <c r="AC257" s="1"/>
     </row>
     <row r="258" spans="1:29" x14ac:dyDescent="0.25">
@@ -18316,7 +18303,7 @@
       <c r="Y258" s="13"/>
       <c r="Z258" s="13"/>
       <c r="AA258" s="13"/>
-      <c r="AB258" s="13"/>
+      <c r="AB258" s="9"/>
       <c r="AC258" s="1"/>
     </row>
     <row r="259" spans="1:29" x14ac:dyDescent="0.25">
@@ -18355,78 +18342,78 @@
         <v>192195</v>
       </c>
       <c r="L259" s="9">
-        <f t="shared" ref="L259" si="1068">G259+G260+G261+G262</f>
+        <f t="shared" ref="L259" si="1061">G259+G260+G261+G262</f>
         <v>97975471</v>
       </c>
       <c r="M259" s="9">
-        <f t="shared" ref="M259" si="1069">H259+H260+H261+H262</f>
+        <f t="shared" ref="M259" si="1062">H259+H260+H261+H262</f>
         <v>28222</v>
       </c>
       <c r="N259" s="9">
-        <f t="shared" ref="N259" si="1070">I259+I260+I261+I262</f>
+        <f t="shared" ref="N259" si="1063">I259+I260+I261+I262</f>
         <v>12055</v>
       </c>
       <c r="O259" s="9">
-        <f t="shared" ref="O259" si="1071">J259+J260+J261+J262</f>
+        <f t="shared" ref="O259" si="1064">J259+J260+J261+J262</f>
         <v>275904030</v>
       </c>
       <c r="P259" s="9">
-        <f t="shared" ref="P259" si="1072">K259+K260+K261+K262</f>
+        <f t="shared" ref="P259" si="1065">K259+K260+K261+K262</f>
         <v>272227</v>
       </c>
       <c r="Q259" s="9">
-        <f t="shared" ref="Q259" si="1073">((L259)*E259 + (M259)*(E259+$B$1) +N259*$B$1)/1000000</f>
+        <f t="shared" ref="Q259" si="1066">((L259)*E259 + (M259)*(E259+$B$1) +N259*$B$1)/1000000</f>
         <v>124.9074404161</v>
       </c>
       <c r="R259" s="12">
-        <f t="shared" ref="R259" si="1074">((L259)*F259+(M259)*(F259+$D$1)+N259*$D$1)/1000000</f>
+        <f t="shared" ref="R259" si="1067">((L259)*F259+(M259)*(F259+$D$1)+N259*$D$1)/1000000</f>
         <v>6.4877761769450011</v>
       </c>
       <c r="S259" s="9">
-        <f t="shared" ref="S259" si="1075">Q259*R259</f>
+        <f t="shared" ref="S259" si="1068">Q259*R259</f>
         <v>810.37151625475076</v>
       </c>
       <c r="T259" s="13">
-        <f t="shared" ref="T259" si="1076">((L259)*E259+(M259)*C259*(E259+$B$1)+N259*C259*$B$1)/1000000</f>
+        <f t="shared" ref="T259" si="1069">((L259)*E259+(M259)*C259*(E259+$B$1)+N259*C259*$B$1)/1000000</f>
         <v>161.8484520607</v>
       </c>
       <c r="U259" s="13">
-        <f t="shared" ref="U259" si="1077">((L259)*F259+(M259)*C259*(F259+$D$1)+N259*C259*$D$1)/1000000</f>
+        <f t="shared" ref="U259" si="1070">((L259)*F259+(M259)*C259*(F259+$D$1)+N259*C259*$D$1)/1000000</f>
         <v>28.544252334394997</v>
       </c>
       <c r="V259" s="13">
-        <f t="shared" ref="V259" si="1078">T259*U259</f>
+        <f t="shared" ref="V259" si="1071">T259*U259</f>
         <v>4619.8430555518526</v>
       </c>
       <c r="W259" s="13">
-        <f t="shared" ref="W259:W290" si="1079">((O259)*E259+(P259)*(E259+$B$1))/1000000</f>
+        <f t="shared" ref="W259:W290" si="1072">((O259)*E259+(P259)*(E259+$B$1))/1000000</f>
         <v>354.1611778157</v>
       </c>
       <c r="X259" s="13">
-        <f t="shared" ref="X259:X290" si="1080">((O259)*F259+(P259)*(F259+$D$1))/1000000</f>
+        <f t="shared" ref="X259:X290" si="1073">((O259)*F259+(P259)*(F259+$D$1))/1000000</f>
         <v>19.655411384724999</v>
       </c>
       <c r="Y259" s="13">
-        <f t="shared" ref="Y259" si="1081">W259*X259</f>
+        <f t="shared" ref="Y259" si="1074">W259*X259</f>
         <v>6961.1836464663247</v>
       </c>
       <c r="Z259" s="13">
-        <f t="shared" ref="Z259:Z290" si="1082">((O259)*E259+(P259)*C259*(E259+$B$1))/1000000</f>
+        <f t="shared" ref="Z259:Z290" si="1075">((O259)*E259+(P259)*C259*(E259+$B$1))/1000000</f>
         <v>610.35408918379994</v>
       </c>
       <c r="AA259" s="13">
-        <f t="shared" ref="AA259:AA290" si="1083">((O259)*F259+(P259)*C259*(F259+$D$1))/1000000</f>
+        <f t="shared" ref="AA259:AA290" si="1076">((O259)*F259+(P259)*C259*(F259+$D$1))/1000000</f>
         <v>169.05382718334997</v>
       </c>
-      <c r="AB259" s="13">
-        <f t="shared" ref="AB259" si="1084">Z259*AA259</f>
+      <c r="AB259" s="9">
+        <f t="shared" ref="AB259" si="1077">Z259*AA259</f>
         <v>103182.69471352908</v>
       </c>
       <c r="AC259" s="1"/>
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <f t="shared" ref="A260:A323" si="1085">MOD(ROW() - 2,4) + 1</f>
+        <f t="shared" ref="A260:A323" si="1078">MOD(ROW() - 2,4) + 1</f>
         <v>3</v>
       </c>
       <c r="B260" s="11">
@@ -18475,12 +18462,12 @@
       <c r="Y260" s="13"/>
       <c r="Z260" s="13"/>
       <c r="AA260" s="13"/>
-      <c r="AB260" s="13"/>
+      <c r="AB260" s="9"/>
       <c r="AC260" s="1"/>
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B261" s="11">
@@ -18529,12 +18516,12 @@
       <c r="Y261" s="13"/>
       <c r="Z261" s="13"/>
       <c r="AA261" s="13"/>
-      <c r="AB261" s="13"/>
+      <c r="AB261" s="9"/>
       <c r="AC261" s="1"/>
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B262" s="11">
@@ -18583,12 +18570,12 @@
       <c r="Y262" s="13"/>
       <c r="Z262" s="13"/>
       <c r="AA262" s="13"/>
-      <c r="AB262" s="13"/>
+      <c r="AB262" s="9"/>
       <c r="AC262" s="1"/>
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B263" s="11">
@@ -18622,78 +18609,78 @@
         <v>221718</v>
       </c>
       <c r="L263" s="9">
-        <f t="shared" ref="L263" si="1086">G263+G264+G265+G266</f>
+        <f t="shared" ref="L263" si="1079">G263+G264+G265+G266</f>
         <v>97983874</v>
       </c>
       <c r="M263" s="9">
-        <f t="shared" ref="M263" si="1087">H263+H264+H265+H266</f>
+        <f t="shared" ref="M263" si="1080">H263+H264+H265+H266</f>
         <v>19819</v>
       </c>
       <c r="N263" s="9">
-        <f t="shared" ref="N263" si="1088">I263+I264+I265+I266</f>
+        <f t="shared" ref="N263" si="1081">I263+I264+I265+I266</f>
         <v>5174</v>
       </c>
       <c r="O263" s="9">
-        <f t="shared" ref="O263" si="1089">J263+J264+J265+J266</f>
+        <f t="shared" ref="O263" si="1082">J263+J264+J265+J266</f>
         <v>275923911</v>
       </c>
       <c r="P263" s="9">
-        <f t="shared" ref="P263" si="1090">K263+K264+K265+K266</f>
+        <f t="shared" ref="P263" si="1083">K263+K264+K265+K266</f>
         <v>252346</v>
       </c>
       <c r="Q263" s="9">
-        <f t="shared" ref="Q263" si="1091">((L263)*E263 + (M263)*(E263+$B$1) +N263*$B$1)/1000000</f>
+        <f t="shared" ref="Q263" si="1084">((L263)*E263 + (M263)*(E263+$B$1) +N263*$B$1)/1000000</f>
         <v>124.71518099110999</v>
       </c>
       <c r="R263" s="12">
-        <f t="shared" ref="R263" si="1092">((L263)*F263+(M263)*(F263+$D$1)+N263*$D$1)/1000000</f>
+        <f t="shared" ref="R263" si="1085">((L263)*F263+(M263)*(F263+$D$1)+N263*$D$1)/1000000</f>
         <v>6.3024748070189993</v>
       </c>
       <c r="S263" s="9">
-        <f t="shared" ref="S263" si="1093">Q263*R263</f>
+        <f t="shared" ref="S263" si="1086">Q263*R263</f>
         <v>786.01428624928553</v>
       </c>
       <c r="T263" s="13">
-        <f t="shared" ref="T263" si="1094">((L263)*E263+(M263)*C263*(E263+$B$1)+N263*C263*$B$1)/1000000</f>
+        <f t="shared" ref="T263" si="1087">((L263)*E263+(M263)*C263*(E263+$B$1)+N263*C263*$B$1)/1000000</f>
         <v>147.8226998687</v>
       </c>
       <c r="U263" s="13">
-        <f t="shared" ref="U263" si="1095">((L263)*F263+(M263)*C263*(F263+$D$1)+N263*C263*$D$1)/1000000</f>
+        <f t="shared" ref="U263" si="1088">((L263)*F263+(M263)*C263*(F263+$D$1)+N263*C263*$D$1)/1000000</f>
         <v>19.997558446829999</v>
       </c>
       <c r="V263" s="13">
-        <f t="shared" ref="V263" si="1096">T263*U263</f>
+        <f t="shared" ref="V263" si="1089">T263*U263</f>
         <v>2956.0930803925376</v>
       </c>
       <c r="W263" s="13">
-        <f t="shared" ref="W263:W294" si="1097">((O263)*E263+(P263)*(E263+$B$1))/1000000</f>
+        <f t="shared" ref="W263:W294" si="1090">((O263)*E263+(P263)*(E263+$B$1))/1000000</f>
         <v>353.93637041418998</v>
       </c>
       <c r="X263" s="13">
-        <f t="shared" ref="X263:X294" si="1098">((O263)*F263+(P263)*(F263+$D$1))/1000000</f>
+        <f t="shared" ref="X263:X294" si="1091">((O263)*F263+(P263)*(F263+$D$1))/1000000</f>
         <v>19.333783422550997</v>
       </c>
       <c r="Y263" s="13">
-        <f t="shared" ref="Y263" si="1099">W263*X263</f>
+        <f t="shared" ref="Y263" si="1092">W263*X263</f>
         <v>6842.9291309517357</v>
       </c>
       <c r="Z263" s="13">
-        <f t="shared" ref="Z263:Z294" si="1100">((O263)*E263+(P263)*C263*(E263+$B$1))/1000000</f>
+        <f t="shared" ref="Z263:Z294" si="1093">((O263)*E263+(P263)*C263*(E263+$B$1))/1000000</f>
         <v>591.42196934364995</v>
       </c>
       <c r="AA263" s="13">
-        <f t="shared" ref="AA263:AA294" si="1101">((O263)*F263+(P263)*C263*(F263+$D$1))/1000000</f>
+        <f t="shared" ref="AA263:AA294" si="1094">((O263)*F263+(P263)*C263*(F263+$D$1))/1000000</f>
         <v>157.81287241878502</v>
       </c>
-      <c r="AB263" s="13">
-        <f t="shared" ref="AB263" si="1102">Z263*AA263</f>
+      <c r="AB263" s="9">
+        <f t="shared" ref="AB263" si="1095">Z263*AA263</f>
         <v>93333.999793696014</v>
       </c>
       <c r="AC263" s="1"/>
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B264" s="11">
@@ -18742,12 +18729,12 @@
       <c r="Y264" s="13"/>
       <c r="Z264" s="13"/>
       <c r="AA264" s="13"/>
-      <c r="AB264" s="13"/>
+      <c r="AB264" s="9"/>
       <c r="AC264" s="1"/>
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B265" s="11">
@@ -18796,12 +18783,12 @@
       <c r="Y265" s="13"/>
       <c r="Z265" s="13"/>
       <c r="AA265" s="13"/>
-      <c r="AB265" s="13"/>
+      <c r="AB265" s="9"/>
       <c r="AC265" s="1"/>
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B266" s="11">
@@ -18850,12 +18837,12 @@
       <c r="Y266" s="13"/>
       <c r="Z266" s="13"/>
       <c r="AA266" s="13"/>
-      <c r="AB266" s="13"/>
+      <c r="AB266" s="9"/>
       <c r="AC266" s="1"/>
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B267" s="11">
@@ -18889,78 +18876,78 @@
         <v>249169</v>
       </c>
       <c r="L267" s="9">
-        <f t="shared" ref="L267" si="1103">G267+G268+G269+G270</f>
+        <f t="shared" ref="L267" si="1096">G267+G268+G269+G270</f>
         <v>97990993</v>
       </c>
       <c r="M267" s="9">
-        <f t="shared" ref="M267" si="1104">H267+H268+H269+H270</f>
+        <f t="shared" ref="M267" si="1097">H267+H268+H269+H270</f>
         <v>12700</v>
       </c>
       <c r="N267" s="9">
-        <f t="shared" ref="N267" si="1105">I267+I268+I269+I270</f>
+        <f t="shared" ref="N267" si="1098">I267+I268+I269+I270</f>
         <v>4381</v>
       </c>
       <c r="O267" s="9">
-        <f t="shared" ref="O267" si="1106">J267+J268+J269+J270</f>
+        <f t="shared" ref="O267" si="1099">J267+J268+J269+J270</f>
         <v>275925745</v>
       </c>
       <c r="P267" s="9">
-        <f t="shared" ref="P267" si="1107">K267+K268+K269+K270</f>
+        <f t="shared" ref="P267" si="1100">K267+K268+K269+K270</f>
         <v>250512</v>
       </c>
       <c r="Q267" s="9">
-        <f t="shared" ref="Q267" si="1108">((L267)*E267 + (M267)*(E267+$B$1) +N267*$B$1)/1000000</f>
+        <f t="shared" ref="Q267" si="1101">((L267)*E267 + (M267)*(E267+$B$1) +N267*$B$1)/1000000</f>
         <v>145.22406717711996</v>
       </c>
       <c r="R267" s="12">
-        <f t="shared" ref="R267" si="1109">((L267)*F267+(M267)*(F267+$D$1)+N267*$D$1)/1000000</f>
+        <f t="shared" ref="R267" si="1102">((L267)*F267+(M267)*(F267+$D$1)+N267*$D$1)/1000000</f>
         <v>9.0806633001369992</v>
       </c>
       <c r="S267" s="9">
-        <f t="shared" ref="S267" si="1110">Q267*R267</f>
+        <f t="shared" ref="S267" si="1103">Q267*R267</f>
         <v>1318.7308571119033</v>
       </c>
       <c r="T267" s="13">
-        <f t="shared" ref="T267" si="1111">((L267)*E267+(M267)*C267*(E267+$B$1)+N267*C267*$B$1)/1000000</f>
+        <f t="shared" ref="T267" si="1104">((L267)*E267+(M267)*C267*(E267+$B$1)+N267*C267*$B$1)/1000000</f>
         <v>161.11723424872</v>
       </c>
       <c r="U267" s="13">
-        <f t="shared" ref="U267" si="1112">((L267)*F267+(M267)*C267*(F267+$D$1)+N267*C267*$D$1)/1000000</f>
+        <f t="shared" ref="U267" si="1105">((L267)*F267+(M267)*C267*(F267+$D$1)+N267*C267*$D$1)/1000000</f>
         <v>18.460246888476998</v>
       </c>
       <c r="V267" s="13">
-        <f t="shared" ref="V267" si="1113">T267*U267</f>
+        <f t="shared" ref="V267" si="1106">T267*U267</f>
         <v>2974.2639222199527</v>
       </c>
       <c r="W267" s="13">
-        <f t="shared" ref="W267:W298" si="1114">((O267)*E267+(P267)*(E267+$B$1))/1000000</f>
+        <f t="shared" ref="W267:W298" si="1107">((O267)*E267+(P267)*(E267+$B$1))/1000000</f>
         <v>412.01050028648001</v>
       </c>
       <c r="X267" s="13">
-        <f t="shared" ref="X267:X298" si="1115">((O267)*F267+(P267)*(F267+$D$1))/1000000</f>
+        <f t="shared" ref="X267:X298" si="1108">((O267)*F267+(P267)*(F267+$D$1))/1000000</f>
         <v>27.339737671053001</v>
       </c>
       <c r="Y267" s="13">
-        <f t="shared" ref="Y267" si="1116">W267*X267</f>
+        <f t="shared" ref="Y267" si="1109">W267*X267</f>
         <v>11264.258995551671</v>
       </c>
       <c r="Z267" s="13">
-        <f t="shared" ref="Z267:Z298" si="1117">((O267)*E267+(P267)*C267*(E267+$B$1))/1000000</f>
+        <f t="shared" ref="Z267:Z298" si="1110">((O267)*E267+(P267)*C267*(E267+$B$1))/1000000</f>
         <v>651.09021481832008</v>
       </c>
       <c r="AA267" s="13">
-        <f t="shared" ref="AA267:AA298" si="1118">((O267)*F267+(P267)*C267*(F267+$D$1))/1000000</f>
+        <f t="shared" ref="AA267:AA298" si="1111">((O267)*F267+(P267)*C267*(F267+$D$1))/1000000</f>
         <v>165.27079989407702</v>
       </c>
-      <c r="AB267" s="13">
-        <f t="shared" ref="AB267" si="1119">Z267*AA267</f>
+      <c r="AB267" s="9">
+        <f t="shared" ref="AB267" si="1112">Z267*AA267</f>
         <v>107606.2006062302</v>
       </c>
       <c r="AC267" s="1"/>
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B268" s="11">
@@ -19009,12 +18996,12 @@
       <c r="Y268" s="13"/>
       <c r="Z268" s="13"/>
       <c r="AA268" s="13"/>
-      <c r="AB268" s="13"/>
+      <c r="AB268" s="9"/>
       <c r="AC268" s="1"/>
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B269" s="11">
@@ -19063,12 +19050,12 @@
       <c r="Y269" s="13"/>
       <c r="Z269" s="13"/>
       <c r="AA269" s="13"/>
-      <c r="AB269" s="13"/>
+      <c r="AB269" s="9"/>
       <c r="AC269" s="1"/>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B270" s="11">
@@ -19117,12 +19104,12 @@
       <c r="Y270" s="13"/>
       <c r="Z270" s="13"/>
       <c r="AA270" s="13"/>
-      <c r="AB270" s="13"/>
+      <c r="AB270" s="9"/>
       <c r="AC270" s="1"/>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B271" s="11">
@@ -19156,78 +19143,78 @@
         <v>246368</v>
       </c>
       <c r="L271" s="9">
-        <f t="shared" ref="L271" si="1120">G271+G272+G273+G274</f>
+        <f t="shared" ref="L271" si="1113">G271+G272+G273+G274</f>
         <v>97996044</v>
       </c>
       <c r="M271" s="9">
-        <f t="shared" ref="M271" si="1121">H271+H272+H273+H274</f>
+        <f t="shared" ref="M271" si="1114">H271+H272+H273+H274</f>
         <v>7649</v>
       </c>
       <c r="N271" s="9">
-        <f t="shared" ref="N271" si="1122">I271+I272+I273+I274</f>
+        <f t="shared" ref="N271" si="1115">I271+I272+I273+I274</f>
         <v>1400</v>
       </c>
       <c r="O271" s="9">
-        <f t="shared" ref="O271" si="1123">J271+J272+J273+J274</f>
+        <f t="shared" ref="O271" si="1116">J271+J272+J273+J274</f>
         <v>275928607</v>
       </c>
       <c r="P271" s="9">
-        <f t="shared" ref="P271" si="1124">K271+K272+K273+K274</f>
+        <f t="shared" ref="P271" si="1117">K271+K272+K273+K274</f>
         <v>247650</v>
       </c>
       <c r="Q271" s="9">
-        <f t="shared" ref="Q271" si="1125">((L271)*E271 + (M271)*(E271+$B$1) +N271*$B$1)/1000000</f>
+        <f t="shared" ref="Q271" si="1118">((L271)*E271 + (M271)*(E271+$B$1) +N271*$B$1)/1000000</f>
         <v>153.14469876714</v>
       </c>
       <c r="R271" s="12">
-        <f t="shared" ref="R271" si="1126">((L271)*F271+(M271)*(F271+$D$1)+N271*$D$1)/1000000</f>
+        <f t="shared" ref="R271" si="1119">((L271)*F271+(M271)*(F271+$D$1)+N271*$D$1)/1000000</f>
         <v>16.862078547621</v>
       </c>
       <c r="S271" s="9">
-        <f t="shared" ref="S271" si="1127">Q271*R271</f>
+        <f t="shared" ref="S271" si="1120">Q271*R271</f>
         <v>2582.3379397632716</v>
       </c>
       <c r="T271" s="13">
-        <f t="shared" ref="T271" si="1128">((L271)*E271+(M271)*C271*(E271+$B$1)+N271*C271*$B$1)/1000000</f>
+        <f t="shared" ref="T271" si="1121">((L271)*E271+(M271)*C271*(E271+$B$1)+N271*C271*$B$1)/1000000</f>
         <v>161.6897407116</v>
       </c>
       <c r="U271" s="13">
-        <f t="shared" ref="U271" si="1129">((L271)*F271+(M271)*C271*(F271+$D$1)+N271*C271*$D$1)/1000000</f>
+        <f t="shared" ref="U271" si="1122">((L271)*F271+(M271)*C271*(F271+$D$1)+N271*C271*$D$1)/1000000</f>
         <v>21.874991087339996</v>
       </c>
       <c r="V271" s="13">
-        <f t="shared" ref="V271" si="1130">T271*U271</f>
+        <f t="shared" ref="V271" si="1123">T271*U271</f>
         <v>3536.9616369805649</v>
       </c>
       <c r="W271" s="13">
-        <f t="shared" ref="W271:W302" si="1131">((O271)*E271+(P271)*(E271+$B$1))/1000000</f>
+        <f t="shared" ref="W271:W302" si="1124">((O271)*E271+(P271)*(E271+$B$1))/1000000</f>
         <v>434.60126153466007</v>
       </c>
       <c r="X271" s="13">
-        <f t="shared" ref="X271:X302" si="1132">((O271)*F271+(P271)*(F271+$D$1))/1000000</f>
+        <f t="shared" ref="X271:X302" si="1125">((O271)*F271+(P271)*(F271+$D$1))/1000000</f>
         <v>49.438913317049</v>
       </c>
       <c r="Y271" s="13">
-        <f t="shared" ref="Y271" si="1133">W271*X271</f>
+        <f t="shared" ref="Y271" si="1126">W271*X271</f>
         <v>21486.2140964922</v>
       </c>
       <c r="Z271" s="13">
-        <f t="shared" ref="Z271:Z302" si="1134">((O271)*E271+(P271)*C271*(E271+$B$1))/1000000</f>
+        <f t="shared" ref="Z271:Z302" si="1127">((O271)*E271+(P271)*C271*(E271+$B$1))/1000000</f>
         <v>672.22800916566007</v>
       </c>
       <c r="AA271" s="13">
-        <f t="shared" ref="AA271:AA302" si="1135">((O271)*F271+(P271)*C271*(F271+$D$1))/1000000</f>
+        <f t="shared" ref="AA271:AA302" si="1128">((O271)*F271+(P271)*C271*(F271+$D$1))/1000000</f>
         <v>187.04400900419901</v>
       </c>
-      <c r="AB271" s="13">
-        <f t="shared" ref="AB271" si="1136">Z271*AA271</f>
+      <c r="AB271" s="9">
+        <f t="shared" ref="AB271" si="1129">Z271*AA271</f>
         <v>125736.2217992565</v>
       </c>
       <c r="AC271" s="1"/>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B272" s="11">
@@ -19276,12 +19263,12 @@
       <c r="Y272" s="13"/>
       <c r="Z272" s="13"/>
       <c r="AA272" s="13"/>
-      <c r="AB272" s="13"/>
+      <c r="AB272" s="9"/>
       <c r="AC272" s="1"/>
     </row>
     <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B273" s="11">
@@ -19330,12 +19317,12 @@
       <c r="Y273" s="13"/>
       <c r="Z273" s="13"/>
       <c r="AA273" s="13"/>
-      <c r="AB273" s="13"/>
+      <c r="AB273" s="9"/>
       <c r="AC273" s="1"/>
     </row>
     <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B274" s="11">
@@ -19384,12 +19371,12 @@
       <c r="Y274" s="13"/>
       <c r="Z274" s="13"/>
       <c r="AA274" s="13"/>
-      <c r="AB274" s="13"/>
+      <c r="AB274" s="9"/>
       <c r="AC274" s="1"/>
     </row>
     <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B275" s="11">
@@ -19423,78 +19410,78 @@
         <v>244713</v>
       </c>
       <c r="L275" s="9">
-        <f t="shared" ref="L275" si="1137">G275+G276+G277+G278</f>
+        <f t="shared" ref="L275" si="1130">G275+G276+G277+G278</f>
         <v>97996307</v>
       </c>
       <c r="M275" s="9">
-        <f t="shared" ref="M275" si="1138">H275+H276+H277+H278</f>
+        <f t="shared" ref="M275" si="1131">H275+H276+H277+H278</f>
         <v>7386</v>
       </c>
       <c r="N275" s="9">
-        <f t="shared" ref="N275" si="1139">I275+I276+I277+I278</f>
+        <f t="shared" ref="N275" si="1132">I275+I276+I277+I278</f>
         <v>1206</v>
       </c>
       <c r="O275" s="9">
-        <f t="shared" ref="O275" si="1140">J275+J276+J277+J278</f>
+        <f t="shared" ref="O275" si="1133">J275+J276+J277+J278</f>
         <v>275930262</v>
       </c>
       <c r="P275" s="9">
-        <f t="shared" ref="P275" si="1141">K275+K276+K277+K278</f>
+        <f t="shared" ref="P275" si="1134">K275+K276+K277+K278</f>
         <v>245995</v>
       </c>
       <c r="Q275" s="9">
-        <f t="shared" ref="Q275" si="1142">((L275)*E275 + (M275)*(E275+$B$1) +N275*$B$1)/1000000</f>
+        <f t="shared" ref="Q275" si="1135">((L275)*E275 + (M275)*(E275+$B$1) +N275*$B$1)/1000000</f>
         <v>153.53634693632</v>
       </c>
       <c r="R275" s="12">
-        <f t="shared" ref="R275" si="1143">((L275)*F275+(M275)*(F275+$D$1)+N275*$D$1)/1000000</f>
+        <f t="shared" ref="R275" si="1136">((L275)*F275+(M275)*(F275+$D$1)+N275*$D$1)/1000000</f>
         <v>34.048071948154004</v>
       </c>
       <c r="S275" s="9">
-        <f t="shared" ref="S275" si="1144">Q275*R275</f>
+        <f t="shared" ref="S275" si="1137">Q275*R275</f>
         <v>5227.6165871445583</v>
       </c>
       <c r="T275" s="13">
-        <f t="shared" ref="T275" si="1145">((L275)*E275+(M275)*C275*(E275+$B$1)+N275*C275*$B$1)/1000000</f>
+        <f t="shared" ref="T275" si="1138">((L275)*E275+(M275)*C275*(E275+$B$1)+N275*C275*$B$1)/1000000</f>
         <v>161.66385762943997</v>
       </c>
       <c r="U275" s="13">
-        <f t="shared" ref="U275" si="1146">((L275)*F275+(M275)*C275*(F275+$D$1)+N275*C275*$D$1)/1000000</f>
+        <f t="shared" ref="U275" si="1139">((L275)*F275+(M275)*C275*(F275+$D$1)+N275*C275*$D$1)/1000000</f>
         <v>38.890765785477996</v>
       </c>
       <c r="V275" s="13">
-        <f t="shared" ref="V275" si="1147">T275*U275</f>
+        <f t="shared" ref="V275" si="1140">T275*U275</f>
         <v>6287.23122304341</v>
       </c>
       <c r="W275" s="13">
-        <f t="shared" ref="W275:W306" si="1148">((O275)*E275+(P275)*(E275+$B$1))/1000000</f>
+        <f t="shared" ref="W275:W306" si="1141">((O275)*E275+(P275)*(E275+$B$1))/1000000</f>
         <v>435.69991461207997</v>
       </c>
       <c r="X275" s="13">
-        <f t="shared" ref="X275:X306" si="1149">((O275)*F275+(P275)*(F275+$D$1))/1000000</f>
+        <f t="shared" ref="X275:X306" si="1142">((O275)*F275+(P275)*(F275+$D$1))/1000000</f>
         <v>97.866191736706014</v>
       </c>
       <c r="Y275" s="13">
-        <f t="shared" ref="Y275" si="1150">W275*X275</f>
+        <f t="shared" ref="Y275" si="1143">W275*X275</f>
         <v>42640.291383092255</v>
       </c>
       <c r="Z275" s="13">
-        <f t="shared" ref="Z275:Z306" si="1151">((O275)*E275+(P275)*C275*(E275+$B$1))/1000000</f>
+        <f t="shared" ref="Z275:Z306" si="1144">((O275)*E275+(P275)*C275*(E275+$B$1))/1000000</f>
         <v>671.80156642047996</v>
       </c>
       <c r="AA275" s="13">
-        <f t="shared" ref="AA275:AA306" si="1152">((O275)*F275+(P275)*C275*(F275+$D$1))/1000000</f>
+        <f t="shared" ref="AA275:AA306" si="1145">((O275)*F275+(P275)*C275*(F275+$D$1))/1000000</f>
         <v>237.27000699223598</v>
       </c>
-      <c r="AB275" s="13">
-        <f t="shared" ref="AB275" si="1153">Z275*AA275</f>
+      <c r="AB275" s="9">
+        <f t="shared" ref="AB275" si="1146">Z275*AA275</f>
         <v>159398.36236198235</v>
       </c>
       <c r="AC275" s="1"/>
     </row>
     <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B276" s="11">
@@ -19543,12 +19530,12 @@
       <c r="Y276" s="13"/>
       <c r="Z276" s="13"/>
       <c r="AA276" s="13"/>
-      <c r="AB276" s="13"/>
+      <c r="AB276" s="9"/>
       <c r="AC276" s="1"/>
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B277" s="11">
@@ -19597,12 +19584,12 @@
       <c r="Y277" s="13"/>
       <c r="Z277" s="13"/>
       <c r="AA277" s="13"/>
-      <c r="AB277" s="13"/>
+      <c r="AB277" s="9"/>
       <c r="AC277" s="1"/>
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B278" s="11">
@@ -19651,12 +19638,12 @@
       <c r="Y278" s="13"/>
       <c r="Z278" s="13"/>
       <c r="AA278" s="13"/>
-      <c r="AB278" s="13"/>
+      <c r="AB278" s="9"/>
       <c r="AC278" s="1"/>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B279" s="11">
@@ -19690,78 +19677,78 @@
         <v>266838</v>
       </c>
       <c r="L279" s="9">
-        <f t="shared" ref="L279" si="1154">G279+G280+G281+G282</f>
+        <f t="shared" ref="L279" si="1147">G279+G280+G281+G282</f>
         <v>96429025</v>
       </c>
       <c r="M279" s="9">
-        <f t="shared" ref="M279" si="1155">H279+H280+H281+H282</f>
+        <f t="shared" ref="M279" si="1148">H279+H280+H281+H282</f>
         <v>1574668</v>
       </c>
       <c r="N279" s="9">
-        <f t="shared" ref="N279" si="1156">I279+I280+I281+I282</f>
+        <f t="shared" ref="N279" si="1149">I279+I280+I281+I282</f>
         <v>508118</v>
       </c>
       <c r="O279" s="9">
-        <f t="shared" ref="O279" si="1157">J279+J280+J281+J282</f>
+        <f t="shared" ref="O279" si="1150">J279+J280+J281+J282</f>
         <v>273502370</v>
       </c>
       <c r="P279" s="9">
-        <f t="shared" ref="P279" si="1158">K279+K280+K281+K282</f>
+        <f t="shared" ref="P279" si="1151">K279+K280+K281+K282</f>
         <v>2673887</v>
       </c>
       <c r="Q279" s="9">
-        <f t="shared" ref="Q279" si="1159">((L279)*E279 + (M279)*(E279+$B$1) +N279*$B$1)/1000000</f>
+        <f t="shared" ref="Q279" si="1152">((L279)*E279 + (M279)*(E279+$B$1) +N279*$B$1)/1000000</f>
         <v>152.80436358951002</v>
       </c>
       <c r="R279" s="12">
-        <f t="shared" ref="R279" si="1160">((L279)*F279+(M279)*(F279+$D$1)+N279*$D$1)/1000000</f>
+        <f t="shared" ref="R279" si="1153">((L279)*F279+(M279)*(F279+$D$1)+N279*$D$1)/1000000</f>
         <v>24.229503319656001</v>
       </c>
       <c r="S279" s="9">
-        <f t="shared" ref="S279" si="1161">Q279*R279</f>
+        <f t="shared" ref="S279" si="1154">Q279*R279</f>
         <v>3702.3738348499555</v>
       </c>
       <c r="T279" s="13">
-        <f t="shared" ref="T279" si="1162">((L279)*E279+(M279)*C279*(E279+$B$1)+N279*C279*$B$1)/1000000</f>
+        <f t="shared" ref="T279" si="1155">((L279)*E279+(M279)*C279*(E279+$B$1)+N279*C279*$B$1)/1000000</f>
         <v>4022.2089238200301</v>
       </c>
       <c r="U279" s="13">
-        <f t="shared" ref="U279" si="1163">((L279)*F279+(M279)*C279*(F279+$D$1)+N279*C279*$D$1)/1000000</f>
+        <f t="shared" ref="U279" si="1156">((L279)*F279+(M279)*C279*(F279+$D$1)+N279*C279*$D$1)/1000000</f>
         <v>2324.5573138633681</v>
       </c>
       <c r="V279" s="13">
-        <f t="shared" ref="V279" si="1164">T279*U279</f>
+        <f t="shared" ref="V279" si="1157">T279*U279</f>
         <v>9349855.1717523579</v>
       </c>
       <c r="W279" s="13">
-        <f t="shared" ref="W279:W310" si="1165">((O279)*E279+(P279)*(E279+$B$1))/1000000</f>
+        <f t="shared" ref="W279:W310" si="1158">((O279)*E279+(P279)*(E279+$B$1))/1000000</f>
         <v>386.92642814859005</v>
       </c>
       <c r="X279" s="13">
-        <f t="shared" ref="X279:X310" si="1166">((O279)*F279+(P279)*(F279+$D$1))/1000000</f>
+        <f t="shared" ref="X279:X310" si="1159">((O279)*F279+(P279)*(F279+$D$1))/1000000</f>
         <v>40.643470575784001</v>
       </c>
       <c r="Y279" s="13">
-        <f t="shared" ref="Y279" si="1167">W279*X279</f>
+        <f t="shared" ref="Y279" si="1160">W279*X279</f>
         <v>15726.032897450423</v>
       </c>
       <c r="Z279" s="13">
-        <f t="shared" ref="Z279:Z310" si="1168">((O279)*E279+(P279)*C279*(E279+$B$1))/1000000</f>
+        <f t="shared" ref="Z279:Z310" si="1161">((O279)*E279+(P279)*C279*(E279+$B$1))/1000000</f>
         <v>5459.5828310362203</v>
       </c>
       <c r="AA279" s="13">
-        <f t="shared" ref="AA279:AA310" si="1169">((O279)*F279+(P279)*C279*(F279+$D$1))/1000000</f>
+        <f t="shared" ref="AA279:AA310" si="1162">((O279)*F279+(P279)*C279*(F279+$D$1))/1000000</f>
         <v>2999.0663373026719</v>
       </c>
-      <c r="AB279" s="13">
-        <f t="shared" ref="AB279" si="1170">Z279*AA279</f>
+      <c r="AB279" s="9">
+        <f t="shared" ref="AB279" si="1163">Z279*AA279</f>
         <v>16373651.08427635</v>
       </c>
       <c r="AC279" s="1"/>
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B280" s="11">
@@ -19810,12 +19797,12 @@
       <c r="Y280" s="13"/>
       <c r="Z280" s="13"/>
       <c r="AA280" s="13"/>
-      <c r="AB280" s="13"/>
+      <c r="AB280" s="9"/>
       <c r="AC280" s="1"/>
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B281" s="11">
@@ -19864,12 +19851,12 @@
       <c r="Y281" s="13"/>
       <c r="Z281" s="13"/>
       <c r="AA281" s="13"/>
-      <c r="AB281" s="13"/>
+      <c r="AB281" s="9"/>
       <c r="AC281" s="1"/>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B282" s="11">
@@ -19918,12 +19905,12 @@
       <c r="Y282" s="13"/>
       <c r="Z282" s="13"/>
       <c r="AA282" s="13"/>
-      <c r="AB282" s="13"/>
+      <c r="AB282" s="9"/>
       <c r="AC282" s="1"/>
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B283" s="11">
@@ -19957,78 +19944,78 @@
         <v>107183</v>
       </c>
       <c r="L283" s="9">
-        <f t="shared" ref="L283" si="1171">G283+G284+G285+G286</f>
+        <f t="shared" ref="L283" si="1164">G283+G284+G285+G286</f>
         <v>97981968</v>
       </c>
       <c r="M283" s="9">
-        <f t="shared" ref="M283" si="1172">H283+H284+H285+H286</f>
+        <f t="shared" ref="M283" si="1165">H283+H284+H285+H286</f>
         <v>21725</v>
       </c>
       <c r="N283" s="9">
-        <f t="shared" ref="N283" si="1173">I283+I284+I285+I286</f>
+        <f t="shared" ref="N283" si="1166">I283+I284+I285+I286</f>
         <v>10211</v>
       </c>
       <c r="O283" s="9">
-        <f t="shared" ref="O283" si="1174">J283+J284+J285+J286</f>
+        <f t="shared" ref="O283" si="1167">J283+J284+J285+J286</f>
         <v>276004575</v>
       </c>
       <c r="P283" s="9">
-        <f t="shared" ref="P283" si="1175">K283+K284+K285+K286</f>
+        <f t="shared" ref="P283" si="1168">K283+K284+K285+K286</f>
         <v>171682</v>
       </c>
       <c r="Q283" s="9">
-        <f t="shared" ref="Q283" si="1176">((L283)*E283 + (M283)*(E283+$B$1) +N283*$B$1)/1000000</f>
+        <f t="shared" ref="Q283" si="1169">((L283)*E283 + (M283)*(E283+$B$1) +N283*$B$1)/1000000</f>
         <v>124.79342561889999</v>
       </c>
       <c r="R283" s="12">
-        <f t="shared" ref="R283" si="1177">((L283)*F283+(M283)*(F283+$D$1)+N283*$D$1)/1000000</f>
+        <f t="shared" ref="R283" si="1170">((L283)*F283+(M283)*(F283+$D$1)+N283*$D$1)/1000000</f>
         <v>6.4156392052650002</v>
       </c>
       <c r="S283" s="9">
-        <f t="shared" ref="S283" si="1178">Q283*R283</f>
+        <f t="shared" ref="S283" si="1171">Q283*R283</f>
         <v>800.62959395993641</v>
       </c>
       <c r="T283" s="13">
-        <f t="shared" ref="T283" si="1179">((L283)*E283+(M283)*C283*(E283+$B$1)+N283*C283*$B$1)/1000000</f>
+        <f t="shared" ref="T283" si="1172">((L283)*E283+(M283)*C283*(E283+$B$1)+N283*C283*$B$1)/1000000</f>
         <v>183.7349414288</v>
       </c>
       <c r="U283" s="13">
-        <f t="shared" ref="U283" si="1180">((L283)*F283+(M283)*C283*(F283+$D$1)+N283*C283*$D$1)/1000000</f>
+        <f t="shared" ref="U283" si="1173">((L283)*F283+(M283)*C283*(F283+$D$1)+N283*C283*$D$1)/1000000</f>
         <v>41.665609333200003</v>
       </c>
       <c r="V283" s="13">
-        <f t="shared" ref="V283" si="1181">T283*U283</f>
+        <f t="shared" ref="V283" si="1174">T283*U283</f>
         <v>7655.4282904307647</v>
       </c>
       <c r="W283" s="13">
-        <f t="shared" ref="W283:W314" si="1182">((O283)*E283+(P283)*(E283+$B$1))/1000000</f>
+        <f t="shared" ref="W283:W314" si="1175">((O283)*E283+(P283)*(E283+$B$1))/1000000</f>
         <v>352.78680810169993</v>
       </c>
       <c r="X283" s="13">
-        <f t="shared" ref="X283:X314" si="1183">((O283)*F283+(P283)*(F283+$D$1))/1000000</f>
+        <f t="shared" ref="X283:X314" si="1176">((O283)*F283+(P283)*(F283+$D$1))/1000000</f>
         <v>18.785849963125003</v>
       </c>
       <c r="Y283" s="13">
-        <f t="shared" ref="Y283" si="1184">W283*X283</f>
+        <f t="shared" ref="Y283" si="1177">W283*X283</f>
         <v>6627.4000459683075</v>
       </c>
       <c r="Z283" s="13">
-        <f t="shared" ref="Z283:Z314" si="1185">((O283)*E283+(P283)*C283*(E283+$B$1))/1000000</f>
+        <f t="shared" ref="Z283:Z314" si="1178">((O283)*E283+(P283)*C283*(E283+$B$1))/1000000</f>
         <v>678.49137439510002</v>
       </c>
       <c r="AA283" s="13">
-        <f t="shared" ref="AA283:AA314" si="1186">((O283)*F283+(P283)*C283*(F283+$D$1))/1000000</f>
+        <f t="shared" ref="AA283:AA314" si="1179">((O283)*F283+(P283)*C283*(F283+$D$1))/1000000</f>
         <v>208.71985696887495</v>
       </c>
-      <c r="AB283" s="13">
-        <f t="shared" ref="AB283" si="1187">Z283*AA283</f>
+      <c r="AB283" s="9">
+        <f t="shared" ref="AB283" si="1180">Z283*AA283</f>
         <v>141614.62261836065</v>
       </c>
       <c r="AC283" s="1"/>
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B284" s="11">
@@ -20077,12 +20064,12 @@
       <c r="Y284" s="13"/>
       <c r="Z284" s="13"/>
       <c r="AA284" s="13"/>
-      <c r="AB284" s="13"/>
+      <c r="AB284" s="9"/>
       <c r="AC284" s="1"/>
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B285" s="11">
@@ -20131,12 +20118,12 @@
       <c r="Y285" s="13"/>
       <c r="Z285" s="13"/>
       <c r="AA285" s="13"/>
-      <c r="AB285" s="13"/>
+      <c r="AB285" s="9"/>
       <c r="AC285" s="1"/>
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B286" s="11">
@@ -20185,12 +20172,12 @@
       <c r="Y286" s="13"/>
       <c r="Z286" s="13"/>
       <c r="AA286" s="13"/>
-      <c r="AB286" s="13"/>
+      <c r="AB286" s="9"/>
       <c r="AC286" s="1"/>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B287" s="11">
@@ -20224,78 +20211,78 @@
         <v>126425</v>
       </c>
       <c r="L287" s="9">
-        <f t="shared" ref="L287" si="1188">G287+G288+G289+G290</f>
+        <f t="shared" ref="L287" si="1181">G287+G288+G289+G290</f>
         <v>97989075</v>
       </c>
       <c r="M287" s="9">
-        <f t="shared" ref="M287" si="1189">H287+H288+H289+H290</f>
+        <f t="shared" ref="M287" si="1182">H287+H288+H289+H290</f>
         <v>14618</v>
       </c>
       <c r="N287" s="9">
-        <f t="shared" ref="N287" si="1190">I287+I288+I289+I290</f>
+        <f t="shared" ref="N287" si="1183">I287+I288+I289+I290</f>
         <v>4020</v>
       </c>
       <c r="O287" s="9">
-        <f t="shared" ref="O287" si="1191">J287+J288+J289+J290</f>
+        <f t="shared" ref="O287" si="1184">J287+J288+J289+J290</f>
         <v>275993964</v>
       </c>
       <c r="P287" s="9">
-        <f t="shared" ref="P287" si="1192">K287+K288+K289+K290</f>
+        <f t="shared" ref="P287" si="1185">K287+K288+K289+K290</f>
         <v>182293</v>
       </c>
       <c r="Q287" s="9">
-        <f t="shared" ref="Q287" si="1193">((L287)*E287 + (M287)*(E287+$B$1) +N287*$B$1)/1000000</f>
+        <f t="shared" ref="Q287" si="1186">((L287)*E287 + (M287)*(E287+$B$1) +N287*$B$1)/1000000</f>
         <v>124.62831322510999</v>
       </c>
       <c r="R287" s="12">
-        <f t="shared" ref="R287" si="1194">((L287)*F287+(M287)*(F287+$D$1)+N287*$D$1)/1000000</f>
+        <f t="shared" ref="R287" si="1187">((L287)*F287+(M287)*(F287+$D$1)+N287*$D$1)/1000000</f>
         <v>6.2475137166190002</v>
       </c>
       <c r="S287" s="9">
-        <f t="shared" ref="S287" si="1195">Q287*R287</f>
+        <f t="shared" ref="S287" si="1188">Q287*R287</f>
         <v>778.61709635296381</v>
       </c>
       <c r="T287" s="13">
-        <f t="shared" ref="T287" si="1196">((L287)*E287+(M287)*C287*(E287+$B$1)+N287*C287*$B$1)/1000000</f>
+        <f t="shared" ref="T287" si="1189">((L287)*E287+(M287)*C287*(E287+$B$1)+N287*C287*$B$1)/1000000</f>
         <v>159.33967571232998</v>
       </c>
       <c r="U287" s="13">
-        <f t="shared" ref="U287" si="1197">((L287)*F287+(M287)*C287*(F287+$D$1)+N287*C287*$D$1)/1000000</f>
+        <f t="shared" ref="U287" si="1190">((L287)*F287+(M287)*C287*(F287+$D$1)+N287*C287*$D$1)/1000000</f>
         <v>26.833984087156995</v>
       </c>
       <c r="V287" s="13">
-        <f t="shared" ref="V287" si="1198">T287*U287</f>
+        <f t="shared" ref="V287" si="1191">T287*U287</f>
         <v>4275.7183225174185</v>
       </c>
       <c r="W287" s="13">
-        <f t="shared" ref="W287:W334" si="1199">((O287)*E287+(P287)*(E287+$B$1))/1000000</f>
+        <f t="shared" ref="W287:W334" si="1192">((O287)*E287+(P287)*(E287+$B$1))/1000000</f>
         <v>352.97880194659001</v>
       </c>
       <c r="X287" s="13">
-        <f t="shared" ref="X287:X334" si="1200">((O287)*F287+(P287)*(F287+$D$1))/1000000</f>
+        <f t="shared" ref="X287:X334" si="1193">((O287)*F287+(P287)*(F287+$D$1))/1000000</f>
         <v>18.727931453111001</v>
       </c>
       <c r="Y287" s="13">
-        <f t="shared" ref="Y287" si="1201">W287*X287</f>
+        <f t="shared" ref="Y287" si="1194">W287*X287</f>
         <v>6610.5628072569816</v>
       </c>
       <c r="Z287" s="13">
-        <f t="shared" ref="Z287:Z334" si="1202">((O287)*E287+(P287)*C287*(E287+$B$1))/1000000</f>
+        <f t="shared" ref="Z287:Z334" si="1195">((O287)*E287+(P287)*C287*(E287+$B$1))/1000000</f>
         <v>698.81784269156003</v>
       </c>
       <c r="AA287" s="13">
-        <f t="shared" ref="AA287:AA334" si="1203">((O287)*F287+(P287)*C287*(F287+$D$1))/1000000</f>
+        <f t="shared" ref="AA287:AA334" si="1196">((O287)*F287+(P287)*C287*(F287+$D$1))/1000000</f>
         <v>220.388476419124</v>
       </c>
-      <c r="AB287" s="13">
-        <f t="shared" ref="AB287" si="1204">Z287*AA287</f>
+      <c r="AB287" s="9">
+        <f t="shared" ref="AB287" si="1197">Z287*AA287</f>
         <v>154011.399645292</v>
       </c>
       <c r="AC287" s="1"/>
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B288" s="11">
@@ -20344,12 +20331,12 @@
       <c r="Y288" s="13"/>
       <c r="Z288" s="13"/>
       <c r="AA288" s="13"/>
-      <c r="AB288" s="13"/>
+      <c r="AB288" s="9"/>
       <c r="AC288" s="1"/>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B289" s="11">
@@ -20398,12 +20385,12 @@
       <c r="Y289" s="13"/>
       <c r="Z289" s="13"/>
       <c r="AA289" s="13"/>
-      <c r="AB289" s="13"/>
+      <c r="AB289" s="9"/>
       <c r="AC289" s="1"/>
     </row>
     <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B290" s="11">
@@ -20452,12 +20439,12 @@
       <c r="Y290" s="13"/>
       <c r="Z290" s="13"/>
       <c r="AA290" s="13"/>
-      <c r="AB290" s="13"/>
+      <c r="AB290" s="9"/>
       <c r="AC290" s="1"/>
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B291" s="11">
@@ -20491,78 +20478,78 @@
         <v>144089</v>
       </c>
       <c r="L291" s="9">
-        <f t="shared" ref="L291" si="1205">G291+G292+G293+G294</f>
+        <f t="shared" ref="L291" si="1198">G291+G292+G293+G294</f>
         <v>97995250</v>
       </c>
       <c r="M291" s="9">
-        <f t="shared" ref="M291" si="1206">H291+H292+H293+H294</f>
+        <f t="shared" ref="M291" si="1199">H291+H292+H293+H294</f>
         <v>8443</v>
       </c>
       <c r="N291" s="9">
-        <f t="shared" ref="N291" si="1207">I291+I292+I293+I294</f>
+        <f t="shared" ref="N291" si="1200">I291+I292+I293+I294</f>
         <v>3460</v>
       </c>
       <c r="O291" s="9">
-        <f t="shared" ref="O291" si="1208">J291+J292+J293+J294</f>
+        <f t="shared" ref="O291" si="1201">J291+J292+J293+J294</f>
         <v>276027834</v>
       </c>
       <c r="P291" s="9">
-        <f t="shared" ref="P291" si="1209">K291+K292+K293+K294</f>
+        <f t="shared" ref="P291" si="1202">K291+K292+K293+K294</f>
         <v>148423</v>
       </c>
       <c r="Q291" s="9">
-        <f t="shared" ref="Q291" si="1210">((L291)*E291 + (M291)*(E291+$B$1) +N291*$B$1)/1000000</f>
+        <f t="shared" ref="Q291" si="1203">((L291)*E291 + (M291)*(E291+$B$1) +N291*$B$1)/1000000</f>
         <v>145.15328805952001</v>
       </c>
       <c r="R291" s="12">
-        <f t="shared" ref="R291" si="1211">((L291)*F291+(M291)*(F291+$D$1)+N291*$D$1)/1000000</f>
+        <f t="shared" ref="R291" si="1204">((L291)*F291+(M291)*(F291+$D$1)+N291*$D$1)/1000000</f>
         <v>9.0358814706970012</v>
       </c>
       <c r="S291" s="9">
-        <f t="shared" ref="S291" si="1212">Q291*R291</f>
+        <f t="shared" ref="S291" si="1205">Q291*R291</f>
         <v>1311.5879059877611</v>
       </c>
       <c r="T291" s="13">
-        <f t="shared" ref="T291" si="1213">((L291)*E291+(M291)*C291*(E291+$B$1)+N291*C291*$B$1)/1000000</f>
+        <f t="shared" ref="T291" si="1206">((L291)*E291+(M291)*C291*(E291+$B$1)+N291*C291*$B$1)/1000000</f>
         <v>167.40310379855998</v>
       </c>
       <c r="U291" s="13">
-        <f t="shared" ref="U291" si="1214">((L291)*F291+(M291)*C291*(F291+$D$1)+N291*C291*$D$1)/1000000</f>
+        <f t="shared" ref="U291" si="1207">((L291)*F291+(M291)*C291*(F291+$D$1)+N291*C291*$D$1)/1000000</f>
         <v>22.207359883465998</v>
       </c>
       <c r="V291" s="13">
-        <f t="shared" ref="V291" si="1215">T291*U291</f>
+        <f t="shared" ref="V291" si="1208">T291*U291</f>
         <v>3717.5809716638355</v>
       </c>
       <c r="W291" s="13">
-        <f t="shared" ref="W291:W334" si="1216">((O291)*E291+(P291)*(E291+$B$1))/1000000</f>
+        <f t="shared" ref="W291:W334" si="1209">((O291)*E291+(P291)*(E291+$B$1))/1000000</f>
         <v>410.61502532768003</v>
       </c>
       <c r="X291" s="13">
-        <f t="shared" ref="X291:X334" si="1217">((O291)*F291+(P291)*(F291+$D$1))/1000000</f>
+        <f t="shared" ref="X291:X334" si="1210">((O291)*F291+(P291)*(F291+$D$1))/1000000</f>
         <v>26.456822996332999</v>
       </c>
       <c r="Y291" s="13">
-        <f t="shared" ref="Y291" si="1218">W291*X291</f>
+        <f t="shared" ref="Y291" si="1211">W291*X291</f>
         <v>10863.569044729222</v>
       </c>
       <c r="Z291" s="13">
-        <f t="shared" ref="Z291:Z334" si="1219">((O291)*E291+(P291)*C291*(E291+$B$1))/1000000</f>
+        <f t="shared" ref="Z291:Z334" si="1212">((O291)*E291+(P291)*C291*(E291+$B$1))/1000000</f>
         <v>696.16266285712004</v>
       </c>
       <c r="AA291" s="13">
-        <f t="shared" ref="AA291:AA334" si="1220">((O291)*F291+(P291)*C291*(F291+$D$1))/1000000</f>
+        <f t="shared" ref="AA291:AA334" si="1213">((O291)*F291+(P291)*C291*(F291+$D$1))/1000000</f>
         <v>191.19639128984198</v>
       </c>
-      <c r="AB291" s="13">
-        <f t="shared" ref="AB291" si="1221">Z291*AA291</f>
+      <c r="AB291" s="9">
+        <f t="shared" ref="AB291" si="1214">Z291*AA291</f>
         <v>133103.78888900825</v>
       </c>
       <c r="AC291" s="1"/>
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B292" s="11">
@@ -20611,12 +20598,12 @@
       <c r="Y292" s="13"/>
       <c r="Z292" s="13"/>
       <c r="AA292" s="13"/>
-      <c r="AB292" s="13"/>
+      <c r="AB292" s="9"/>
       <c r="AC292" s="1"/>
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B293" s="11">
@@ -20665,12 +20652,12 @@
       <c r="Y293" s="13"/>
       <c r="Z293" s="13"/>
       <c r="AA293" s="13"/>
-      <c r="AB293" s="13"/>
+      <c r="AB293" s="9"/>
       <c r="AC293" s="1"/>
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B294" s="11">
@@ -20719,12 +20706,12 @@
       <c r="Y294" s="13"/>
       <c r="Z294" s="13"/>
       <c r="AA294" s="13"/>
-      <c r="AB294" s="13"/>
+      <c r="AB294" s="9"/>
       <c r="AC294" s="1"/>
     </row>
     <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B295" s="11">
@@ -20758,78 +20745,78 @@
         <v>139258</v>
       </c>
       <c r="L295" s="9">
-        <f t="shared" ref="L295" si="1222">G295+G296+G297+G298</f>
+        <f t="shared" ref="L295" si="1215">G295+G296+G297+G298</f>
         <v>97999534</v>
       </c>
       <c r="M295" s="9">
-        <f t="shared" ref="M295" si="1223">H295+H296+H297+H298</f>
+        <f t="shared" ref="M295" si="1216">H295+H296+H297+H298</f>
         <v>4159</v>
       </c>
       <c r="N295" s="9">
-        <f t="shared" ref="N295" si="1224">I295+I296+I297+I298</f>
+        <f t="shared" ref="N295" si="1217">I295+I296+I297+I298</f>
         <v>901</v>
       </c>
       <c r="O295" s="9">
-        <f t="shared" ref="O295" si="1225">J295+J296+J297+J298</f>
+        <f t="shared" ref="O295" si="1218">J295+J296+J297+J298</f>
         <v>276036259</v>
       </c>
       <c r="P295" s="9">
-        <f t="shared" ref="P295" si="1226">K295+K296+K297+K298</f>
+        <f t="shared" ref="P295" si="1219">K295+K296+K297+K298</f>
         <v>139998</v>
       </c>
       <c r="Q295" s="9">
-        <f t="shared" ref="Q295" si="1227">((L295)*E295 + (M295)*(E295+$B$1) +N295*$B$1)/1000000</f>
+        <f t="shared" ref="Q295" si="1220">((L295)*E295 + (M295)*(E295+$B$1) +N295*$B$1)/1000000</f>
         <v>153.09017232834</v>
       </c>
       <c r="R295" s="12">
-        <f t="shared" ref="R295" si="1228">((L295)*F295+(M295)*(F295+$D$1)+N295*$D$1)/1000000</f>
+        <f t="shared" ref="R295" si="1221">((L295)*F295+(M295)*(F295+$D$1)+N295*$D$1)/1000000</f>
         <v>16.827579760900999</v>
       </c>
       <c r="S295" s="9">
-        <f t="shared" ref="S295" si="1229">Q295*R295</f>
+        <f t="shared" ref="S295" si="1222">Q295*R295</f>
         <v>2576.1370854652205</v>
       </c>
       <c r="T295" s="13">
-        <f t="shared" ref="T295" si="1230">((L295)*E295+(M295)*C295*(E295+$B$1)+N295*C295*$B$1)/1000000</f>
+        <f t="shared" ref="T295" si="1223">((L295)*E295+(M295)*C295*(E295+$B$1)+N295*C295*$B$1)/1000000</f>
         <v>162.69898361867996</v>
       </c>
       <c r="U295" s="13">
-        <f t="shared" ref="U295" si="1231">((L295)*F295+(M295)*C295*(F295+$D$1)+N295*C295*$D$1)/1000000</f>
+        <f t="shared" ref="U295" si="1224">((L295)*F295+(M295)*C295*(F295+$D$1)+N295*C295*$D$1)/1000000</f>
         <v>22.475722727101996</v>
       </c>
       <c r="V295" s="13">
-        <f t="shared" ref="V295" si="1232">T295*U295</f>
+        <f t="shared" ref="V295" si="1225">T295*U295</f>
         <v>3656.7772437947606</v>
       </c>
       <c r="W295" s="13">
-        <f t="shared" ref="W295:W334" si="1233">((O295)*E295+(P295)*(E295+$B$1))/1000000</f>
+        <f t="shared" ref="W295:W334" si="1226">((O295)*E295+(P295)*(E295+$B$1))/1000000</f>
         <v>433.12974481625997</v>
       </c>
       <c r="X295" s="13">
-        <f t="shared" ref="X295:X334" si="1234">((O295)*F295+(P295)*(F295+$D$1))/1000000</f>
+        <f t="shared" ref="X295:X334" si="1227">((O295)*F295+(P295)*(F295+$D$1))/1000000</f>
         <v>48.507887148088997</v>
       </c>
       <c r="Y295" s="13">
-        <f t="shared" ref="Y295" si="1235">W295*X295</f>
+        <f t="shared" ref="Y295" si="1228">W295*X295</f>
         <v>21010.208782027723</v>
       </c>
       <c r="Z295" s="13">
-        <f t="shared" ref="Z295:Z334" si="1236">((O295)*E295+(P295)*C295*(E295+$B$1))/1000000</f>
+        <f t="shared" ref="Z295:Z334" si="1229">((O295)*E295+(P295)*C295*(E295+$B$1))/1000000</f>
         <v>703.92558864893999</v>
       </c>
       <c r="AA295" s="13">
-        <f t="shared" ref="AA295:AA334" si="1237">((O295)*F295+(P295)*C295*(F295+$D$1))/1000000</f>
+        <f t="shared" ref="AA295:AA334" si="1230">((O295)*F295+(P295)*C295*(F295+$D$1))/1000000</f>
         <v>205.32057079489101</v>
       </c>
-      <c r="AB295" s="13">
-        <f t="shared" ref="AB295" si="1238">Z295*AA295</f>
+      <c r="AB295" s="9">
+        <f t="shared" ref="AB295" si="1231">Z295*AA295</f>
         <v>144530.40365853001</v>
       </c>
       <c r="AC295" s="1"/>
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B296" s="11">
@@ -20878,12 +20865,12 @@
       <c r="Y296" s="13"/>
       <c r="Z296" s="13"/>
       <c r="AA296" s="13"/>
-      <c r="AB296" s="13"/>
+      <c r="AB296" s="9"/>
       <c r="AC296" s="1"/>
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B297" s="11">
@@ -20932,12 +20919,12 @@
       <c r="Y297" s="13"/>
       <c r="Z297" s="13"/>
       <c r="AA297" s="13"/>
-      <c r="AB297" s="13"/>
+      <c r="AB297" s="9"/>
       <c r="AC297" s="1"/>
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B298" s="11">
@@ -20986,12 +20973,12 @@
       <c r="Y298" s="13"/>
       <c r="Z298" s="13"/>
       <c r="AA298" s="13"/>
-      <c r="AB298" s="13"/>
+      <c r="AB298" s="9"/>
       <c r="AC298" s="1"/>
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B299" s="11">
@@ -21025,78 +21012,78 @@
         <v>174460</v>
       </c>
       <c r="L299" s="9">
-        <f t="shared" ref="L299" si="1239">G299+G300+G301+G302</f>
+        <f t="shared" ref="L299" si="1232">G299+G300+G301+G302</f>
         <v>95285464</v>
       </c>
       <c r="M299" s="9">
-        <f t="shared" ref="M299" si="1240">H299+H300+H301+H302</f>
+        <f t="shared" ref="M299" si="1233">H299+H300+H301+H302</f>
         <v>2718229</v>
       </c>
       <c r="N299" s="9">
-        <f t="shared" ref="N299" si="1241">I299+I300+I301+I302</f>
+        <f t="shared" ref="N299" si="1234">I299+I300+I301+I302</f>
         <v>865676</v>
       </c>
       <c r="O299" s="9">
-        <f t="shared" ref="O299" si="1242">J299+J300+J301+J302</f>
+        <f t="shared" ref="O299" si="1235">J299+J300+J301+J302</f>
         <v>274215816</v>
       </c>
       <c r="P299" s="9">
-        <f t="shared" ref="P299" si="1243">K299+K300+K301+K302</f>
+        <f t="shared" ref="P299" si="1236">K299+K300+K301+K302</f>
         <v>1960441</v>
       </c>
       <c r="Q299" s="9">
-        <f t="shared" ref="Q299" si="1244">((L299)*E299 + (M299)*(E299+$B$1) +N299*$B$1)/1000000</f>
+        <f t="shared" ref="Q299" si="1237">((L299)*E299 + (M299)*(E299+$B$1) +N299*$B$1)/1000000</f>
         <v>173.32345942430999</v>
       </c>
       <c r="R299" s="12">
-        <f t="shared" ref="R299" si="1245">((L299)*F299+(M299)*(F299+$D$1)+N299*$D$1)/1000000</f>
+        <f t="shared" ref="R299" si="1238">((L299)*F299+(M299)*(F299+$D$1)+N299*$D$1)/1000000</f>
         <v>37.211900968776</v>
       </c>
       <c r="S299" s="9">
-        <f t="shared" ref="S299" si="1246">Q299*R299</f>
+        <f t="shared" ref="S299" si="1239">Q299*R299</f>
         <v>6449.6954076630882</v>
       </c>
       <c r="T299" s="13">
-        <f t="shared" ref="T299" si="1247">((L299)*E299+(M299)*C299*(E299+$B$1)+N299*C299*$B$1)/1000000</f>
+        <f t="shared" ref="T299" si="1240">((L299)*E299+(M299)*C299*(E299+$B$1)+N299*C299*$B$1)/1000000</f>
         <v>13544.924161338962</v>
       </c>
       <c r="U299" s="13">
-        <f t="shared" ref="U299" si="1248">((L299)*F299+(M299)*C299*(F299+$D$1)+N299*C299*$D$1)/1000000</f>
+        <f t="shared" ref="U299" si="1241">((L299)*F299+(M299)*C299*(F299+$D$1)+N299*C299*$D$1)/1000000</f>
         <v>7984.9890221324167</v>
       </c>
       <c r="V299" s="13">
-        <f t="shared" ref="V299" si="1249">T299*U299</f>
+        <f t="shared" ref="V299" si="1242">T299*U299</f>
         <v>108156070.73390774</v>
       </c>
       <c r="W299" s="13">
-        <f t="shared" ref="W299:W334" si="1250">((O299)*E299+(P299)*(E299+$B$1))/1000000</f>
+        <f t="shared" ref="W299:W334" si="1243">((O299)*E299+(P299)*(E299+$B$1))/1000000</f>
         <v>377.17419208539002</v>
       </c>
       <c r="X299" s="13">
-        <f t="shared" ref="X299:X334" si="1251">((O299)*F299+(P299)*(F299+$D$1))/1000000</f>
+        <f t="shared" ref="X299:X334" si="1244">((O299)*F299+(P299)*(F299+$D$1))/1000000</f>
         <v>34.473247113703998</v>
       </c>
       <c r="Y299" s="13">
-        <f t="shared" ref="Y299" si="1252">W299*X299</f>
+        <f t="shared" ref="Y299" si="1245">W299*X299</f>
         <v>13002.419128671308</v>
       </c>
       <c r="Z299" s="13">
-        <f t="shared" ref="Z299:Z334" si="1253">((O299)*E299+(P299)*C299*(E299+$B$1))/1000000</f>
+        <f t="shared" ref="Z299:Z334" si="1246">((O299)*E299+(P299)*C299*(E299+$B$1))/1000000</f>
         <v>7844.8014562562412</v>
       </c>
       <c r="AA299" s="13">
-        <f t="shared" ref="AA299:AA334" si="1254">((O299)*F299+(P299)*C299*(F299+$D$1))/1000000</f>
+        <f t="shared" ref="AA299:AA334" si="1247">((O299)*F299+(P299)*C299*(F299+$D$1))/1000000</f>
         <v>4389.6665627776638</v>
       </c>
-      <c r="AB299" s="13">
-        <f t="shared" ref="AB299" si="1255">Z299*AA299</f>
+      <c r="AB299" s="9">
+        <f t="shared" ref="AB299" si="1248">Z299*AA299</f>
         <v>34436062.644157544</v>
       </c>
       <c r="AC299" s="1"/>
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B300" s="11">
@@ -21145,12 +21132,12 @@
       <c r="Y300" s="13"/>
       <c r="Z300" s="13"/>
       <c r="AA300" s="13"/>
-      <c r="AB300" s="13"/>
+      <c r="AB300" s="9"/>
       <c r="AC300" s="1"/>
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B301" s="11">
@@ -21199,12 +21186,12 @@
       <c r="Y301" s="13"/>
       <c r="Z301" s="13"/>
       <c r="AA301" s="13"/>
-      <c r="AB301" s="13"/>
+      <c r="AB301" s="9"/>
       <c r="AC301" s="1"/>
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B302" s="11">
@@ -21253,12 +21240,12 @@
       <c r="Y302" s="13"/>
       <c r="Z302" s="13"/>
       <c r="AA302" s="13"/>
-      <c r="AB302" s="13"/>
+      <c r="AB302" s="9"/>
       <c r="AC302" s="1"/>
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B303" s="11">
@@ -21292,78 +21279,78 @@
         <v>60955</v>
       </c>
       <c r="L303" s="9">
-        <f t="shared" ref="L303" si="1256">G303+G304+G305+G306</f>
+        <f t="shared" ref="L303" si="1249">G303+G304+G305+G306</f>
         <v>97936982</v>
       </c>
       <c r="M303" s="9">
-        <f t="shared" ref="M303" si="1257">H303+H304+H305+H306</f>
+        <f t="shared" ref="M303" si="1250">H303+H304+H305+H306</f>
         <v>66711</v>
       </c>
       <c r="N303" s="9">
-        <f t="shared" ref="N303" si="1258">I303+I304+I305+I306</f>
+        <f t="shared" ref="N303" si="1251">I303+I304+I305+I306</f>
         <v>7096</v>
       </c>
       <c r="O303" s="9">
-        <f t="shared" ref="O303" si="1259">J303+J304+J305+J306</f>
+        <f t="shared" ref="O303" si="1252">J303+J304+J305+J306</f>
         <v>276055585</v>
       </c>
       <c r="P303" s="9">
-        <f t="shared" ref="P303" si="1260">K303+K304+K305+K306</f>
+        <f t="shared" ref="P303" si="1253">K303+K304+K305+K306</f>
         <v>120672</v>
       </c>
       <c r="Q303" s="9">
-        <f t="shared" ref="Q303" si="1261">((L303)*E303 + (M303)*(E303+$B$1) +N303*$B$1)/1000000</f>
+        <f t="shared" ref="Q303" si="1254">((L303)*E303 + (M303)*(E303+$B$1) +N303*$B$1)/1000000</f>
         <v>125.36576869209999</v>
       </c>
       <c r="R303" s="12">
-        <f t="shared" ref="R303" si="1262">((L303)*F303+(M303)*(F303+$D$1)+N303*$D$1)/1000000</f>
+        <f t="shared" ref="R303" si="1255">((L303)*F303+(M303)*(F303+$D$1)+N303*$D$1)/1000000</f>
         <v>6.7777597113450003</v>
       </c>
       <c r="S303" s="9">
-        <f t="shared" ref="S303" si="1263">Q303*R303</f>
+        <f t="shared" ref="S303" si="1256">Q303*R303</f>
         <v>849.69905622311171</v>
       </c>
       <c r="T303" s="13">
-        <f t="shared" ref="T303" si="1264">((L303)*E303+(M303)*C303*(E303+$B$1)+N303*C303*$B$1)/1000000</f>
+        <f t="shared" ref="T303" si="1257">((L303)*E303+(M303)*C303*(E303+$B$1)+N303*C303*$B$1)/1000000</f>
         <v>404.21648792860003</v>
       </c>
       <c r="U303" s="13">
-        <f t="shared" ref="U303" si="1265">((L303)*F303+(M303)*C303*(F303+$D$1)+N303*C303*$D$1)/1000000</f>
+        <f t="shared" ref="U303" si="1258">((L303)*F303+(M303)*C303*(F303+$D$1)+N303*C303*$D$1)/1000000</f>
         <v>170.61461556986998</v>
       </c>
       <c r="V303" s="13">
-        <f t="shared" ref="V303" si="1266">T303*U303</f>
+        <f t="shared" ref="V303" si="1259">T303*U303</f>
         <v>68965.24069494108</v>
       </c>
       <c r="W303" s="13">
-        <f t="shared" ref="W303:W334" si="1267">((O303)*E303+(P303)*(E303+$B$1))/1000000</f>
+        <f t="shared" ref="W303:W334" si="1260">((O303)*E303+(P303)*(E303+$B$1))/1000000</f>
         <v>352.08954220969991</v>
       </c>
       <c r="X303" s="13">
-        <f t="shared" ref="X303:X334" si="1268">((O303)*F303+(P303)*(F303+$D$1))/1000000</f>
+        <f t="shared" ref="X303:X334" si="1261">((O303)*F303+(P303)*(F303+$D$1))/1000000</f>
         <v>18.344690998325003</v>
       </c>
       <c r="Y303" s="13">
-        <f t="shared" ref="Y303" si="1269">W303*X303</f>
+        <f t="shared" ref="Y303" si="1262">W303*X303</f>
         <v>6458.9738555786535</v>
       </c>
       <c r="Z303" s="13">
-        <f t="shared" ref="Z303:Z334" si="1270">((O303)*E303+(P303)*C303*(E303+$B$1))/1000000</f>
+        <f t="shared" ref="Z303:Z334" si="1263">((O303)*E303+(P303)*C303*(E303+$B$1))/1000000</f>
         <v>811.7551950257</v>
       </c>
       <c r="AA303" s="13">
-        <f t="shared" ref="AA303:AA334" si="1271">((O303)*F303+(P303)*C303*(F303+$D$1))/1000000</f>
+        <f t="shared" ref="AA303:AA334" si="1264">((O303)*F303+(P303)*C303*(F303+$D$1))/1000000</f>
         <v>286.39785437832501</v>
       </c>
-      <c r="AB303" s="13">
-        <f t="shared" ref="AB303" si="1272">Z303*AA303</f>
+      <c r="AB303" s="9">
+        <f t="shared" ref="AB303" si="1265">Z303*AA303</f>
         <v>232484.94613581925</v>
       </c>
       <c r="AC303" s="1"/>
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B304" s="11">
@@ -21412,12 +21399,12 @@
       <c r="Y304" s="13"/>
       <c r="Z304" s="13"/>
       <c r="AA304" s="13"/>
-      <c r="AB304" s="13"/>
+      <c r="AB304" s="9"/>
       <c r="AC304" s="1"/>
     </row>
     <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B305" s="11">
@@ -21466,12 +21453,12 @@
       <c r="Y305" s="13"/>
       <c r="Z305" s="13"/>
       <c r="AA305" s="13"/>
-      <c r="AB305" s="13"/>
+      <c r="AB305" s="9"/>
       <c r="AC305" s="1"/>
     </row>
     <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B306" s="11">
@@ -21520,12 +21507,12 @@
       <c r="Y306" s="13"/>
       <c r="Z306" s="13"/>
       <c r="AA306" s="13"/>
-      <c r="AB306" s="13"/>
+      <c r="AB306" s="9"/>
       <c r="AC306" s="1"/>
     </row>
     <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B307" s="11">
@@ -21559,78 +21546,78 @@
         <v>73759</v>
       </c>
       <c r="L307" s="9">
-        <f t="shared" ref="L307" si="1273">G307+G308+G309+G310</f>
+        <f t="shared" ref="L307" si="1266">G307+G308+G309+G310</f>
         <v>97990341</v>
       </c>
       <c r="M307" s="9">
-        <f t="shared" ref="M307" si="1274">H307+H308+H309+H310</f>
+        <f t="shared" ref="M307" si="1267">H307+H308+H309+H310</f>
         <v>13352</v>
       </c>
       <c r="N307" s="9">
-        <f t="shared" ref="N307" si="1275">I307+I308+I309+I310</f>
+        <f t="shared" ref="N307" si="1268">I307+I308+I309+I310</f>
         <v>3747</v>
       </c>
       <c r="O307" s="9">
-        <f t="shared" ref="O307" si="1276">J307+J308+J309+J310</f>
+        <f t="shared" ref="O307" si="1269">J307+J308+J309+J310</f>
         <v>276034094</v>
       </c>
       <c r="P307" s="9">
-        <f t="shared" ref="P307" si="1277">K307+K308+K309+K310</f>
+        <f t="shared" ref="P307" si="1270">K307+K308+K309+K310</f>
         <v>142163</v>
       </c>
       <c r="Q307" s="9">
-        <f t="shared" ref="Q307" si="1278">((L307)*E307 + (M307)*(E307+$B$1) +N307*$B$1)/1000000</f>
+        <f t="shared" ref="Q307" si="1271">((L307)*E307 + (M307)*(E307+$B$1) +N307*$B$1)/1000000</f>
         <v>124.60727632631</v>
       </c>
       <c r="R307" s="12">
-        <f t="shared" ref="R307" si="1279">((L307)*F307+(M307)*(F307+$D$1)+N307*$D$1)/1000000</f>
+        <f t="shared" ref="R307" si="1272">((L307)*F307+(M307)*(F307+$D$1)+N307*$D$1)/1000000</f>
         <v>6.2342037058989996</v>
       </c>
       <c r="S307" s="9">
-        <f t="shared" ref="S307" si="1280">Q307*R307</f>
+        <f t="shared" ref="S307" si="1273">Q307*R307</f>
         <v>776.82714385546251</v>
       </c>
       <c r="T307" s="13">
-        <f t="shared" ref="T307" si="1281">((L307)*E307+(M307)*C307*(E307+$B$1)+N307*C307*$B$1)/1000000</f>
+        <f t="shared" ref="T307" si="1274">((L307)*E307+(M307)*C307*(E307+$B$1)+N307*C307*$B$1)/1000000</f>
         <v>188.52921605350997</v>
       </c>
       <c r="U307" s="13">
-        <f t="shared" ref="U307" si="1282">((L307)*F307+(M307)*C307*(F307+$D$1)+N307*C307*$D$1)/1000000</f>
+        <f t="shared" ref="U307" si="1275">((L307)*F307+(M307)*C307*(F307+$D$1)+N307*C307*$D$1)/1000000</f>
         <v>44.155141193779002</v>
       </c>
       <c r="V307" s="13">
-        <f t="shared" ref="V307" si="1283">T307*U307</f>
+        <f t="shared" ref="V307" si="1276">T307*U307</f>
         <v>8324.5341539951987</v>
       </c>
       <c r="W307" s="13">
-        <f t="shared" ref="W307:W334" si="1284">((O307)*E307+(P307)*(E307+$B$1))/1000000</f>
+        <f t="shared" ref="W307:W334" si="1277">((O307)*E307+(P307)*(E307+$B$1))/1000000</f>
         <v>352.43025695059004</v>
       </c>
       <c r="X307" s="13">
-        <f t="shared" ref="X307:X334" si="1285">((O307)*F307+(P307)*(F307+$D$1))/1000000</f>
+        <f t="shared" ref="X307:X334" si="1278">((O307)*F307+(P307)*(F307+$D$1))/1000000</f>
         <v>18.380867950710996</v>
       </c>
       <c r="Y307" s="13">
-        <f t="shared" ref="Y307" si="1286">W307*X307</f>
+        <f t="shared" ref="Y307" si="1279">W307*X307</f>
         <v>6477.9740148439414</v>
       </c>
       <c r="Z307" s="13">
-        <f t="shared" ref="Z307:Z334" si="1287">((O307)*E307+(P307)*C307*(E307+$B$1))/1000000</f>
+        <f t="shared" ref="Z307:Z334" si="1280">((O307)*E307+(P307)*C307*(E307+$B$1))/1000000</f>
         <v>893.96592284313999</v>
       </c>
       <c r="AA307" s="13">
-        <f t="shared" ref="AA307:AA334" si="1288">((O307)*F307+(P307)*C307*(F307+$D$1))/1000000</f>
+        <f t="shared" ref="AA307:AA334" si="1281">((O307)*F307+(P307)*C307*(F307+$D$1))/1000000</f>
         <v>334.15313376310598</v>
       </c>
-      <c r="AB307" s="13">
-        <f t="shared" ref="AB307" si="1289">Z307*AA307</f>
+      <c r="AB307" s="9">
+        <f t="shared" ref="AB307" si="1282">Z307*AA307</f>
         <v>298721.51459546224</v>
       </c>
       <c r="AC307" s="1"/>
     </row>
     <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B308" s="11">
@@ -21679,12 +21666,12 @@
       <c r="Y308" s="13"/>
       <c r="Z308" s="13"/>
       <c r="AA308" s="13"/>
-      <c r="AB308" s="13"/>
+      <c r="AB308" s="9"/>
       <c r="AC308" s="1"/>
     </row>
     <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B309" s="11">
@@ -21733,12 +21720,12 @@
       <c r="Y309" s="13"/>
       <c r="Z309" s="13"/>
       <c r="AA309" s="13"/>
-      <c r="AB309" s="13"/>
+      <c r="AB309" s="9"/>
       <c r="AC309" s="1"/>
     </row>
     <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B310" s="11">
@@ -21787,12 +21774,12 @@
       <c r="Y310" s="13"/>
       <c r="Z310" s="13"/>
       <c r="AA310" s="13"/>
-      <c r="AB310" s="13"/>
+      <c r="AB310" s="9"/>
       <c r="AC310" s="1"/>
     </row>
     <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B311" s="11">
@@ -21826,78 +21813,78 @@
         <v>87593</v>
       </c>
       <c r="L311" s="9">
-        <f t="shared" ref="L311" si="1290">G311+G312+G313+G314</f>
+        <f t="shared" ref="L311" si="1283">G311+G312+G313+G314</f>
         <v>97997197</v>
       </c>
       <c r="M311" s="9">
-        <f t="shared" ref="M311" si="1291">H311+H312+H313+H314</f>
+        <f t="shared" ref="M311" si="1284">H311+H312+H313+H314</f>
         <v>6496</v>
       </c>
       <c r="N311" s="9">
-        <f t="shared" ref="N311" si="1292">I311+I312+I313+I314</f>
+        <f t="shared" ref="N311" si="1285">I311+I312+I313+I314</f>
         <v>3383</v>
       </c>
       <c r="O311" s="9">
-        <f t="shared" ref="O311" si="1293">J311+J312+J313+J314</f>
+        <f t="shared" ref="O311" si="1286">J311+J312+J313+J314</f>
         <v>276046241</v>
       </c>
       <c r="P311" s="9">
-        <f t="shared" ref="P311" si="1294">K311+K312+K313+K314</f>
+        <f t="shared" ref="P311" si="1287">K311+K312+K313+K314</f>
         <v>130016</v>
       </c>
       <c r="Q311" s="9">
-        <f t="shared" ref="Q311" si="1295">((L311)*E311 + (M311)*(E311+$B$1) +N311*$B$1)/1000000</f>
+        <f t="shared" ref="Q311" si="1288">((L311)*E311 + (M311)*(E311+$B$1) +N311*$B$1)/1000000</f>
         <v>145.12562159872002</v>
       </c>
       <c r="R311" s="12">
-        <f t="shared" ref="R311" si="1296">((L311)*F311+(M311)*(F311+$D$1)+N311*$D$1)/1000000</f>
+        <f t="shared" ref="R311" si="1289">((L311)*F311+(M311)*(F311+$D$1)+N311*$D$1)/1000000</f>
         <v>9.0183769471769999</v>
       </c>
       <c r="S311" s="9">
-        <f t="shared" ref="S311" si="1297">Q311*R311</f>
+        <f t="shared" ref="S311" si="1290">Q311*R311</f>
         <v>1308.797560270629</v>
       </c>
       <c r="T311" s="13">
-        <f t="shared" ref="T311" si="1298">((L311)*E311+(M311)*C311*(E311+$B$1)+N311*C311*$B$1)/1000000</f>
+        <f t="shared" ref="T311" si="1291">((L311)*E311+(M311)*C311*(E311+$B$1)+N311*C311*$B$1)/1000000</f>
         <v>182.01098120392001</v>
       </c>
       <c r="U311" s="13">
-        <f t="shared" ref="U311" si="1299">((L311)*F311+(M311)*C311*(F311+$D$1)+N311*C311*$D$1)/1000000</f>
+        <f t="shared" ref="U311" si="1292">((L311)*F311+(M311)*C311*(F311+$D$1)+N311*C311*$D$1)/1000000</f>
         <v>30.956138592296995</v>
       </c>
       <c r="V311" s="13">
-        <f t="shared" ref="V311" si="1300">T311*U311</f>
+        <f t="shared" ref="V311" si="1293">T311*U311</f>
         <v>5634.3571594685109</v>
       </c>
       <c r="W311" s="13">
-        <f t="shared" ref="W311:W334" si="1301">((O311)*E311+(P311)*(E311+$B$1))/1000000</f>
+        <f t="shared" ref="W311:W334" si="1294">((O311)*E311+(P311)*(E311+$B$1))/1000000</f>
         <v>410.36341636328001</v>
       </c>
       <c r="X311" s="13">
-        <f t="shared" ref="X311:X334" si="1302">((O311)*F311+(P311)*(F311+$D$1))/1000000</f>
+        <f t="shared" ref="X311:X334" si="1295">((O311)*F311+(P311)*(F311+$D$1))/1000000</f>
         <v>26.297630424972997</v>
       </c>
       <c r="Y311" s="13">
-        <f t="shared" ref="Y311" si="1303">W311*X311</f>
+        <f t="shared" ref="Y311" si="1296">W311*X311</f>
         <v>10791.585463450854</v>
       </c>
       <c r="Z311" s="13">
-        <f t="shared" ref="Z311:Z334" si="1304">((O311)*E311+(P311)*C311*(E311+$B$1))/1000000</f>
+        <f t="shared" ref="Z311:Z334" si="1297">((O311)*E311+(P311)*C311*(E311+$B$1))/1000000</f>
         <v>912.60263881448009</v>
       </c>
       <c r="AA311" s="13">
-        <f t="shared" ref="AA311:AA334" si="1305">((O311)*F311+(P311)*C311*(F311+$D$1))/1000000</f>
+        <f t="shared" ref="AA311:AA334" si="1298">((O311)*F311+(P311)*C311*(F311+$D$1))/1000000</f>
         <v>316.05198946129298</v>
       </c>
-      <c r="AB311" s="13">
-        <f t="shared" ref="AB311" si="1306">Z311*AA311</f>
+      <c r="AB311" s="9">
+        <f t="shared" ref="AB311" si="1299">Z311*AA311</f>
         <v>288429.87958494225</v>
       </c>
       <c r="AC311" s="1"/>
     </row>
     <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B312" s="11">
@@ -21946,12 +21933,12 @@
       <c r="Y312" s="13"/>
       <c r="Z312" s="13"/>
       <c r="AA312" s="13"/>
-      <c r="AB312" s="13"/>
+      <c r="AB312" s="9"/>
       <c r="AC312" s="1"/>
     </row>
     <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B313" s="11">
@@ -22000,12 +21987,12 @@
       <c r="Y313" s="13"/>
       <c r="Z313" s="13"/>
       <c r="AA313" s="13"/>
-      <c r="AB313" s="13"/>
+      <c r="AB313" s="9"/>
       <c r="AC313" s="1"/>
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B314" s="11">
@@ -22054,12 +22041,12 @@
       <c r="Y314" s="13"/>
       <c r="Z314" s="13"/>
       <c r="AA314" s="13"/>
-      <c r="AB314" s="13"/>
+      <c r="AB314" s="9"/>
       <c r="AC314" s="1"/>
     </row>
     <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B315" s="11">
@@ -22093,78 +22080,78 @@
         <v>125447</v>
       </c>
       <c r="L315" s="9">
-        <f t="shared" ref="L315" si="1307">G315+G316+G317+G318</f>
+        <f t="shared" ref="L315" si="1300">G315+G316+G317+G318</f>
         <v>94252480</v>
       </c>
       <c r="M315" s="9">
-        <f t="shared" ref="M315" si="1308">H315+H316+H317+H318</f>
+        <f t="shared" ref="M315" si="1301">H315+H316+H317+H318</f>
         <v>3751213</v>
       </c>
       <c r="N315" s="9">
-        <f t="shared" ref="N315" si="1309">I315+I316+I317+I318</f>
+        <f t="shared" ref="N315" si="1302">I315+I316+I317+I318</f>
         <v>1333941</v>
       </c>
       <c r="O315" s="9">
-        <f t="shared" ref="O315" si="1310">J315+J316+J317+J318</f>
+        <f t="shared" ref="O315" si="1303">J315+J316+J317+J318</f>
         <v>274554420</v>
       </c>
       <c r="P315" s="9">
-        <f t="shared" ref="P315" si="1311">K315+K316+K317+K318</f>
+        <f t="shared" ref="P315" si="1304">K315+K316+K317+K318</f>
         <v>1621837</v>
       </c>
       <c r="Q315" s="9">
-        <f t="shared" ref="Q315" si="1312">((L315)*E315 + (M315)*(E315+$B$1) +N315*$B$1)/1000000</f>
+        <f t="shared" ref="Q315" si="1305">((L315)*E315 + (M315)*(E315+$B$1) +N315*$B$1)/1000000</f>
         <v>193.84433225511</v>
       </c>
       <c r="R315" s="12">
-        <f t="shared" ref="R315" si="1313">((L315)*F315+(M315)*(F315+$D$1)+N315*$D$1)/1000000</f>
+        <f t="shared" ref="R315" si="1306">((L315)*F315+(M315)*(F315+$D$1)+N315*$D$1)/1000000</f>
         <v>50.195422920295997</v>
       </c>
       <c r="S315" s="9">
-        <f t="shared" ref="S315" si="1314">Q315*R315</f>
+        <f t="shared" ref="S315" si="1307">Q315*R315</f>
         <v>9730.0982382476213</v>
       </c>
       <c r="T315" s="13">
-        <f t="shared" ref="T315" si="1315">((L315)*E315+(M315)*C315*(E315+$B$1)+N315*C315*$B$1)/1000000</f>
+        <f t="shared" ref="T315" si="1308">((L315)*E315+(M315)*C315*(E315+$B$1)+N315*C315*$B$1)/1000000</f>
         <v>38145.322981998725</v>
       </c>
       <c r="U315" s="13">
-        <f t="shared" ref="U315" si="1316">((L315)*F315+(M315)*C315*(F315+$D$1)+N315*C315*$D$1)/1000000</f>
+        <f t="shared" ref="U315" si="1309">((L315)*F315+(M315)*C315*(F315+$D$1)+N315*C315*$D$1)/1000000</f>
         <v>22644.980023086595</v>
       </c>
       <c r="V315" s="13">
-        <f t="shared" ref="V315" si="1317">T315*U315</f>
+        <f t="shared" ref="V315" si="1310">T315*U315</f>
         <v>863800076.90154707</v>
       </c>
       <c r="W315" s="13">
-        <f t="shared" ref="W315:W334" si="1318">((O315)*E315+(P315)*(E315+$B$1))/1000000</f>
+        <f t="shared" ref="W315:W334" si="1311">((O315)*E315+(P315)*(E315+$B$1))/1000000</f>
         <v>372.54574628858995</v>
       </c>
       <c r="X315" s="13">
-        <f t="shared" ref="X315:X334" si="1319">((O315)*F315+(P315)*(F315+$D$1))/1000000</f>
+        <f t="shared" ref="X315:X334" si="1312">((O315)*F315+(P315)*(F315+$D$1))/1000000</f>
         <v>31.544837191784001</v>
       </c>
       <c r="Y315" s="13">
-        <f t="shared" ref="Y315" si="1320">W315*X315</f>
+        <f t="shared" ref="Y315" si="1313">W315*X315</f>
         <v>11751.894913165239</v>
       </c>
       <c r="Z315" s="13">
-        <f t="shared" ref="Z315:Z334" si="1321">((O315)*E315+(P315)*C315*(E315+$B$1))/1000000</f>
+        <f t="shared" ref="Z315:Z334" si="1314">((O315)*E315+(P315)*C315*(E315+$B$1))/1000000</f>
         <v>12752.435572822682</v>
       </c>
       <c r="AA315" s="13">
-        <f t="shared" ref="AA315:AA334" si="1322">((O315)*F315+(P315)*C315*(F315+$D$1))/1000000</f>
+        <f t="shared" ref="AA315:AA334" si="1315">((O315)*F315+(P315)*C315*(F315+$D$1))/1000000</f>
         <v>7251.617761809568</v>
       </c>
-      <c r="AB315" s="13">
-        <f t="shared" ref="AB315" si="1323">Z315*AA315</f>
+      <c r="AB315" s="9">
+        <f t="shared" ref="AB315" si="1316">Z315*AA315</f>
         <v>92475788.30621314</v>
       </c>
       <c r="AC315" s="1"/>
     </row>
     <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B316" s="11">
@@ -22213,12 +22200,12 @@
       <c r="Y316" s="13"/>
       <c r="Z316" s="13"/>
       <c r="AA316" s="13"/>
-      <c r="AB316" s="13"/>
+      <c r="AB316" s="9"/>
       <c r="AC316" s="1"/>
     </row>
     <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B317" s="11">
@@ -22267,12 +22254,12 @@
       <c r="Y317" s="13"/>
       <c r="Z317" s="13"/>
       <c r="AA317" s="13"/>
-      <c r="AB317" s="13"/>
+      <c r="AB317" s="9"/>
       <c r="AC317" s="1"/>
     </row>
     <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B318" s="11">
@@ -22321,12 +22308,12 @@
       <c r="Y318" s="13"/>
       <c r="Z318" s="13"/>
       <c r="AA318" s="13"/>
-      <c r="AB318" s="13"/>
+      <c r="AB318" s="9"/>
       <c r="AC318" s="1"/>
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B319" s="11">
@@ -22360,78 +22347,78 @@
         <v>37689</v>
       </c>
       <c r="L319" s="9">
-        <f t="shared" ref="L319" si="1324">G319+G320+G321+G322</f>
+        <f t="shared" ref="L319" si="1317">G319+G320+G321+G322</f>
         <v>97937972</v>
       </c>
       <c r="M319" s="9">
-        <f t="shared" ref="M319" si="1325">H319+H320+H321+H322</f>
+        <f t="shared" ref="M319" si="1318">H319+H320+H321+H322</f>
         <v>65721</v>
       </c>
       <c r="N319" s="9">
-        <f t="shared" ref="N319" si="1326">I319+I320+I321+I322</f>
+        <f t="shared" ref="N319" si="1319">I319+I320+I321+I322</f>
         <v>7070</v>
       </c>
       <c r="O319" s="9">
-        <f t="shared" ref="O319" si="1327">J319+J320+J321+J322</f>
+        <f t="shared" ref="O319" si="1320">J319+J320+J321+J322</f>
         <v>276079017</v>
       </c>
       <c r="P319" s="9">
-        <f t="shared" ref="P319" si="1328">K319+K320+K321+K322</f>
+        <f t="shared" ref="P319" si="1321">K319+K320+K321+K322</f>
         <v>97240</v>
       </c>
       <c r="Q319" s="9">
-        <f t="shared" ref="Q319" si="1329">((L319)*E319 + (M319)*(E319+$B$1) +N319*$B$1)/1000000</f>
+        <f t="shared" ref="Q319" si="1322">((L319)*E319 + (M319)*(E319+$B$1) +N319*$B$1)/1000000</f>
         <v>125.35188078489999</v>
       </c>
       <c r="R319" s="12">
-        <f t="shared" ref="R319" si="1330">((L319)*F319+(M319)*(F319+$D$1)+N319*$D$1)/1000000</f>
+        <f t="shared" ref="R319" si="1323">((L319)*F319+(M319)*(F319+$D$1)+N319*$D$1)/1000000</f>
         <v>6.7689728556650008</v>
       </c>
       <c r="S319" s="9">
-        <f t="shared" ref="S319" si="1331">Q319*R319</f>
+        <f t="shared" ref="S319" si="1324">Q319*R319</f>
         <v>848.50347843954319</v>
       </c>
       <c r="T319" s="13">
-        <f t="shared" ref="T319" si="1332">((L319)*E319+(M319)*C319*(E319+$B$1)+N319*C319*$B$1)/1000000</f>
+        <f t="shared" ref="T319" si="1325">((L319)*E319+(M319)*C319*(E319+$B$1)+N319*C319*$B$1)/1000000</f>
         <v>676.40820709000002</v>
       </c>
       <c r="U319" s="13">
-        <f t="shared" ref="U319" si="1333">((L319)*F319+(M319)*C319*(F319+$D$1)+N319*C319*$D$1)/1000000</f>
+        <f t="shared" ref="U319" si="1326">((L319)*F319+(M319)*C319*(F319+$D$1)+N319*C319*$D$1)/1000000</f>
         <v>330.56340731514001</v>
       </c>
       <c r="V319" s="13">
-        <f t="shared" ref="V319" si="1334">T319*U319</f>
+        <f t="shared" ref="V319" si="1327">T319*U319</f>
         <v>223595.80167159525</v>
       </c>
       <c r="W319" s="13">
-        <f t="shared" ref="W319:W334" si="1335">((O319)*E319+(P319)*(E319+$B$1))/1000000</f>
+        <f t="shared" ref="W319" si="1328">((O319)*E319+(P319)*(E319+$B$1))/1000000</f>
         <v>351.76924551529999</v>
       </c>
       <c r="X319" s="13">
-        <f t="shared" ref="X319:X334" si="1336">((O319)*F319+(P319)*(F319+$D$1))/1000000</f>
+        <f t="shared" ref="X319" si="1329">((O319)*F319+(P319)*(F319+$D$1))/1000000</f>
         <v>18.142039814965003</v>
       </c>
       <c r="Y319" s="13">
-        <f t="shared" ref="Y319" si="1337">W319*X319</f>
+        <f t="shared" ref="Y319" si="1330">W319*X319</f>
         <v>6381.8116578187719</v>
       </c>
       <c r="Z319" s="13">
-        <f t="shared" ref="Z319:Z334" si="1338">((O319)*E319+(P319)*C319*(E319+$B$1))/1000000</f>
+        <f t="shared" ref="Z319:Z334" si="1331">((O319)*E319+(P319)*C319*(E319+$B$1))/1000000</f>
         <v>1094.0380567993</v>
       </c>
       <c r="AA319" s="13">
-        <f t="shared" ref="AA319:AA334" si="1339">((O319)*F319+(P319)*C319*(F319+$D$1))/1000000</f>
+        <f t="shared" ref="AA319:AA334" si="1332">((O319)*F319+(P319)*C319*(F319+$D$1))/1000000</f>
         <v>450.99470505996493</v>
       </c>
-      <c r="AB319" s="13">
-        <f t="shared" ref="AB319" si="1340">Z319*AA319</f>
+      <c r="AB319" s="9">
+        <f t="shared" ref="AB319" si="1333">Z319*AA319</f>
         <v>493405.37075057742</v>
       </c>
       <c r="AC319" s="1"/>
     </row>
     <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>3</v>
       </c>
       <c r="B320" s="11">
@@ -22480,12 +22467,12 @@
       <c r="Y320" s="13"/>
       <c r="Z320" s="13"/>
       <c r="AA320" s="13"/>
-      <c r="AB320" s="13"/>
+      <c r="AB320" s="9"/>
       <c r="AC320" s="1"/>
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>4</v>
       </c>
       <c r="B321" s="11">
@@ -22534,12 +22521,12 @@
       <c r="Y321" s="13"/>
       <c r="Z321" s="13"/>
       <c r="AA321" s="13"/>
-      <c r="AB321" s="13"/>
+      <c r="AB321" s="9"/>
       <c r="AC321" s="1"/>
     </row>
     <row r="322" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>1</v>
       </c>
       <c r="B322" s="11">
@@ -22588,12 +22575,12 @@
       <c r="Y322" s="13"/>
       <c r="Z322" s="13"/>
       <c r="AA322" s="13"/>
-      <c r="AB322" s="13"/>
+      <c r="AB322" s="9"/>
       <c r="AC322" s="1"/>
     </row>
     <row r="323" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <f t="shared" si="1085"/>
+        <f t="shared" si="1078"/>
         <v>2</v>
       </c>
       <c r="B323" s="11">
@@ -22627,78 +22614,78 @@
         <v>44782</v>
       </c>
       <c r="L323" s="9">
-        <f t="shared" ref="L323" si="1341">G323+G324+G325+G326</f>
+        <f t="shared" ref="L323" si="1334">G323+G324+G325+G326</f>
         <v>97989632</v>
       </c>
       <c r="M323" s="9">
-        <f t="shared" ref="M323" si="1342">H323+H324+H325+H326</f>
+        <f t="shared" ref="M323" si="1335">H323+H324+H325+H326</f>
         <v>14061</v>
       </c>
       <c r="N323" s="9">
-        <f t="shared" ref="N323" si="1343">I323+I324+I325+I326</f>
+        <f t="shared" ref="N323" si="1336">I323+I324+I325+I326</f>
         <v>5314</v>
       </c>
       <c r="O323" s="9">
-        <f t="shared" ref="O323" si="1344">J323+J324+J325+J326</f>
+        <f t="shared" ref="O323" si="1337">J323+J324+J325+J326</f>
         <v>276051315</v>
       </c>
       <c r="P323" s="9">
-        <f t="shared" ref="P323" si="1345">K323+K324+K325+K326</f>
+        <f t="shared" ref="P323" si="1338">K323+K324+K325+K326</f>
         <v>124942</v>
       </c>
       <c r="Q323" s="9">
-        <f t="shared" ref="Q323" si="1346">((L323)*E323 + (M323)*(E323+$B$1) +N323*$B$1)/1000000</f>
+        <f t="shared" ref="Q323" si="1339">((L323)*E323 + (M323)*(E323+$B$1) +N323*$B$1)/1000000</f>
         <v>124.63838742550999</v>
       </c>
       <c r="R323" s="12">
-        <f t="shared" ref="R323" si="1347">((L323)*F323+(M323)*(F323+$D$1)+N323*$D$1)/1000000</f>
+        <f t="shared" ref="R323" si="1340">((L323)*F323+(M323)*(F323+$D$1)+N323*$D$1)/1000000</f>
         <v>6.2538876463789999</v>
       </c>
       <c r="S323" s="9">
-        <f t="shared" ref="S323" si="1348">Q323*R323</f>
+        <f t="shared" ref="S323" si="1341">Q323*R323</f>
         <v>779.4744713849966</v>
       </c>
       <c r="T323" s="13">
-        <f t="shared" ref="T323" si="1349">((L323)*E323+(M323)*C323*(E323+$B$1)+N323*C323*$B$1)/1000000</f>
+        <f t="shared" ref="T323" si="1342">((L323)*E323+(M323)*C323*(E323+$B$1)+N323*C323*$B$1)/1000000</f>
         <v>269.09049563648</v>
       </c>
       <c r="U323" s="13">
-        <f t="shared" ref="U323" si="1350">((L323)*F323+(M323)*C323*(F323+$D$1)+N323*C323*$D$1)/1000000</f>
+        <f t="shared" ref="U323" si="1343">((L323)*F323+(M323)*C323*(F323+$D$1)+N323*C323*$D$1)/1000000</f>
         <v>92.325465620992006</v>
       </c>
       <c r="V323" s="13">
-        <f t="shared" ref="V323" si="1351">T323*U323</f>
+        <f t="shared" ref="V323" si="1344">T323*U323</f>
         <v>24843.905303821535</v>
       </c>
       <c r="W323" s="13">
-        <f t="shared" ref="W323:W334" si="1352">((O323)*E323+(P323)*(E323+$B$1))/1000000</f>
+        <f t="shared" ref="W323:W334" si="1345">((O323)*E323+(P323)*(E323+$B$1))/1000000</f>
         <v>352.19485965739</v>
       </c>
       <c r="X323" s="13">
-        <f t="shared" ref="X323:X334" si="1353">((O323)*F323+(P323)*(F323+$D$1))/1000000</f>
+        <f t="shared" ref="X323:X334" si="1346">((O323)*F323+(P323)*(F323+$D$1))/1000000</f>
         <v>18.231932476630998</v>
       </c>
       <c r="Y323" s="13">
-        <f t="shared" ref="Y323" si="1354">W323*X323</f>
+        <f t="shared" ref="Y323" si="1347">W323*X323</f>
         <v>6421.1928998900648</v>
       </c>
       <c r="Z323" s="13">
-        <f t="shared" ref="Z323:Z334" si="1355">((O323)*E323+(P323)*C323*(E323+$B$1))/1000000</f>
+        <f t="shared" ref="Z323:Z334" si="1348">((O323)*E323+(P323)*C323*(E323+$B$1))/1000000</f>
         <v>1305.93411546113</v>
       </c>
       <c r="AA323" s="13">
-        <f t="shared" ref="AA323:AA334" si="1356">((O323)*F323+(P323)*C323*(F323+$D$1))/1000000</f>
+        <f t="shared" ref="AA323:AA334" si="1349">((O323)*F323+(P323)*C323*(F323+$D$1))/1000000</f>
         <v>574.36225734267691</v>
       </c>
-      <c r="AB323" s="13">
-        <f t="shared" ref="AB323" si="1357">Z323*AA323</f>
+      <c r="AB323" s="9">
+        <f t="shared" ref="AB323" si="1350">Z323*AA323</f>
         <v>750079.26649706671</v>
       </c>
       <c r="AC323" s="1"/>
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <f t="shared" ref="A324:A334" si="1358">MOD(ROW() - 2,4) + 1</f>
+        <f t="shared" ref="A324:A334" si="1351">MOD(ROW() - 2,4) + 1</f>
         <v>3</v>
       </c>
       <c r="B324" s="11">
@@ -22747,12 +22734,12 @@
       <c r="Y324" s="13"/>
       <c r="Z324" s="13"/>
       <c r="AA324" s="13"/>
-      <c r="AB324" s="13"/>
+      <c r="AB324" s="9"/>
       <c r="AC324" s="1"/>
     </row>
     <row r="325" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>4</v>
       </c>
       <c r="B325" s="11">
@@ -22801,12 +22788,12 @@
       <c r="Y325" s="13"/>
       <c r="Z325" s="13"/>
       <c r="AA325" s="13"/>
-      <c r="AB325" s="13"/>
+      <c r="AB325" s="9"/>
       <c r="AC325" s="1"/>
     </row>
     <row r="326" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>1</v>
       </c>
       <c r="B326" s="11">
@@ -22855,12 +22842,12 @@
       <c r="Y326" s="13"/>
       <c r="Z326" s="13"/>
       <c r="AA326" s="13"/>
-      <c r="AB326" s="13"/>
+      <c r="AB326" s="9"/>
       <c r="AC326" s="1"/>
     </row>
     <row r="327" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>2</v>
       </c>
       <c r="B327" s="11">
@@ -22894,78 +22881,78 @@
         <v>90260</v>
       </c>
       <c r="L327" s="9">
-        <f t="shared" ref="L327" si="1359">G327+G328+G329+G330</f>
+        <f t="shared" ref="L327" si="1352">G327+G328+G329+G330</f>
         <v>93188505</v>
       </c>
       <c r="M327" s="9">
-        <f t="shared" ref="M327" si="1360">H327+H328+H329+H330</f>
+        <f t="shared" ref="M327" si="1353">H327+H328+H329+H330</f>
         <v>4815188</v>
       </c>
       <c r="N327" s="9">
-        <f t="shared" ref="N327" si="1361">I327+I328+I329+I330</f>
+        <f t="shared" ref="N327" si="1354">I327+I328+I329+I330</f>
         <v>2008138</v>
       </c>
       <c r="O327" s="9">
-        <f t="shared" ref="O327" si="1362">J327+J328+J329+J330</f>
+        <f t="shared" ref="O327" si="1355">J327+J328+J329+J330</f>
         <v>275175720</v>
       </c>
       <c r="P327" s="9">
-        <f t="shared" ref="P327" si="1363">K327+K328+K329+K330</f>
+        <f t="shared" ref="P327" si="1356">K327+K328+K329+K330</f>
         <v>1000537</v>
       </c>
       <c r="Q327" s="9">
-        <f t="shared" ref="Q327" si="1364">((L327)*E327 + (M327)*(E327+$B$1) +N327*$B$1)/1000000</f>
+        <f t="shared" ref="Q327" si="1357">((L327)*E327 + (M327)*(E327+$B$1) +N327*$B$1)/1000000</f>
         <v>217.60375295751001</v>
       </c>
       <c r="R327" s="12">
-        <f t="shared" ref="R327" si="1365">((L327)*F327+(M327)*(F327+$D$1)+N327*$D$1)/1000000</f>
+        <f t="shared" ref="R327" si="1358">((L327)*F327+(M327)*(F327+$D$1)+N327*$D$1)/1000000</f>
         <v>65.227968698856003</v>
       </c>
       <c r="S327" s="9">
-        <f t="shared" ref="S327" si="1366">Q327*R327</f>
+        <f t="shared" ref="S327" si="1359">Q327*R327</f>
         <v>14193.850786666057</v>
       </c>
       <c r="T327" s="13">
-        <f t="shared" ref="T327" si="1367">((L327)*E327+(M327)*C327*(E327+$B$1)+N327*C327*$B$1)/1000000</f>
+        <f t="shared" ref="T327" si="1360">((L327)*E327+(M327)*C327*(E327+$B$1)+N327*C327*$B$1)/1000000</f>
         <v>101881.59679545819</v>
       </c>
       <c r="U327" s="13">
-        <f t="shared" ref="U327" si="1368">((L327)*F327+(M327)*C327*(F327+$D$1)+N327*C327*$D$1)/1000000</f>
+        <f t="shared" ref="U327" si="1361">((L327)*F327+(M327)*C327*(F327+$D$1)+N327*C327*$D$1)/1000000</f>
         <v>60746.350633737871</v>
       </c>
       <c r="V327" s="13">
-        <f t="shared" ref="V327" si="1369">T327*U327</f>
+        <f t="shared" ref="V327" si="1362">T327*U327</f>
         <v>6188935202.0620079</v>
       </c>
       <c r="W327" s="13">
-        <f t="shared" ref="W327:W334" si="1370">((O327)*E327+(P327)*(E327+$B$1))/1000000</f>
+        <f t="shared" ref="W327:W334" si="1363">((O327)*E327+(P327)*(E327+$B$1))/1000000</f>
         <v>364.05307232858996</v>
       </c>
       <c r="X327" s="13">
-        <f t="shared" ref="X327:X334" si="1371">((O327)*F327+(P327)*(F327+$D$1))/1000000</f>
+        <f t="shared" ref="X327:X334" si="1364">((O327)*F327+(P327)*(F327+$D$1))/1000000</f>
         <v>26.171536567783999</v>
       </c>
       <c r="Y327" s="13">
-        <f t="shared" ref="Y327" si="1372">W327*X327</f>
+        <f t="shared" ref="Y327" si="1365">W327*X327</f>
         <v>9527.828295061805</v>
       </c>
       <c r="Z327" s="13">
-        <f t="shared" ref="Z327:Z334" si="1373">((O327)*E327+(P327)*C327*(E327+$B$1))/1000000</f>
+        <f t="shared" ref="Z327:Z334" si="1366">((O327)*E327+(P327)*C327*(E327+$B$1))/1000000</f>
         <v>15653.700216150961</v>
       </c>
       <c r="AA327" s="13">
-        <f t="shared" ref="AA327:AA334" si="1374">((O327)*F327+(P327)*C327*(F327+$D$1))/1000000</f>
+        <f t="shared" ref="AA327:AA334" si="1367">((O327)*F327+(P327)*C327*(F327+$D$1))/1000000</f>
         <v>8943.2434101368963</v>
       </c>
-      <c r="AB327" s="13">
-        <f t="shared" ref="AB327" si="1375">Z327*AA327</f>
+      <c r="AB327" s="9">
+        <f t="shared" ref="AB327" si="1368">Z327*AA327</f>
         <v>139994851.30235058</v>
       </c>
       <c r="AC327" s="1"/>
     </row>
     <row r="328" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>3</v>
       </c>
       <c r="B328" s="11">
@@ -23014,12 +23001,12 @@
       <c r="Y328" s="13"/>
       <c r="Z328" s="13"/>
       <c r="AA328" s="13"/>
-      <c r="AB328" s="13"/>
+      <c r="AB328" s="9"/>
       <c r="AC328" s="1"/>
     </row>
     <row r="329" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>4</v>
       </c>
       <c r="B329" s="11">
@@ -23068,12 +23055,12 @@
       <c r="Y329" s="13"/>
       <c r="Z329" s="13"/>
       <c r="AA329" s="13"/>
-      <c r="AB329" s="13"/>
+      <c r="AB329" s="9"/>
       <c r="AC329" s="1"/>
     </row>
     <row r="330" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>1</v>
       </c>
       <c r="B330" s="11">
@@ -23122,12 +23109,12 @@
       <c r="Y330" s="13"/>
       <c r="Z330" s="13"/>
       <c r="AA330" s="13"/>
-      <c r="AB330" s="13"/>
+      <c r="AB330" s="9"/>
       <c r="AC330" s="1"/>
     </row>
     <row r="331" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>2</v>
       </c>
       <c r="B331" s="11">
@@ -23161,78 +23148,78 @@
         <v>22482</v>
       </c>
       <c r="L331" s="9">
-        <f t="shared" ref="L331" si="1376">G331+G332+G333+G334</f>
+        <f t="shared" ref="L331" si="1369">G331+G332+G333+G334</f>
         <v>97939466</v>
       </c>
       <c r="M331" s="9">
-        <f t="shared" ref="M331" si="1377">H331+H332+H333+H334</f>
+        <f t="shared" ref="M331" si="1370">H331+H332+H333+H334</f>
         <v>64227</v>
       </c>
       <c r="N331" s="9">
-        <f t="shared" ref="N331" si="1378">I331+I332+I333+I334</f>
+        <f t="shared" ref="N331" si="1371">I331+I332+I333+I334</f>
         <v>7268</v>
       </c>
       <c r="O331" s="9">
-        <f t="shared" ref="O331" si="1379">J331+J332+J333+J334</f>
+        <f t="shared" ref="O331" si="1372">J331+J332+J333+J334</f>
         <v>276096350</v>
       </c>
       <c r="P331" s="9">
-        <f t="shared" ref="P331" si="1380">K331+K332+K333+K334</f>
+        <f t="shared" ref="P331" si="1373">K331+K332+K333+K334</f>
         <v>79907</v>
       </c>
       <c r="Q331" s="9">
-        <f t="shared" ref="Q331" si="1381">((L331)*E331 + (M331)*(E331+$B$1) +N331*$B$1)/1000000</f>
+        <f t="shared" ref="Q331" si="1374">((L331)*E331 + (M331)*(E331+$B$1) +N331*$B$1)/1000000</f>
         <v>125.3341655017</v>
       </c>
       <c r="R331" s="12">
-        <f t="shared" ref="R331" si="1382">((L331)*F331+(M331)*(F331+$D$1)+N331*$D$1)/1000000</f>
+        <f t="shared" ref="R331" si="1375">((L331)*F331+(M331)*(F331+$D$1)+N331*$D$1)/1000000</f>
         <v>6.757764425585</v>
       </c>
       <c r="S331" s="9">
-        <f t="shared" ref="S331" si="1383">Q331*R331</f>
+        <f t="shared" ref="S331" si="1376">Q331*R331</f>
         <v>846.97876493777107</v>
       </c>
       <c r="T331" s="13">
-        <f t="shared" ref="T331" si="1384">((L331)*E331+(M331)*C331*(E331+$B$1)+N331*C331*$B$1)/1000000</f>
+        <f t="shared" ref="T331" si="1377">((L331)*E331+(M331)*C331*(E331+$B$1)+N331*C331*$B$1)/1000000</f>
         <v>1208.4631329705999</v>
       </c>
       <c r="U331" s="13">
-        <f t="shared" ref="U331" si="1385">((L331)*F331+(M331)*C331*(F331+$D$1)+N331*C331*$D$1)/1000000</f>
+        <f t="shared" ref="U331" si="1378">((L331)*F331+(M331)*C331*(F331+$D$1)+N331*C331*$D$1)/1000000</f>
         <v>643.41831373492994</v>
       </c>
       <c r="V331" s="13">
-        <f t="shared" ref="V331" si="1386">T331*U331</f>
+        <f t="shared" ref="V331" si="1379">T331*U331</f>
         <v>777547.31122677377</v>
       </c>
       <c r="W331" s="13">
-        <f t="shared" ref="W331:W335" si="1387">((O331)*E331+(P331)*(E331+$B$1))/1000000</f>
+        <f t="shared" ref="W331" si="1380">((O331)*E331+(P331)*(E331+$B$1))/1000000</f>
         <v>351.53231727169998</v>
       </c>
       <c r="X331" s="13">
-        <f t="shared" ref="X331:X334" si="1388">((O331)*F331+(P331)*(F331+$D$1))/1000000</f>
+        <f t="shared" ref="X331" si="1381">((O331)*F331+(P331)*(F331+$D$1))/1000000</f>
         <v>17.992135711125002</v>
       </c>
       <c r="Y331" s="13">
-        <f t="shared" ref="Y331" si="1389">W331*X331</f>
+        <f t="shared" ref="Y331" si="1382">W331*X331</f>
         <v>6324.8171591986775</v>
       </c>
       <c r="Z331" s="13">
-        <f t="shared" ref="Z331:Z334" si="1390">((O331)*E331+(P331)*C331*(E331+$B$1))/1000000</f>
+        <f t="shared" ref="Z331:Z334" si="1383">((O331)*E331+(P331)*C331*(E331+$B$1))/1000000</f>
         <v>1572.6452253758002</v>
       </c>
       <c r="AA331" s="13">
-        <f t="shared" ref="AA331:AA334" si="1391">((O331)*F331+(P331)*C331*(F331+$D$1))/1000000</f>
+        <f t="shared" ref="AA331:AA334" si="1384">((O331)*F331+(P331)*C331*(F331+$D$1))/1000000</f>
         <v>730.08183798974994</v>
       </c>
-      <c r="AB331" s="13">
-        <f t="shared" ref="AB331" si="1392">Z331*AA331</f>
+      <c r="AB331" s="9">
+        <f t="shared" ref="AB331" si="1385">Z331*AA331</f>
         <v>1148159.7166481689</v>
       </c>
       <c r="AC331" s="1"/>
     </row>
     <row r="332" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>3</v>
       </c>
       <c r="B332" s="11">
@@ -23281,12 +23268,12 @@
       <c r="Y332" s="13"/>
       <c r="Z332" s="13"/>
       <c r="AA332" s="13"/>
-      <c r="AB332" s="13"/>
+      <c r="AB332" s="9"/>
       <c r="AC332" s="1"/>
     </row>
     <row r="333" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>4</v>
       </c>
       <c r="B333" s="11">
@@ -23335,12 +23322,12 @@
       <c r="Y333" s="13"/>
       <c r="Z333" s="13"/>
       <c r="AA333" s="13"/>
-      <c r="AB333" s="13"/>
+      <c r="AB333" s="9"/>
       <c r="AC333" s="1"/>
     </row>
     <row r="334" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <f t="shared" si="1358"/>
+        <f t="shared" si="1351"/>
         <v>1</v>
       </c>
       <c r="B334" s="11">
@@ -23389,7 +23376,7 @@
       <c r="Y334" s="13"/>
       <c r="Z334" s="13"/>
       <c r="AA334" s="13"/>
-      <c r="AB334" s="13"/>
+      <c r="AB334" s="9"/>
       <c r="AC334" s="1"/>
     </row>
     <row r="335" spans="1:29" x14ac:dyDescent="0.25">
@@ -23401,34 +23388,71 @@
         <f>MIN(R1:R334)</f>
         <v>4.666323073689</v>
       </c>
-      <c r="S335">
-        <f>MIN(S1:S334)</f>
-        <v>636.32579228214399</v>
-      </c>
-      <c r="T335" s="15">
+      <c r="T335" s="16">
         <f>MIN(T3:T334)</f>
         <v>141.58791495431998</v>
       </c>
-      <c r="U335" s="15">
+      <c r="U335" s="16">
         <f>MIN(U3:U334)</f>
         <v>16.252494542971998</v>
       </c>
-      <c r="V335" s="15">
-        <f>MIN(V3:V334)</f>
-        <v>2308.9932337534888</v>
-      </c>
-      <c r="X335" s="15">
+      <c r="V335" s="16"/>
+      <c r="W335" s="16">
+        <f>MIN(W3:W334)</f>
+        <v>351.53231727169998</v>
+      </c>
+      <c r="X335" s="16">
         <f>MIN(X3:X334)</f>
         <v>17.992135711125002</v>
       </c>
-      <c r="Y335" s="6">
-        <f>MIN(Y3:Y334)</f>
-        <v>6324.8171591986775</v>
-      </c>
-      <c r="AB335" s="6">
-        <f>MIN(AB3:AB334)</f>
-        <v>76213.653740359659</v>
-      </c>
+      <c r="Y335" s="6"/>
+      <c r="Z335" s="16">
+        <f>MIN(Z3:Z334)</f>
+        <v>591.42196934364995</v>
+      </c>
+      <c r="AA335" s="16">
+        <f>MIN(AA3:AA334)</f>
+        <v>151.9091160047</v>
+      </c>
+      <c r="AB335" s="6"/>
+    </row>
+    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q336" s="15">
+        <f>MAX(Q2:Q335)</f>
+        <v>411.13830567808498</v>
+      </c>
+      <c r="R336" s="15">
+        <f t="shared" ref="R336:S336" si="1386">MAX(R2:R335)</f>
+        <v>218.35625919239794</v>
+      </c>
+      <c r="S336" s="15"/>
+      <c r="T336" s="15">
+        <f>MAX(T4:T335)</f>
+        <v>134095.51388902855</v>
+      </c>
+      <c r="U336" s="15">
+        <f>MAX(U4:U335)</f>
+        <v>79747.580621034271</v>
+      </c>
+      <c r="V336" s="15"/>
+      <c r="W336" s="15">
+        <f t="shared" ref="V336:Y336" si="1387">MAX(W4:W335)</f>
+        <v>887.00089428274998</v>
+      </c>
+      <c r="X336" s="15">
+        <f t="shared" si="1387"/>
+        <v>378.62146759168093</v>
+      </c>
+      <c r="Y336" s="15"/>
+      <c r="Z336" s="15">
+        <f>MAX(Z4:Z335)</f>
+        <v>36710.522412762075</v>
+      </c>
+      <c r="AA336" s="15">
+        <f>MAX(AA4:AA335)</f>
+        <v>21383.253695391664</v>
+      </c>
+      <c r="AB336" s="15"/>
     </row>
     <row r="347" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B347" s="11">
@@ -23462,71 +23486,71 @@
         <v>120970</v>
       </c>
       <c r="L347" s="9">
-        <f t="shared" ref="L347" si="1393">G347+G348+G349+G350</f>
+        <f t="shared" ref="L347" si="1388">G347+G348+G349+G350</f>
         <v>97933468</v>
       </c>
       <c r="M347" s="9">
-        <f t="shared" ref="M347" si="1394">H347+H348+H349+H350</f>
+        <f t="shared" ref="M347" si="1389">H347+H348+H349+H350</f>
         <v>70225</v>
       </c>
       <c r="N347" s="9">
-        <f t="shared" ref="N347" si="1395">I347+I348+I349+I350</f>
+        <f t="shared" ref="N347" si="1390">I347+I348+I349+I350</f>
         <v>44009</v>
       </c>
       <c r="O347" s="9">
-        <f t="shared" ref="O347" si="1396">J347+J348+J349+J350</f>
+        <f t="shared" ref="O347" si="1391">J347+J348+J349+J350</f>
         <v>274711515</v>
       </c>
       <c r="P347" s="9">
-        <f t="shared" ref="P347" si="1397">K347+K348+K349+K350</f>
+        <f t="shared" ref="P347" si="1392">K347+K348+K349+K350</f>
         <v>1464742</v>
       </c>
       <c r="Q347" s="9">
-        <f t="shared" ref="Q347" si="1398">((L347)*E347 + (M347)*(E347+$B$1) +N347*$B$1)/1000000</f>
+        <f t="shared" ref="Q347" si="1393">((L347)*E347 + (M347)*(E347+$B$1) +N347*$B$1)/1000000</f>
         <v>136.36556711430001</v>
       </c>
       <c r="R347" s="9">
-        <f t="shared" ref="R347" si="1399">((L347)*F347+(M347)*(F347+$D$1)+N347*$D$1)/1000000</f>
+        <f t="shared" ref="R347" si="1394">((L347)*F347+(M347)*(F347+$D$1)+N347*$D$1)/1000000</f>
         <v>4.666323073689</v>
       </c>
       <c r="S347" s="9">
-        <f t="shared" ref="S347" si="1400">Q347*R347</f>
+        <f t="shared" ref="S347" si="1395">Q347*R347</f>
         <v>636.32579228214399</v>
       </c>
       <c r="T347" s="9">
-        <f t="shared" ref="T347" si="1401">((L347)*E347+(M347)*C347*(E347+$B$1)+N347*C347*$B$1)/1000000</f>
+        <f t="shared" ref="T347" si="1396">((L347)*E347+(M347)*C347*(E347+$B$1)+N347*C347*$B$1)/1000000</f>
         <v>559.17644659080008</v>
       </c>
       <c r="U347" s="9">
-        <f t="shared" ref="U347" si="1402">((L347)*F347+(M347)*C347*(F347+$D$1)+N347*C347*$D$1)/1000000</f>
+        <f t="shared" ref="U347" si="1397">((L347)*F347+(M347)*C347*(F347+$D$1)+N347*C347*$D$1)/1000000</f>
         <v>257.26580898116396</v>
       </c>
       <c r="V347" s="9">
-        <f t="shared" ref="V347" si="1403">T347*U347</f>
+        <f t="shared" ref="V347" si="1398">T347*U347</f>
         <v>143856.98089539481</v>
       </c>
       <c r="W347" s="8">
-        <f t="shared" ref="W347" si="1404">((O347)*E347+(P347)*(E347+$B$1))/1000000</f>
+        <f t="shared" ref="W347" si="1399">((O347)*E347+(P347)*(E347+$B$1))/1000000</f>
         <v>399.90229284989999</v>
       </c>
       <c r="X347" s="8">
-        <f t="shared" ref="X347" si="1405">((O347)*F347+(P347)*(F347+$D$1))/1000000</f>
+        <f t="shared" ref="X347" si="1400">((O347)*F347+(P347)*(F347+$D$1))/1000000</f>
         <v>23.033515346140994</v>
       </c>
       <c r="Y347" s="8">
-        <f t="shared" ref="Y347" si="1406">W347*X347</f>
+        <f t="shared" ref="Y347" si="1401">W347*X347</f>
         <v>9211.1555993151414</v>
       </c>
       <c r="Z347" s="8">
-        <f t="shared" ref="Z347" si="1407">((O347)*E347+(P347)*C347*(E347+$B$1))/1000000</f>
+        <f t="shared" ref="Z347" si="1402">((O347)*E347+(P347)*C347*(E347+$B$1))/1000000</f>
         <v>6019.2363045368993</v>
       </c>
       <c r="AA347" s="8">
-        <f t="shared" ref="AA347" si="1408">((O347)*F347+(P347)*C347*(F347+$D$1))/1000000</f>
+        <f t="shared" ref="AA347" si="1403">((O347)*F347+(P347)*C347*(F347+$D$1))/1000000</f>
         <v>3267.3393690258704</v>
       </c>
       <c r="AB347" s="8">
-        <f t="shared" ref="AB347" si="1409">Z347*AA347</f>
+        <f t="shared" ref="AB347" si="1404">Z347*AA347</f>
         <v>19666887.749283206</v>
       </c>
       <c r="AC347" s="5"/>
@@ -23713,15 +23737,15 @@
         <v>73759</v>
       </c>
       <c r="L351" s="9">
-        <f t="shared" ref="L351" si="1410">G351+G352+G353+G354</f>
+        <f t="shared" ref="L351" si="1405">G351+G352+G353+G354</f>
         <v>97990341</v>
       </c>
       <c r="M351" s="9">
-        <f t="shared" ref="M351" si="1411">H351+H352+H353+H354</f>
+        <f t="shared" ref="M351" si="1406">H351+H352+H353+H354</f>
         <v>13352</v>
       </c>
       <c r="N351" s="9">
-        <f t="shared" ref="N351" si="1412">I351+I352+I353+I354</f>
+        <f t="shared" ref="N351" si="1407">I351+I352+I353+I354</f>
         <v>3747</v>
       </c>
       <c r="O351" s="9">
@@ -23729,55 +23753,55 @@
         <v>276034094</v>
       </c>
       <c r="P351" s="9">
-        <f t="shared" ref="P351" si="1413">K351+K352+K353+K354</f>
+        <f t="shared" ref="P351" si="1408">K351+K352+K353+K354</f>
         <v>142163</v>
       </c>
       <c r="Q351" s="9">
-        <f t="shared" ref="Q351" si="1414">((L351)*E351 + (M351)*(E351+$B$1) +N351*$B$1)/1000000</f>
+        <f t="shared" ref="Q351" si="1409">((L351)*E351 + (M351)*(E351+$B$1) +N351*$B$1)/1000000</f>
         <v>124.60727632631</v>
       </c>
       <c r="R351" s="9">
-        <f t="shared" ref="R351" si="1415">((L351)*F351+(M351)*(F351+$D$1)+N351*$D$1)/1000000</f>
+        <f t="shared" ref="R351" si="1410">((L351)*F351+(M351)*(F351+$D$1)+N351*$D$1)/1000000</f>
         <v>6.2342037058989996</v>
       </c>
       <c r="S351" s="9">
-        <f t="shared" ref="S351" si="1416">Q351*R351</f>
+        <f t="shared" ref="S351" si="1411">Q351*R351</f>
         <v>776.82714385546251</v>
       </c>
       <c r="T351" s="9">
-        <f t="shared" ref="T351" si="1417">((L351)*E351+(M351)*C351*(E351+$B$1)+N351*C351*$B$1)/1000000</f>
+        <f t="shared" ref="T351" si="1412">((L351)*E351+(M351)*C351*(E351+$B$1)+N351*C351*$B$1)/1000000</f>
         <v>188.52921605350997</v>
       </c>
       <c r="U351" s="9">
-        <f t="shared" ref="U351" si="1418">((L351)*F351+(M351)*C351*(F351+$D$1)+N351*C351*$D$1)/1000000</f>
+        <f t="shared" ref="U351" si="1413">((L351)*F351+(M351)*C351*(F351+$D$1)+N351*C351*$D$1)/1000000</f>
         <v>44.155141193779002</v>
       </c>
       <c r="V351" s="9">
-        <f t="shared" ref="V351" si="1419">T351*U351</f>
+        <f t="shared" ref="V351" si="1414">T351*U351</f>
         <v>8324.5341539951987</v>
       </c>
       <c r="W351" s="8">
-        <f t="shared" ref="W351" si="1420">((O351)*E351+(P351)*(E351+$B$1))/1000000</f>
+        <f t="shared" ref="W351" si="1415">((O351)*E351+(P351)*(E351+$B$1))/1000000</f>
         <v>352.43025695059004</v>
       </c>
       <c r="X351" s="8">
-        <f t="shared" ref="X351" si="1421">((O351)*F351+(P351)*(F351+$D$1))/1000000</f>
+        <f t="shared" ref="X351" si="1416">((O351)*F351+(P351)*(F351+$D$1))/1000000</f>
         <v>18.380867950710996</v>
       </c>
       <c r="Y351" s="8">
-        <f t="shared" ref="Y351" si="1422">W351*X351</f>
+        <f t="shared" ref="Y351" si="1417">W351*X351</f>
         <v>6477.9740148439414</v>
       </c>
       <c r="Z351" s="8">
-        <f t="shared" ref="Z351" si="1423">((O351)*E351+(P351)*C351*(E351+$B$1))/1000000</f>
+        <f t="shared" ref="Z351" si="1418">((O351)*E351+(P351)*C351*(E351+$B$1))/1000000</f>
         <v>893.96592284313999</v>
       </c>
       <c r="AA351" s="8">
-        <f t="shared" ref="AA351" si="1424">((O351)*F351+(P351)*C351*(F351+$D$1))/1000000</f>
+        <f t="shared" ref="AA351" si="1419">((O351)*F351+(P351)*C351*(F351+$D$1))/1000000</f>
         <v>334.15313376310598</v>
       </c>
       <c r="AB351" s="8">
-        <f t="shared" ref="AB351" si="1425">Z351*AA351</f>
+        <f t="shared" ref="AB351" si="1420">Z351*AA351</f>
         <v>298721.51459546224</v>
       </c>
       <c r="AC351" s="5"/>
@@ -26386,47 +26410,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T334">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>T3=MIN(T$3:T$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U334">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>U3=MIN(U$3:U$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V334">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>V3=MIN(V$3:V$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W334">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>W3=MIN(W$3:W$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X334">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>X3=MIN(X$3:X$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y334">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Y3=MIN(Y$3:Y$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z334">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>Z3=MIN(Z$3:Z$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA334">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AA3=MIN(AA$3:AA$334)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB334">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AB3=MIN(AB$3:AB$334)</formula>
     </cfRule>
   </conditionalFormatting>
